--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,23 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Prefab</t>
+    <t>WeaponId</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Icon</t>
   </si>
   <si>
     <t>Weight</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>WeightType</t>
   </si>
   <si>
@@ -111,18 +111,18 @@
     <t>ScatteringRangeBackTime</t>
   </si>
   <si>
+    <t>MinDistance</t>
+  </si>
+  <si>
     <t>MaxDistance</t>
   </si>
   <si>
-    <t>MinDistance</t>
+    <t>MinBacklash</t>
   </si>
   <si>
     <t>MaxBacklash</t>
   </si>
   <si>
-    <t>MinBacklash</t>
-  </si>
-  <si>
     <t>BacklashRegressionSpeed</t>
   </si>
   <si>
@@ -141,20 +141,31 @@
     <t>ThrowCollisionSize</t>
   </si>
   <si>
-    <t>物体唯一id
-不需要添加类型前缀</t>
-  </si>
-  <si>
-    <t>武器 Prefab, 必须继承场景 "res://prefab/weapon/Weapon.tscn"</t>
+    <t>AiUseAttributeId</t>
+  </si>
+  <si>
+    <t>AiTargetLockingTime</t>
+  </si>
+  <si>
+    <t>AiBulletSpeedScale</t>
+  </si>
+  <si>
+    <t>AiAmmoConsumptionProbability</t>
+  </si>
+  <si>
+    <t>武器属性id</t>
+  </si>
+  <si>
+    <t>属性绑定武器的Id,如果是Ai使用的数据, 则填空字符串串</t>
+  </si>
+  <si>
+    <t>武器显示的名称</t>
+  </si>
+  <si>
+    <t>武器的图标</t>
   </si>
   <si>
     <t>重量</t>
-  </si>
-  <si>
-    <t>武器显示的名称</t>
-  </si>
-  <si>
-    <t>武器的图标</t>
   </si>
   <si>
     <t>武器类型:
@@ -172,10 +183,10 @@
     <t>弹药容量上限</t>
   </si>
   <si>
-    <t>起始备用弹药数量</t>
-  </si>
-  <si>
-    <t>装弹时间, 单位: 秒</t>
+    <t>默认起始备用弹药数量</t>
+  </si>
+  <si>
+    <t>装弹时间 (单位: 秒)</t>
   </si>
   <si>
     <t>每粒子弹是否是单独装填, 如果是, 那么每上一发子弹的时间就是 ReloadTime, 可以做霰弹武器装填效果</t>
@@ -238,18 +249,18 @@
     <t>松开扳机多久后开始销退散射值 (单位: 秒)</t>
   </si>
   <si>
+    <t>子弹飞行最小距离</t>
+  </si>
+  <si>
     <t>子弹飞行最大距离</t>
   </si>
   <si>
-    <t>子弹飞行最小距离</t>
+    <t>最小后坐力 (仅用于开火后武器身抖动)</t>
   </si>
   <si>
     <t>最大后坐力 (仅用于开火后武器身抖动)</t>
   </si>
   <si>
-    <t>最小后坐力 (仅用于开火后武器身抖动)</t>
-  </si>
-  <si>
     <t>后坐力偏移回归回归速度</t>
   </si>
   <si>
@@ -268,6 +279,22 @@
     <t>投抛状态下物体碰撞器大小</t>
   </si>
   <si>
+    <t>Ai属性
+Ai 使用该武器时的武器数据, 设置该字段, 可让同一把武器在敌人和玩家手上有不同属性</t>
+  </si>
+  <si>
+    <t>Ai属性
+目标锁定时间, 也就是瞄准目标多久才会开火, (单位: 秒)</t>
+  </si>
+  <si>
+    <t>Ai属性
+Ai使用该武器发射的子弹速度缩放比</t>
+  </si>
+  <si>
+    <t>Ai属性
+Ai使用该武器消耗弹药的概率, (0 - 1)</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -287,6 +314,24 @@
   </si>
   <si>
     <t>0001</t>
+  </si>
+  <si>
+    <t>weapon0001</t>
+  </si>
+  <si>
+    <t>步枪</t>
+  </si>
+  <si>
+    <t>res://resource/sprite/gun/gun4.png</t>
+  </si>
+  <si>
+    <t>bullet0001</t>
+  </si>
+  <si>
+    <t>{"X":20,"Y":15}</t>
+  </si>
+  <si>
+    <t>0002</t>
   </si>
 </sst>
 </file>
@@ -902,15 +947,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1260,24 +1314,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="2" width="27.5555555555556" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.2314814814815" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6851851851852" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.4722222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1111111111111" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6666666666667" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.1111111111111" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.2222222222222" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.8888888888889" style="1" customWidth="1"/>
     <col min="10" max="10" width="21" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1111111111111" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.0555555555556" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.2222222222222" style="1" customWidth="1"/>
     <col min="14" max="14" width="22.2222222222222" style="1" customWidth="1"/>
     <col min="15" max="15" width="27.6666666666667" style="1" customWidth="1"/>
@@ -1297,20 +1353,23 @@
     <col min="29" max="29" width="25.8888888888889" style="1" customWidth="1"/>
     <col min="30" max="30" width="24.7777777777778" style="1" customWidth="1"/>
     <col min="31" max="31" width="28.8888888888889" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="34" max="34" width="19.0092592592593" style="1" customWidth="1"/>
-    <col min="35" max="35" width="20" style="1" customWidth="1"/>
+    <col min="32" max="32" width="17.7777777777778" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.0092592592593" style="1" customWidth="1"/>
     <col min="36" max="36" width="30.9814814814815" style="1" customWidth="1"/>
     <col min="37" max="37" width="22.962962962963" style="1" customWidth="1"/>
     <col min="38" max="38" width="23.7037037037037" style="1" customWidth="1"/>
     <col min="39" max="39" width="27.6481481481481" style="1" customWidth="1"/>
     <col min="40" max="40" width="27.7777777777778" style="1" customWidth="1"/>
     <col min="41" max="41" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="42" max="44" width="9" style="1"/>
+    <col min="42" max="42" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="43" max="43" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="44" max="44" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="45" max="45" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:41">
+    <row r="1" ht="31" customHeight="1" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,274 +1492,561 @@
       </c>
       <c r="AO1" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" ht="114" customHeight="1" spans="1:48">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS2" s="1"/>
-      <c r="AT2" s="1"/>
-      <c r="AU2" s="1"/>
-      <c r="AV2" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:41">
+    <row r="3" ht="27" customHeight="1" spans="1:45">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="4" ht="47" customHeight="1" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>88</v>
+    <row r="4" ht="57" customHeight="1" spans="1:42">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>90</v>
+      </c>
+      <c r="J4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>480</v>
+      </c>
+      <c r="U4" s="1">
+        <v>480</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>300</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>400</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:45">
+      <c r="A5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>90</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>480</v>
+      </c>
+      <c r="U5" s="1">
+        <v>480</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>300</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>400</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <ignoredErrors>
-    <ignoredError sqref="A4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
   <si>
     <t>Id</t>
   </si>
@@ -332,6 +332,45 @@
   </si>
   <si>
     <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>weapon0002</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>bullet0002</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>weapon0003</t>
+  </si>
+  <si>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>weapon0004</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>0008</t>
   </si>
 </sst>
 </file>
@@ -1314,13 +1353,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.2314814814815" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.6851851851852" style="1" customWidth="1"/>
@@ -1812,7 +1855,7 @@
         <v>90</v>
       </c>
       <c r="J4" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="K4" s="1">
         <v>2.5</v>
@@ -1821,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="b">
         <v>0</v>
@@ -1946,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="b">
         <v>0</v>
@@ -2040,6 +2083,786 @@
         <v>0.7</v>
       </c>
       <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:42">
+      <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>42</v>
+      </c>
+      <c r="J6" s="1">
+        <v>42</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>400</v>
+      </c>
+      <c r="U6" s="1">
+        <v>400</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>200</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:45">
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1">
+        <v>42</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>400</v>
+      </c>
+      <c r="U7" s="1">
+        <v>400</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>30</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>90</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>200</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>250</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:42">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1">
+        <v>72</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>300</v>
+      </c>
+      <c r="U8" s="1">
+        <v>300</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>300</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:45">
+      <c r="A9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1">
+        <v>72</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>300</v>
+      </c>
+      <c r="U9" s="1">
+        <v>300</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>300</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:42">
+      <c r="A10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1">
+        <v>40</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>180</v>
+      </c>
+      <c r="I10" s="1">
+        <v>180</v>
+      </c>
+      <c r="J10" s="1">
+        <v>180</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>180</v>
+      </c>
+      <c r="U10" s="1">
+        <v>180</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP10" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:45">
+      <c r="A11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>180</v>
+      </c>
+      <c r="I11" s="1">
+        <v>180</v>
+      </c>
+      <c r="J11" s="1">
+        <v>180</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>180</v>
+      </c>
+      <c r="U11" s="1">
+        <v>180</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AS11" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
   <si>
     <t>Id</t>
   </si>
@@ -139,6 +139,21 @@
   </si>
   <si>
     <t>ThrowCollisionSize</t>
+  </si>
+  <si>
+    <t>ShootSound</t>
+  </si>
+  <si>
+    <t>ReloadSound</t>
+  </si>
+  <si>
+    <t>ReloadSoundDelayTime</t>
+  </si>
+  <si>
+    <t>EquipSound</t>
+  </si>
+  <si>
+    <t>EquipSoundDelayTime</t>
   </si>
   <si>
     <t>AiUseAttributeId</t>
@@ -279,8 +294,24 @@
     <t>投抛状态下物体碰撞器大小</t>
   </si>
   <si>
+    <t>射击音效</t>
+  </si>
+  <si>
+    <t>换弹音效</t>
+  </si>
+  <si>
+    <t>换弹音效延时时间</t>
+  </si>
+  <si>
+    <t>上膛音效</t>
+  </si>
+  <si>
+    <t>上膛音效延时时间</t>
+  </si>
+  <si>
     <t>Ai属性
-Ai 使用该武器时的武器数据, 设置该字段, 可让同一把武器在敌人和玩家手上有不同属性</t>
+Ai 使用该武器时的武器数据, 设置该字段, 可让同一把武器在敌人和玩家手上有不同属性
+如果不填则Ai和玩家使用同一种属性</t>
   </si>
   <si>
     <t>Ai属性
@@ -331,6 +362,9 @@
     <t>{"X":20,"Y":15}</t>
   </si>
   <si>
+    <t>res://resource/sound/sfx/Shooting0002.mp3</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -346,6 +380,9 @@
     <t>bullet0002</t>
   </si>
   <si>
+    <t>res://resource/sound/sfx/Shooting0003.mp3</t>
+  </si>
+  <si>
     <t>0004</t>
   </si>
   <si>
@@ -358,6 +395,12 @@
     <t>手枪</t>
   </si>
   <si>
+    <t>res://resource/sound/sfx/Shooting0001.ogg</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading0001.mp3</t>
+  </si>
+  <si>
     <t>0006</t>
   </si>
   <si>
@@ -371,6 +414,21 @@
   </si>
   <si>
     <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>weapon0005</t>
+  </si>
+  <si>
+    <t>狙击枪</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading0002.ogg</t>
+  </si>
+  <si>
+    <t>res://resource/sound/sfx/Reloading0004.ogg</t>
   </si>
 </sst>
 </file>
@@ -999,11 +1057,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1353,14 +1411,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1374,7 +1432,7 @@
     <col min="7" max="7" width="20.1111111111111" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.2222222222222" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1851851851852" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.0555555555556" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.2222222222222" style="1" customWidth="1"/>
@@ -1405,14 +1463,14 @@
     <col min="38" max="38" width="23.7037037037037" style="1" customWidth="1"/>
     <col min="39" max="39" width="27.6481481481481" style="1" customWidth="1"/>
     <col min="40" max="40" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="41" max="41" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="42" max="42" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="43" max="43" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="44" max="44" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="45" max="45" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="41" max="46" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="47" max="47" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="48" max="48" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="49" max="49" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="50" max="50" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:45">
+    <row r="1" ht="31" customHeight="1" spans="1:50">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1594,7 @@
       <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
@@ -1548,296 +1606,341 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:48">
+    <row r="2" ht="114" customHeight="1" spans="1:53">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY2" s="5"/>
+      <c r="AZ2" s="5"/>
+      <c r="BA2" s="5"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:45">
+    <row r="3" ht="27" customHeight="1" spans="1:50">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:42">
+    <row r="4" ht="57" customHeight="1" spans="1:47">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -1858,7 +1961,7 @@
         <v>90</v>
       </c>
       <c r="K4" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>0</v>
@@ -1945,24 +2048,27 @@
         <v>1</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:45">
+    <row r="5" ht="57" customHeight="1" spans="1:50">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -1983,7 +2089,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
@@ -2070,34 +2176,37 @@
         <v>1</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="1">
+        <v>111</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AW5" s="1">
         <v>0.7</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AX5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:42">
+    <row r="6" ht="57" customHeight="1" spans="1:47">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2205,24 +2314,27 @@
         <v>1</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:45">
+    <row r="7" ht="57" customHeight="1" spans="1:50">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2330,34 +2442,37 @@
         <v>1</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="1">
+        <v>111</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AW7" s="1">
         <v>0.7</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AX7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:42">
+    <row r="8" ht="57" customHeight="1" spans="1:47">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -2465,24 +2580,33 @@
         <v>1</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP8" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="AP8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:45">
+    <row r="9" ht="57" customHeight="1" spans="1:50">
       <c r="A9" s="3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -2590,34 +2714,43 @@
         <v>1</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="1">
-        <v>1</v>
+        <v>111</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="AR9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1">
         <v>0.7</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AX9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:42">
+    <row r="10" ht="57" customHeight="1" spans="1:47">
       <c r="A10" s="3" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2638,7 +2771,7 @@
         <v>180</v>
       </c>
       <c r="K10" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1" t="b">
         <v>0</v>
@@ -2725,24 +2858,24 @@
         <v>1</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP10" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:45">
+    <row r="11" ht="57" customHeight="1" spans="1:50">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -2763,7 +2896,7 @@
         <v>180</v>
       </c>
       <c r="K11" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1" t="b">
         <v>0</v>
@@ -2850,19 +2983,169 @@
         <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="1">
+        <v>111</v>
+      </c>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="1">
         <v>0.7</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AW11" s="1">
         <v>0.7</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AX11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:50">
+      <c r="A12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>40</v>
+      </c>
+      <c r="J12" s="1">
+        <v>40</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>45</v>
+      </c>
+      <c r="U12" s="1">
+        <v>45</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>25</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>700</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>900</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AX12" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
   <si>
     <t>Id</t>
   </si>
@@ -344,6 +344,9 @@
     <t>vector2</t>
   </si>
   <si>
+    <t>$Sound</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
@@ -362,7 +365,7 @@
     <t>{"X":20,"Y":15}</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0002.mp3</t>
+    <t>shooting0002</t>
   </si>
   <si>
     <t>0002</t>
@@ -380,7 +383,7 @@
     <t>bullet0002</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0003.mp3</t>
+    <t>shooting0003</t>
   </si>
   <si>
     <t>0004</t>
@@ -395,10 +398,10 @@
     <t>手枪</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Shooting0001.ogg</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/Reloading0001.mp3</t>
+    <t>shooting0001</t>
+  </si>
+  <si>
+    <t>reloading0001</t>
   </si>
   <si>
     <t>0006</t>
@@ -425,10 +428,10 @@
     <t>狙击枪</t>
   </si>
   <si>
-    <t>res://resource/sound/sfx/Reloading0002.ogg</t>
-  </si>
-  <si>
-    <t>res://resource/sound/sfx/Reloading0004.ogg</t>
+    <t>reloading0002</t>
+  </si>
+  <si>
+    <t>reloading0004</t>
   </si>
 </sst>
 </file>
@@ -1414,11 +1417,11 @@
   <dimension ref="A1:BA12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AN4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
+      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1902,16 +1905,16 @@
         <v>105</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>101</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>101</v>
@@ -1931,16 +1934,16 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:47">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2048,27 +2051,27 @@
         <v>1</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP4" s="1" t="s">
         <v>112</v>
       </c>
+      <c r="AP4" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="AU4" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:50">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2176,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP5" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="AU5" s="4"/>
       <c r="AV5" s="1">
@@ -2197,16 +2200,16 @@
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:47">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2314,27 +2317,27 @@
         <v>1</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:50">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2442,13 +2445,13 @@
         <v>1</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="1">
@@ -2463,16 +2466,16 @@
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:47">
       <c r="A8" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -2580,33 +2583,33 @@
         <v>1</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR8" s="1">
         <v>0.3</v>
       </c>
       <c r="AU8" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:50">
       <c r="A9" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -2714,16 +2717,16 @@
         <v>1</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AR9" s="1">
         <v>0.3</v>
@@ -2741,16 +2744,16 @@
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:47">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2858,24 +2861,24 @@
         <v>1</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU10" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:50">
       <c r="A11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -2983,10 +2986,10 @@
         <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AU11" s="4"/>
       <c r="AV11" s="1">
@@ -3001,16 +3004,16 @@
     </row>
     <row r="12" ht="57" customHeight="1" spans="1:50">
       <c r="A12" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3088,10 +3091,10 @@
         <v>40</v>
       </c>
       <c r="AD12" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="1">
         <v>700</v>
@@ -3118,25 +3121,25 @@
         <v>3</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AR12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT12" s="1">
         <v>0.7</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>0.3</v>
       </c>
       <c r="AU12" s="4"/>
       <c r="AV12" s="1">

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="151">
   <si>
     <t>Id</t>
   </si>
@@ -57,6 +57,12 @@
     <t>AloneReloadCount</t>
   </si>
   <si>
+    <t>AutoReloadBeginIntervalTime</t>
+  </si>
+  <si>
+    <t>AutoReloadFinishIntervalTime</t>
+  </si>
+  <si>
     <t>AloneReloadCanShoot</t>
   </si>
   <si>
@@ -144,9 +150,21 @@
     <t>ShootSound</t>
   </si>
   <si>
+    <t>BeginReloadSound</t>
+  </si>
+  <si>
+    <t>BeginReloadSoundDelayTime</t>
+  </si>
+  <si>
     <t>ReloadSound</t>
   </si>
   <si>
+    <t>ReloadFinishSound</t>
+  </si>
+  <si>
+    <t>ReloadFinishSoundDelayTime</t>
+  </si>
+  <si>
     <t>ReloadSoundDelayTime</t>
   </si>
   <si>
@@ -154,6 +172,9 @@
   </si>
   <si>
     <t>EquipSoundDelayTime</t>
+  </si>
+  <si>
+    <t>OtherSoundMap</t>
   </si>
   <si>
     <t>AiUseAttributeId</t>
@@ -210,6 +231,12 @@
     <t>单独装填时每次装填子弹数量, 必须要将 'AloneReload' 属性设置为 true</t>
   </si>
   <si>
+    <t>单独装弹模式下,从触发装弹到开始装第一发子弹中间的间隔时间, 必须要将 'AloneReload' 属性设置为 true</t>
+  </si>
+  <si>
+    <t>单独装弹模式下,从装完最后一发子弹到可以射击中间的间隔时间, 必须要将 'AloneReload' 属性设置为 true</t>
+  </si>
+  <si>
     <t>单独装填的子弹时可以立即射击, 必须要将 'AloneReload' 属性设置为 true</t>
   </si>
   <si>
@@ -297,9 +324,21 @@
     <t>射击音效</t>
   </si>
   <si>
+    <t>开始换弹音效</t>
+  </si>
+  <si>
+    <t>开始换弹音效延时时间</t>
+  </si>
+  <si>
     <t>换弹音效</t>
   </si>
   <si>
+    <t>换弹结束音效</t>
+  </si>
+  <si>
+    <t>换弹结束音效延时</t>
+  </si>
+  <si>
     <t>换弹音效延时时间</t>
   </si>
   <si>
@@ -307,6 +346,9 @@
   </si>
   <si>
     <t>上膛音效延时时间</t>
+  </si>
+  <si>
+    <t>其他音效</t>
   </si>
   <si>
     <t>Ai属性
@@ -347,6 +389,9 @@
     <t>$Sound</t>
   </si>
   <si>
+    <t>{string:$Sound}</t>
+  </si>
+  <si>
     <t>0001</t>
   </si>
   <si>
@@ -386,6 +431,12 @@
     <t>shooting0003</t>
   </si>
   <si>
+    <t>reloading0002</t>
+  </si>
+  <si>
+    <t>equip0005</t>
+  </si>
+  <si>
     <t>0004</t>
   </si>
   <si>
@@ -426,12 +477,6 @@
   </si>
   <si>
     <t>狙击枪</t>
-  </si>
-  <si>
-    <t>reloading0002</t>
-  </si>
-  <si>
-    <t>reloading0004</t>
   </si>
 </sst>
 </file>
@@ -1414,14 +1459,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AC4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE13" sqref="AE13"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1439,41 +1484,53 @@
     <col min="11" max="11" width="16.7777777777778" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.0555555555556" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.2222222222222" style="1" customWidth="1"/>
-    <col min="14" max="14" width="22.2222222222222" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.5555555555556" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1111111111111" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7777777777778" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.3333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21" style="1" customWidth="1"/>
-    <col min="26" max="26" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.7777777777778" style="1" customWidth="1"/>
-    <col min="28" max="28" width="24.1111111111111" style="1" customWidth="1"/>
-    <col min="29" max="29" width="25.8888888888889" style="1" customWidth="1"/>
-    <col min="30" max="30" width="24.7777777777778" style="1" customWidth="1"/>
-    <col min="31" max="31" width="28.8888888888889" style="1" customWidth="1"/>
-    <col min="32" max="32" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.0092592592593" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9814814814815" style="1" customWidth="1"/>
-    <col min="37" max="37" width="22.962962962963" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.6481481481481" style="1" customWidth="1"/>
-    <col min="40" max="40" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="41" max="46" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="47" max="47" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="48" max="48" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="49" max="49" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="50" max="50" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33.4814814814815" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.2777777777778" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6388888888889" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="18" max="18" width="32.5555555555556" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.8055555555556" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="23" max="23" width="19.1111111111111" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="26" max="26" width="22.537037037037" style="1" customWidth="1"/>
+    <col min="27" max="27" width="21" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26.6574074074074" style="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="29.2037037037037" style="1" customWidth="1"/>
+    <col min="32" max="32" width="30" style="1" customWidth="1"/>
+    <col min="33" max="33" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.7777777777778" style="1" customWidth="1"/>
+    <col min="35" max="35" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="36" max="36" width="20" style="1" customWidth="1"/>
+    <col min="37" max="37" width="19.0092592592593" style="1" customWidth="1"/>
+    <col min="38" max="38" width="30.9814814814815" style="1" customWidth="1"/>
+    <col min="39" max="39" width="22.962962962963" style="1" customWidth="1"/>
+    <col min="40" max="40" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.6481481481481" style="1" customWidth="1"/>
+    <col min="42" max="42" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="43" max="43" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="44" max="44" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="45" max="45" width="22.1018518518519" style="1" customWidth="1"/>
+    <col min="46" max="46" width="29.75" style="1" customWidth="1"/>
+    <col min="47" max="47" width="20.1203703703704" style="1" customWidth="1"/>
+    <col min="48" max="48" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="49" max="49" width="32.0555555555556" style="1" customWidth="1"/>
+    <col min="50" max="50" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="51" max="51" width="22.5925925925926" style="1" customWidth="1"/>
+    <col min="52" max="52" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="53" max="53" width="31.8518518518519" style="1" customWidth="1"/>
+    <col min="54" max="54" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="55" max="55" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="56" max="56" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="57" max="57" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:50">
+    <row r="1" ht="31" customHeight="1" spans="1:57">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1612,7 +1669,7 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
@@ -1624,326 +1681,389 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:53">
+    <row r="2" ht="114" customHeight="1" spans="1:60">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF2" s="5"/>
+      <c r="BG2" s="5"/>
+      <c r="BH2" s="5"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:50">
+    <row r="3" ht="27" customHeight="1" spans="1:57">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU3" s="2" t="s">
-        <v>100</v>
+        <v>115</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:47">
+    <row r="4" ht="57" customHeight="1" spans="1:54">
       <c r="A4" s="3" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -1972,106 +2092,112 @@
       <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="N4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
         <v>480</v>
       </c>
-      <c r="U4" s="1">
+      <c r="W4" s="1">
         <v>480</v>
       </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
         <v>30</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AD4" s="1">
         <v>90</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AE4" s="1">
         <v>2</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AF4" s="1">
         <v>40</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AG4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AH4" s="1">
         <v>300</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AI4" s="1">
         <v>400</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AJ4" s="1">
         <v>2</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4" s="1">
         <v>4</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AL4" s="1">
         <v>35</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AM4" s="1">
         <v>10</v>
       </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>114</v>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:50">
+    <row r="5" ht="57" customHeight="1" spans="1:57">
       <c r="A5" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2100,116 +2226,122 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="N5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>3</v>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>3</v>
       </c>
       <c r="T5" s="1">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1">
+        <v>3</v>
+      </c>
+      <c r="V5" s="1">
         <v>480</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>480</v>
       </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
         <v>30</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AD5" s="1">
         <v>90</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AE5" s="1">
         <v>2</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AF5" s="1">
         <v>40</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AG5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AH5" s="1">
         <v>300</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AI5" s="1">
         <v>400</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AJ5" s="1">
         <v>2</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AK5" s="1">
         <v>4</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AL5" s="1">
         <v>35</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AM5" s="1">
         <v>10</v>
       </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="1">
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="BD5" s="1">
         <v>0.7</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="BE5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:47">
+    <row r="6" ht="57" customHeight="1" spans="1:54">
       <c r="A6" s="3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2230,7 +2362,7 @@
         <v>42</v>
       </c>
       <c r="K6" s="1">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L6" s="1" t="b">
         <v>1</v>
@@ -2238,106 +2370,124 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="N6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
         <v>5</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AA6" s="1">
         <v>5</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
         <v>30</v>
       </c>
-      <c r="AB6" s="1">
-        <v>90</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>50</v>
-      </c>
       <c r="AD6" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <v>200</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AI6" s="1">
         <v>250</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AJ6" s="1">
         <v>5</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" s="1">
         <v>6</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>35</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AM6" s="1">
         <v>15</v>
       </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>120</v>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:50">
+    <row r="7" ht="57" customHeight="1" spans="1:57">
       <c r="A7" s="3" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2358,7 +2508,7 @@
         <v>42</v>
       </c>
       <c r="K7" s="1">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="1" t="b">
         <v>1</v>
@@ -2366,116 +2516,134 @@
       <c r="M7" s="1">
         <v>1</v>
       </c>
-      <c r="N7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <v>3.5</v>
       </c>
-      <c r="T7" s="1">
-        <v>400</v>
-      </c>
-      <c r="U7" s="1">
-        <v>400</v>
-      </c>
       <c r="V7" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="W7" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
         <v>5</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AA7" s="1">
         <v>5</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
+      <c r="AB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1">
         <v>30</v>
       </c>
-      <c r="AB7" s="1">
-        <v>90</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>50</v>
-      </c>
       <c r="AD7" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AH7" s="1">
         <v>200</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AI7" s="1">
         <v>250</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AJ7" s="1">
         <v>5</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AK7" s="1">
         <v>6</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AL7" s="1">
         <v>35</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AM7" s="1">
         <v>15</v>
       </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="1">
+      <c r="AN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ7" s="1">
         <v>0.4</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BD7" s="1">
         <v>0.7</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="BE7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:47">
+    <row r="8" ht="57" customHeight="1" spans="1:54">
       <c r="A8" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -2504,112 +2672,118 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
         <v>0.1</v>
       </c>
-      <c r="T8" s="1">
+      <c r="V8" s="1">
         <v>300</v>
       </c>
-      <c r="U8" s="1">
+      <c r="W8" s="1">
         <v>300</v>
       </c>
-      <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1">
-        <v>0</v>
-      </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
         <v>5</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AD8" s="1">
         <v>60</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AE8" s="1">
         <v>8</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AF8" s="1">
         <v>40</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AG8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AH8" s="1">
         <v>250</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AI8" s="1">
         <v>300</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AJ8" s="1">
         <v>3</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AK8" s="1">
         <v>5</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AL8" s="1">
         <v>35</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AM8" s="1">
         <v>20</v>
       </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>124</v>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="AQ8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BB8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:57">
+      <c r="A9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AU8" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:50">
-      <c r="A9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -2638,122 +2812,128 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>1</v>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
         <v>2</v>
       </c>
-      <c r="T9" s="1">
+      <c r="V9" s="1">
         <v>300</v>
       </c>
-      <c r="U9" s="1">
+      <c r="W9" s="1">
         <v>300</v>
       </c>
-      <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1">
-        <v>0</v>
-      </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1">
         <v>5</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AD9" s="1">
         <v>60</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AE9" s="1">
         <v>8</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <v>40</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AG9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <v>250</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>300</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>3</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <v>5</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>35</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AM9" s="1">
         <v>20</v>
       </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP9" s="3" t="s">
-        <v>124</v>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="AQ9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:54">
+      <c r="A10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="57" customHeight="1" spans="1:47">
-      <c r="A10" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -2782,47 +2962,47 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="1">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
         <v>180</v>
       </c>
-      <c r="U10" s="1">
+      <c r="W10" s="1">
         <v>180</v>
       </c>
-      <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1">
-        <v>0</v>
-      </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -2837,48 +3017,54 @@
         <v>0</v>
       </c>
       <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1">
         <v>35</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="AI10" s="1">
         <v>35</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="AJ10" s="1">
         <v>-8</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AK10" s="1">
         <v>-8</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AL10" s="1">
         <v>24</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AM10" s="1">
         <v>-95</v>
       </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU10" s="4" t="s">
-        <v>130</v>
+      <c r="AN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB10" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:50">
+    <row r="11" ht="57" customHeight="1" spans="1:57">
       <c r="A11" s="3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -2907,47 +3093,47 @@
       <c r="M11" s="1">
         <v>1</v>
       </c>
-      <c r="N11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1">
+        <v>1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
         <v>3</v>
       </c>
-      <c r="T11" s="1">
+      <c r="V11" s="1">
         <v>180</v>
       </c>
-      <c r="U11" s="1">
+      <c r="W11" s="1">
         <v>180</v>
       </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
       <c r="X11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -2962,58 +3148,64 @@
         <v>0</v>
       </c>
       <c r="AF11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="1">
         <v>35</v>
       </c>
-      <c r="AG11" s="1">
+      <c r="AI11" s="1">
         <v>35</v>
       </c>
-      <c r="AH11" s="1">
+      <c r="AJ11" s="1">
         <v>-8</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AK11" s="1">
         <v>-8</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AL11" s="1">
         <v>24</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AM11" s="1">
         <v>-95</v>
       </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="1">
+      <c r="AN11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="1">
         <v>0.7</v>
       </c>
-      <c r="AW11" s="1">
+      <c r="BD11" s="1">
         <v>0.7</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="BE11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:50">
+    <row r="12" ht="57" customHeight="1" spans="1:57">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3042,113 +3234,113 @@
       <c r="M12" s="1">
         <v>1</v>
       </c>
-      <c r="N12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
         <v>45</v>
       </c>
-      <c r="U12" s="1">
+      <c r="W12" s="1">
         <v>45</v>
       </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
-      </c>
       <c r="X12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
         <v>3</v>
       </c>
-      <c r="AB12" s="1">
+      <c r="AD12" s="1">
         <v>60</v>
       </c>
-      <c r="AC12" s="1">
+      <c r="AE12" s="1">
         <v>40</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AF12" s="1">
         <v>40</v>
       </c>
-      <c r="AE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
         <v>700</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AI12" s="1">
         <v>900</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AJ12" s="1">
         <v>5</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AK12" s="1">
         <v>7</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AL12" s="1">
         <v>20</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AM12" s="1">
         <v>20</v>
       </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1">
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
         <v>3</v>
       </c>
-      <c r="AN12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="AP12" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="AQ12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AX12" s="1">
         <v>1.2</v>
       </c>
-      <c r="AS12" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT12" s="1">
+      <c r="AZ12" s="1">
         <v>0.7</v>
       </c>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="1">
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="1">
         <v>0.6</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="BD12" s="1">
         <v>0.7</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="BE12" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -114,7 +114,7 @@
     <t>ScatteringRangeBackSpeed</t>
   </si>
   <si>
-    <t>ScatteringRangeBackTime</t>
+    <t>ScatteringRangeBackDelayTime</t>
   </si>
   <si>
     <t>MinDistance</t>
@@ -225,7 +225,7 @@
     <t>装弹时间 (单位: 秒)</t>
   </si>
   <si>
-    <t>每粒子弹是否是单独装填, 如果是, 那么每上一发子弹的时间就是 ReloadTime, 可以做霰弹武器装填效果</t>
+    <t>每粒子弹是否是单独装填, 如果是, 那么每上一发子弹的时间就是 ReloadTime, 可以做霰弹枪装填效果</t>
   </si>
   <si>
     <t>单独装填时每次装填子弹数量, 必须要将 'AloneReload' 属性设置为 true</t>
@@ -261,7 +261,7 @@
     <t>最终射速, 最终每分钟能开火次数, 仅当 ContinuousShoot 为 true 时生效</t>
   </si>
   <si>
-    <t>按下扳机并开火后射速增加速率</t>
+    <t>按下扳机并开火后射速每秒增加量</t>
   </si>
   <si>
     <t>松开扳机后射速消散速率</t>
@@ -285,10 +285,10 @@
     <t>每次发射后散射增加值</t>
   </si>
   <si>
-    <t>松开扳机后散射销退速率</t>
-  </si>
-  <si>
-    <t>松开扳机多久后开始销退散射值 (单位: 秒)</t>
+    <t>散射值销退速率</t>
+  </si>
+  <si>
+    <t>开始销退散射值的延时时间</t>
   </si>
   <si>
     <t>子弹飞行最小距离</t>
@@ -1462,11 +1462,11 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1503,7 +1503,7 @@
     <col min="30" max="30" width="26.5" style="1" customWidth="1"/>
     <col min="31" max="31" width="29.2037037037037" style="1" customWidth="1"/>
     <col min="32" max="32" width="30" style="1" customWidth="1"/>
-    <col min="33" max="33" width="31.1111111111111" style="1" customWidth="1"/>
+    <col min="33" max="33" width="38.5740740740741" style="1" customWidth="1"/>
     <col min="34" max="34" width="17.7777777777778" style="1" customWidth="1"/>
     <col min="35" max="35" width="17.3333333333333" style="1" customWidth="1"/>
     <col min="36" max="36" width="20" style="1" customWidth="1"/>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AD4" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AE4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
         <v>40</v>
@@ -2275,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="AD5" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AE5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
         <v>40</v>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="AC6" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="1">
         <v>30</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>60</v>
       </c>
       <c r="AE6" s="1">
         <v>20</v>
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="AC7" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="1">
         <v>30</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>60</v>
       </c>
       <c r="AE7" s="1">
         <v>20</v>
@@ -3292,7 +3292,7 @@
         <v>40</v>
       </c>
       <c r="AG12" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AH12" s="1">
         <v>700</v>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
   <si>
     <t>Id</t>
   </si>
@@ -177,7 +177,7 @@
     <t>OtherSoundMap</t>
   </si>
   <si>
-    <t>AiUseAttributeId</t>
+    <t>AiUseAttribute</t>
   </si>
   <si>
     <t>AiTargetLockingTime</t>
@@ -273,7 +273,7 @@
     <t>单次开火发射子弹最大数量</t>
   </si>
   <si>
-    <t>开火前延时</t>
+    <t>从按下扳机到发射第一发子弹的延时时, 如果中途松开扳机, 那么延时时间会重新计算, 必须将 'LooseShoot' 设置为 false</t>
   </si>
   <si>
     <t>初始散射半径</t>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>{string:$Sound}</t>
+  </si>
+  <si>
+    <t>$Weapon</t>
   </si>
   <si>
     <t>0001</t>
@@ -1462,11 +1465,11 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AB4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD8" sqref="AD8"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1498,7 +1501,7 @@
     <col min="25" max="25" width="23.7777777777778" style="1" customWidth="1"/>
     <col min="26" max="26" width="22.537037037037" style="1" customWidth="1"/>
     <col min="27" max="27" width="21" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.4722222222222" style="1" customWidth="1"/>
     <col min="29" max="29" width="26.6574074074074" style="1" customWidth="1"/>
     <col min="30" max="30" width="26.5" style="1" customWidth="1"/>
     <col min="31" max="31" width="29.2037037037037" style="1" customWidth="1"/>
@@ -2040,7 +2043,7 @@
         <v>121</v>
       </c>
       <c r="BB3" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>115</v>
@@ -2054,16 +2057,16 @@
     </row>
     <row r="4" ht="57" customHeight="1" spans="1:54">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2177,27 +2180,27 @@
         <v>1</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:57">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2311,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BB5" s="4"/>
       <c r="BC5" s="1">
@@ -2332,16 +2335,16 @@
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:54">
       <c r="A6" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2455,39 +2458,39 @@
         <v>2.5</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AX6" s="1">
         <v>0</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AZ6" s="1">
         <v>0.4</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:57">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2601,22 +2604,22 @@
         <v>2.5</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AZ7" s="1">
         <v>0.4</v>
@@ -2634,16 +2637,16 @@
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:54">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -2757,33 +2760,33 @@
         <v>1</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AT8" s="1">
         <v>0.3</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:57">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -2897,16 +2900,16 @@
         <v>1</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AT9" s="1">
         <v>0.3</v>
@@ -2924,16 +2927,16 @@
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:54">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3047,24 +3050,24 @@
         <v>1</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:57">
       <c r="A11" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -3178,10 +3181,10 @@
         <v>1</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BB11" s="4"/>
       <c r="BC11" s="1">
@@ -3196,16 +3199,16 @@
     </row>
     <row r="12" ht="57" customHeight="1" spans="1:57">
       <c r="A12" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3319,13 +3322,13 @@
         <v>3</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AX12" s="1">
         <v>1.2</v>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
   <si>
     <t>Id</t>
   </si>
@@ -57,10 +57,10 @@
     <t>AloneReloadCount</t>
   </si>
   <si>
-    <t>AutoReloadBeginIntervalTime</t>
-  </si>
-  <si>
-    <t>AutoReloadFinishIntervalTime</t>
+    <t>AloneReloadBeginIntervalTime</t>
+  </si>
+  <si>
+    <t>AloneReloadFinishIntervalTime</t>
   </si>
   <si>
     <t>AloneReloadCanShoot</t>
@@ -159,13 +159,13 @@
     <t>ReloadSound</t>
   </si>
   <si>
+    <t>ReloadSoundDelayTime</t>
+  </si>
+  <si>
     <t>ReloadFinishSound</t>
   </si>
   <si>
-    <t>ReloadFinishSoundDelayTime</t>
-  </si>
-  <si>
-    <t>ReloadSoundDelayTime</t>
+    <t>ReloadFinishSoundAdvanceTime</t>
   </si>
   <si>
     <t>EquipSound</t>
@@ -333,13 +333,14 @@
     <t>换弹音效</t>
   </si>
   <si>
+    <t>换弹音效延时时间</t>
+  </si>
+  <si>
     <t>换弹结束音效</t>
   </si>
   <si>
-    <t>换弹结束音效延时</t>
-  </si>
-  <si>
-    <t>换弹音效延时时间</t>
+    <t>换弹结束音效在换弹结束前多久开始
+注意: 如果'AloneReload'为true, 那么当前属性的值应该小于'AloneReloadFinishIntervalTime'</t>
   </si>
   <si>
     <t>上膛音效</t>
@@ -434,7 +435,13 @@
     <t>shooting0003</t>
   </si>
   <si>
+    <t>reloadBegin0002</t>
+  </si>
+  <si>
     <t>reloading0002</t>
+  </si>
+  <si>
+    <t>reloadFinish0002</t>
   </si>
   <si>
     <t>equip0005</t>
@@ -1465,11 +1472,11 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1521,9 +1528,9 @@
     <col min="45" max="45" width="22.1018518518519" style="1" customWidth="1"/>
     <col min="46" max="46" width="29.75" style="1" customWidth="1"/>
     <col min="47" max="47" width="20.1203703703704" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="49" max="49" width="32.0555555555556" style="1" customWidth="1"/>
-    <col min="50" max="50" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="48" max="48" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="49" max="49" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="50" max="50" width="37.9259259259259" style="1" customWidth="1"/>
     <col min="51" max="51" width="22.5925925925926" style="1" customWidth="1"/>
     <col min="52" max="52" width="24.0740740740741" style="1" customWidth="1"/>
     <col min="53" max="53" width="31.8518518518519" style="1" customWidth="1"/>
@@ -2025,10 +2032,10 @@
         <v>120</v>
       </c>
       <c r="AV3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>115</v>
@@ -2374,10 +2381,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P6" s="1" t="b">
         <v>1</v>
@@ -2466,25 +2473,37 @@
       <c r="AR6" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="AS6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
       <c r="AU6" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AX6" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AZ6" s="1">
         <v>0.4</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:57">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>133</v>
@@ -2520,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="1">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="1" t="b">
         <v>1</v>
@@ -2612,14 +2631,26 @@
       <c r="AR7" s="3" t="s">
         <v>135</v>
       </c>
+      <c r="AS7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
       <c r="AU7" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AX7" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AZ7" s="1">
         <v>0.4</v>
@@ -2637,13 +2668,13 @@
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:54">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>126</v>
@@ -2766,24 +2797,24 @@
         <v>128</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT8" s="1">
         <v>0.3</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:57">
       <c r="A9" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>126</v>
@@ -2906,10 +2937,10 @@
         <v>128</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AT9" s="1">
         <v>0.3</v>
@@ -2927,13 +2958,13 @@
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:54">
       <c r="A10" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>126</v>
@@ -3056,15 +3087,15 @@
         <v>128</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:57">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>126</v>
@@ -3199,13 +3230,13 @@
     </row>
     <row r="12" ht="57" customHeight="1" spans="1:57">
       <c r="A12" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>126</v>
@@ -3330,7 +3361,7 @@
       <c r="AR12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AV12" s="1">
         <v>1.2</v>
       </c>
       <c r="AZ12" s="1">

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="158">
   <si>
     <t>Id</t>
   </si>
@@ -417,6 +417,12 @@
     <t>shooting0002</t>
   </si>
   <si>
+    <t>reloadBegin0004</t>
+  </si>
+  <si>
+    <t>equip0011</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
@@ -459,12 +465,15 @@
     <t>手枪</t>
   </si>
   <si>
-    <t>shooting0001</t>
+    <t>shooting0004</t>
   </si>
   <si>
     <t>reloading0001</t>
   </si>
   <si>
+    <t>equip0015</t>
+  </si>
+  <si>
     <t>0006</t>
   </si>
   <si>
@@ -487,6 +496,9 @@
   </si>
   <si>
     <t>狙击枪</t>
+  </si>
+  <si>
+    <t>equip0007</t>
   </si>
 </sst>
 </file>
@@ -1472,11 +1484,11 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2094,7 +2106,7 @@
         <v>90</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L4" s="1" t="b">
         <v>0</v>
@@ -2195,13 +2207,25 @@
       <c r="AR4" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="AS4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>0.4</v>
+      </c>
       <c r="BB4" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="57" customHeight="1" spans="1:57">
       <c r="A5" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>
@@ -2228,7 +2252,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="1">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L5" s="1" t="b">
         <v>0</v>
@@ -2328,6 +2352,18 @@
       </c>
       <c r="AR5" s="3" t="s">
         <v>129</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0.4</v>
       </c>
       <c r="BB5" s="4"/>
       <c r="BC5" s="1">
@@ -2342,13 +2378,13 @@
     </row>
     <row r="6" ht="57" customHeight="1" spans="1:54">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>126</v>
@@ -2465,48 +2501,48 @@
         <v>2.5</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AQ6" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AR6" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AT6" s="1">
         <v>0</v>
       </c>
       <c r="AU6" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AV6" s="1">
         <v>0</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AX6" s="1">
         <v>0.3</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AZ6" s="1">
         <v>0.4</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" ht="57" customHeight="1" spans="1:57">
       <c r="A7" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>126</v>
@@ -2623,34 +2659,34 @@
         <v>2.5</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AQ7" s="1" t="s">
         <v>128</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AT7" s="1">
         <v>0</v>
       </c>
       <c r="AU7" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AV7" s="1">
         <v>0</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AX7" s="1">
         <v>0.3</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AZ7" s="1">
         <v>0.4</v>
@@ -2668,13 +2704,13 @@
     </row>
     <row r="8" ht="57" customHeight="1" spans="1:54">
       <c r="A8" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>126</v>
@@ -2797,24 +2833,30 @@
         <v>128</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AT8" s="1">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>0.43</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:57">
       <c r="A9" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>126</v>
@@ -2937,13 +2979,19 @@
         <v>128</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AT9" s="1">
-        <v>0.3</v>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>0.43</v>
       </c>
       <c r="BB9" s="4"/>
       <c r="BC9" s="1">
@@ -2958,13 +3006,13 @@
     </row>
     <row r="10" ht="57" customHeight="1" spans="1:54">
       <c r="A10" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>126</v>
@@ -3087,15 +3135,15 @@
         <v>128</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" ht="57" customHeight="1" spans="1:57">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>126</v>
@@ -3230,13 +3278,13 @@
     </row>
     <row r="12" ht="57" customHeight="1" spans="1:57">
       <c r="A12" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>126</v>
@@ -3344,13 +3392,13 @@
         <v>20</v>
       </c>
       <c r="AM12" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AN12" s="1">
         <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP12" s="1" t="s">
         <v>127</v>
@@ -3359,13 +3407,16 @@
         <v>128</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AV12" s="1">
         <v>1.2</v>
       </c>
+      <c r="AY12" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="AZ12" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="BB12" s="4"/>
       <c r="BC12" s="1">

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="174">
   <si>
     <t>Id</t>
   </si>
@@ -117,12 +117,6 @@
     <t>ScatteringRangeBackDelayTime</t>
   </si>
   <si>
-    <t>MinDistance</t>
-  </si>
-  <si>
-    <t>MaxDistance</t>
-  </si>
-  <si>
     <t>MinBacklash</t>
   </si>
   <si>
@@ -142,6 +136,24 @@
   </si>
   <si>
     <t>BulletId</t>
+  </si>
+  <si>
+    <t>BulletMinDeviationAngle</t>
+  </si>
+  <si>
+    <t>BulletMaxDeviationAngle</t>
+  </si>
+  <si>
+    <t>BulletMaxSpeed</t>
+  </si>
+  <si>
+    <t>BulletMinSpeed</t>
+  </si>
+  <si>
+    <t>BulletMinDistance</t>
+  </si>
+  <si>
+    <t>BulletMaxDistance</t>
   </si>
   <si>
     <t>ThrowCollisionSize</t>
@@ -291,31 +303,44 @@
     <t>开始销退散射值的延时时间</t>
   </si>
   <si>
+    <t>最小后坐力 (仅用于开火后武器身抖动)</t>
+  </si>
+  <si>
+    <t>最大后坐力 (仅用于开火后武器身抖动)</t>
+  </si>
+  <si>
+    <t>后坐力偏移回归回归速度</t>
+  </si>
+  <si>
+    <t>开火后武器口上抬角度</t>
+  </si>
+  <si>
+    <t>武器默认上抬角度</t>
+  </si>
+  <si>
+    <t>开火后武器口角度恢复速度倍数</t>
+  </si>
+  <si>
+    <t>默认射出的子弹id</t>
+  </si>
+  <si>
+    <t>子弹最小偏移角度
+用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果</t>
+  </si>
+  <si>
+    <t>子弹最大偏移角度</t>
+  </si>
+  <si>
+    <t>子弹最大初速度</t>
+  </si>
+  <si>
+    <t>子弹最小初速度</t>
+  </si>
+  <si>
     <t>子弹飞行最小距离</t>
   </si>
   <si>
     <t>子弹飞行最大距离</t>
-  </si>
-  <si>
-    <t>最小后坐力 (仅用于开火后武器身抖动)</t>
-  </si>
-  <si>
-    <t>最大后坐力 (仅用于开火后武器身抖动)</t>
-  </si>
-  <si>
-    <t>后坐力偏移回归回归速度</t>
-  </si>
-  <si>
-    <t>开火后武器口上抬角度</t>
-  </si>
-  <si>
-    <t>武器默认上抬角度</t>
-  </si>
-  <si>
-    <t>开火后武器口角度恢复速度倍数</t>
-  </si>
-  <si>
-    <t>默认射出的子弹id</t>
   </si>
   <si>
     <t>投抛状态下物体碰撞器大小</t>
@@ -414,91 +439,115 @@
     <t>{"X":20,"Y":15}</t>
   </si>
   <si>
+    <t>shooting0005</t>
+  </si>
+  <si>
+    <t>reloadBegin0004</t>
+  </si>
+  <si>
+    <t>equip0011</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>weapon0002</t>
+  </si>
+  <si>
+    <t>霰弹枪</t>
+  </si>
+  <si>
+    <t>bullet0002</t>
+  </si>
+  <si>
+    <t>shooting0003</t>
+  </si>
+  <si>
+    <t>reloadBegin0002</t>
+  </si>
+  <si>
+    <t>reloading0002</t>
+  </si>
+  <si>
+    <t>reloadFinish0002</t>
+  </si>
+  <si>
+    <t>equip0005</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>weapon0003</t>
+  </si>
+  <si>
+    <t>手枪</t>
+  </si>
+  <si>
+    <t>shooting0004</t>
+  </si>
+  <si>
+    <t>reloading0001</t>
+  </si>
+  <si>
+    <t>equip0015</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>weapon0004</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>weapon0005</t>
+  </si>
+  <si>
+    <t>狙击枪</t>
+  </si>
+  <si>
+    <t>shooting0008</t>
+  </si>
+  <si>
+    <t>reloadBegin0009</t>
+  </si>
+  <si>
+    <t>equip0007</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>weapon0006</t>
+  </si>
+  <si>
+    <t>冲锋枪</t>
+  </si>
+  <si>
     <t>shooting0002</t>
   </si>
   <si>
-    <t>reloadBegin0004</t>
-  </si>
-  <si>
-    <t>equip0011</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>weapon0002</t>
-  </si>
-  <si>
-    <t>霰弹枪</t>
-  </si>
-  <si>
-    <t>bullet0002</t>
-  </si>
-  <si>
-    <t>shooting0003</t>
-  </si>
-  <si>
-    <t>reloadBegin0002</t>
-  </si>
-  <si>
-    <t>reloading0002</t>
-  </si>
-  <si>
-    <t>reloadFinish0002</t>
-  </si>
-  <si>
-    <t>equip0005</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>weapon0003</t>
-  </si>
-  <si>
-    <t>手枪</t>
-  </si>
-  <si>
-    <t>shooting0004</t>
-  </si>
-  <si>
-    <t>reloading0001</t>
-  </si>
-  <si>
-    <t>equip0015</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>0007</t>
-  </si>
-  <si>
-    <t>weapon0004</t>
-  </si>
-  <si>
-    <t>刀</t>
-  </si>
-  <si>
-    <t>0008</t>
-  </si>
-  <si>
-    <t>0009</t>
-  </si>
-  <si>
-    <t>weapon0005</t>
-  </si>
-  <si>
-    <t>狙击枪</t>
-  </si>
-  <si>
-    <t>equip0007</t>
+    <t>reloadBegin0005</t>
+  </si>
+  <si>
+    <t>equip0016</t>
   </si>
 </sst>
 </file>
@@ -511,13 +560,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -972,10 +1027,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -984,34 +1039,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1023,98 +1075,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,11 +1182,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1481,14 +1539,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BH12"/>
+  <dimension ref="A1:BL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AY12" sqref="AY12"/>
+      <selection pane="bottomRight" activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1526,33 +1584,37 @@
     <col min="31" max="31" width="29.2037037037037" style="1" customWidth="1"/>
     <col min="32" max="32" width="30" style="1" customWidth="1"/>
     <col min="33" max="33" width="38.5740740740741" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7777777777778" style="1" customWidth="1"/>
-    <col min="35" max="35" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="36" max="36" width="20" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19.0092592592593" style="1" customWidth="1"/>
-    <col min="38" max="38" width="30.9814814814815" style="1" customWidth="1"/>
-    <col min="39" max="39" width="22.962962962963" style="1" customWidth="1"/>
-    <col min="40" max="40" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.6481481481481" style="1" customWidth="1"/>
-    <col min="42" max="42" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="43" max="43" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="44" max="44" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="45" max="45" width="22.1018518518519" style="1" customWidth="1"/>
-    <col min="46" max="46" width="29.75" style="1" customWidth="1"/>
-    <col min="47" max="47" width="20.1203703703704" style="1" customWidth="1"/>
-    <col min="48" max="48" width="25.2314814814815" style="1" customWidth="1"/>
-    <col min="49" max="49" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="50" max="50" width="37.9259259259259" style="1" customWidth="1"/>
-    <col min="51" max="51" width="22.5925925925926" style="1" customWidth="1"/>
-    <col min="52" max="52" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="53" max="53" width="31.8518518518519" style="1" customWidth="1"/>
-    <col min="54" max="54" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="55" max="55" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="56" max="56" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="57" max="57" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="1" customWidth="1"/>
+    <col min="35" max="35" width="19.0092592592593" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.9814814814815" style="1" customWidth="1"/>
+    <col min="37" max="37" width="22.962962962963" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="39" max="39" width="27.6481481481481" style="1" customWidth="1"/>
+    <col min="40" max="40" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="41" max="41" width="29.8425925925926" style="1" customWidth="1"/>
+    <col min="42" max="42" width="29.8333333333333" style="1" customWidth="1"/>
+    <col min="43" max="43" width="21.4259259259259" style="1" customWidth="1"/>
+    <col min="44" max="44" width="20.6388888888889" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.3055555555556" style="1" customWidth="1"/>
+    <col min="46" max="46" width="24.1203703703704" style="1" customWidth="1"/>
+    <col min="47" max="47" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="49" max="49" width="22.1018518518519" style="1" customWidth="1"/>
+    <col min="50" max="50" width="29.75" style="1" customWidth="1"/>
+    <col min="51" max="51" width="20.1203703703704" style="1" customWidth="1"/>
+    <col min="52" max="52" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="53" max="53" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="54" max="54" width="37.9259259259259" style="1" customWidth="1"/>
+    <col min="55" max="55" width="22.5925925925926" style="1" customWidth="1"/>
+    <col min="56" max="56" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="57" max="57" width="31.8518518518519" style="1" customWidth="1"/>
+    <col min="58" max="58" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="59" max="59" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="60" max="60" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="61" max="61" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:57">
+    <row r="1" ht="31" customHeight="1" spans="1:61">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1774,7 @@
       <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
@@ -1724,368 +1786,404 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:60">
+    <row r="2" ht="114" customHeight="1" spans="1:64">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BJ2" s="5"/>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:57">
+    <row r="3" ht="27" customHeight="1" spans="1:61">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB3" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:54">
+    <row r="4" ht="57" customHeight="1" spans="1:58">
       <c r="A4" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2100,10 +2198,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="J4" s="1">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K4" s="1">
         <v>2.2</v>
@@ -2160,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AD4" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE4" s="1">
         <v>3</v>
@@ -2175,63 +2273,75 @@
         <v>0.5</v>
       </c>
       <c r="AH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>350</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>350</v>
+      </c>
+      <c r="AS4" s="1">
         <v>300</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AT4" s="1">
         <v>400</v>
       </c>
-      <c r="AJ4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX4" s="1">
         <v>0.2</v>
       </c>
-      <c r="AW4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX4" s="1">
+      <c r="BA4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BB4" s="4" t="s">
-        <v>132</v>
+      <c r="BF4" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:57">
+    <row r="5" ht="57" customHeight="1" spans="1:61">
       <c r="A5" s="3" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2246,10 +2356,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="1">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="K5" s="1">
         <v>2.2</v>
@@ -2306,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="1">
         <v>3</v>
@@ -2321,73 +2431,85 @@
         <v>0.5</v>
       </c>
       <c r="AH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>350</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>350</v>
+      </c>
+      <c r="AS5" s="1">
         <v>300</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AT5" s="1">
         <v>400</v>
       </c>
-      <c r="AJ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX5" s="1">
         <v>0.2</v>
       </c>
-      <c r="AW5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX5" s="1">
+      <c r="BA5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="1">
+      <c r="BF5" s="6"/>
+      <c r="BG5" s="1">
         <v>0.5</v>
       </c>
-      <c r="BD5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BE5" s="1">
+      <c r="BH5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BI5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:54">
+    <row r="6" ht="57" customHeight="1" spans="1:58">
       <c r="A6" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2402,10 +2524,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J6" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1">
         <v>0.4</v>
@@ -2477,75 +2599,87 @@
         <v>0.5</v>
       </c>
       <c r="AH6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>-10</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>280</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>380</v>
+      </c>
+      <c r="AS6" s="1">
         <v>200</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AT6" s="1">
         <v>250</v>
       </c>
-      <c r="AJ6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AU6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AQ6" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0</v>
+      <c r="AV6" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AW6" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB6" s="1">
         <v>0.3</v>
       </c>
-      <c r="AY6" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ6" s="1">
+      <c r="BC6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD6" s="1">
         <v>0.4</v>
       </c>
-      <c r="BB6" s="4" t="s">
-        <v>142</v>
+      <c r="BF6" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:57">
+    <row r="7" ht="57" customHeight="1" spans="1:61">
       <c r="A7" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2560,10 +2694,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="J7" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K7" s="1">
         <v>0.4</v>
@@ -2635,85 +2769,97 @@
         <v>0.5</v>
       </c>
       <c r="AH7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>-10</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>280</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>380</v>
+      </c>
+      <c r="AS7" s="1">
         <v>200</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AT7" s="1">
         <v>250</v>
       </c>
-      <c r="AJ7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AQ7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>0</v>
+      <c r="AV7" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="AW7" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AX7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB7" s="1">
         <v>0.3</v>
       </c>
-      <c r="AY7" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ7" s="1">
+      <c r="BC7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="1">
+      <c r="BF7" s="6"/>
+      <c r="BG7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BD7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BE7" s="1">
+      <c r="BH7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BI7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:54">
+    <row r="8" ht="57" customHeight="1" spans="1:58">
       <c r="A8" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -2728,7 +2874,7 @@
         <v>12</v>
       </c>
       <c r="I8" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J8" s="1">
         <v>72</v>
@@ -2803,63 +2949,75 @@
         <v>0.5</v>
       </c>
       <c r="AH8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>350</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>350</v>
+      </c>
+      <c r="AS8" s="1">
         <v>250</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AT8" s="1">
         <v>300</v>
       </c>
-      <c r="AJ8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>0</v>
+      <c r="AU8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="AW8" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AX8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BB8" s="4" t="s">
-        <v>149</v>
+      <c r="BF8" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:57">
+    <row r="9" ht="57" customHeight="1" spans="1:61">
       <c r="A9" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -2874,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="I9" s="1">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1">
         <v>72</v>
@@ -2949,73 +3107,85 @@
         <v>0.5</v>
       </c>
       <c r="AH9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>350</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>350</v>
+      </c>
+      <c r="AS9" s="1">
         <v>250</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AT9" s="1">
         <v>300</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR9" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
+      <c r="AU9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="AW9" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AX9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BE9" s="1">
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BI9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:54">
+    <row r="10" ht="57" customHeight="1" spans="1:58">
       <c r="A10" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3105,48 +3275,60 @@
         <v>0</v>
       </c>
       <c r="AH10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>350</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>350</v>
+      </c>
+      <c r="AS10" s="1">
         <v>35</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AT10" s="1">
         <v>35</v>
       </c>
-      <c r="AJ10" s="1">
-        <v>-8</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>-8</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>24</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>-95</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB10" s="4" t="s">
-        <v>153</v>
+      <c r="AU10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF10" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:57">
+    <row r="11" ht="57" customHeight="1" spans="1:61">
       <c r="A11" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -3236,58 +3418,70 @@
         <v>0</v>
       </c>
       <c r="AH11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>350</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>350</v>
+      </c>
+      <c r="AS11" s="1">
         <v>35</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AT11" s="1">
         <v>35</v>
       </c>
-      <c r="AJ11" s="1">
-        <v>-8</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>-8</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>24</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>-95</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="1">
+      <c r="AU11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BD11" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BE11" s="1">
+      <c r="BH11" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BI11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:57">
+    <row r="12" ht="57" customHeight="1" spans="1:61">
       <c r="A12" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3302,7 +3496,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1">
         <v>40</v>
@@ -3377,55 +3571,245 @@
         <v>0.8</v>
       </c>
       <c r="AH12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>600</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>600</v>
+      </c>
+      <c r="AS12" s="1">
         <v>700</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AT12" s="1">
         <v>900</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AU12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1"/>
+    <row r="14" ht="57" customHeight="1" spans="1:61">
+      <c r="A14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1">
+        <v>30</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1">
+        <v>260</v>
+      </c>
+      <c r="J14" s="1">
+        <v>240</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>700</v>
+      </c>
+      <c r="W14" s="1">
+        <v>700</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK14" s="1">
         <v>5</v>
       </c>
-      <c r="AK12" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>20</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ12" s="1">
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>320</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>320</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>300</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>400</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV14" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="1">
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BH14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BD12" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BE12" s="1">
+      <c r="BI14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -1542,11 +1542,11 @@
   <dimension ref="A1:BL14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BA14" sqref="BA14"/>
+      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2198,10 +2198,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="J4" s="1">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K4" s="1">
         <v>2.2</v>
@@ -2356,10 +2356,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="1">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="J5" s="1">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="K5" s="1">
         <v>2.2</v>
@@ -3671,10 +3671,10 @@
         <v>20</v>
       </c>
       <c r="I14" s="1">
-        <v>260</v>
+        <v>2600</v>
       </c>
       <c r="J14" s="1">
-        <v>240</v>
+        <v>2600</v>
       </c>
       <c r="K14" s="1">
         <v>2.2</v>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
   <si>
     <t>Id</t>
   </si>
@@ -72,6 +72,12 @@
     <t>MinChargeTime</t>
   </si>
   <si>
+    <t>AutoBeLoaded</t>
+  </si>
+  <si>
+    <t>BeLoadedTime</t>
+  </si>
+  <si>
     <t>MinContinuousCount</t>
   </si>
   <si>
@@ -138,6 +144,9 @@
     <t>BulletId</t>
   </si>
   <si>
+    <t>ShellId</t>
+  </si>
+  <si>
     <t>BulletMinDeviationAngle</t>
   </si>
   <si>
@@ -180,10 +189,10 @@
     <t>ReloadFinishSoundAdvanceTime</t>
   </si>
   <si>
-    <t>EquipSound</t>
-  </si>
-  <si>
-    <t>EquipSoundDelayTime</t>
+    <t>BeLoadedSound</t>
+  </si>
+  <si>
+    <t>BeLoadedSoundDelayTime</t>
   </si>
   <si>
     <t>OtherSoundMap</t>
@@ -258,10 +267,16 @@
     <t>最少需要蓄力多久才能开火, 必须将 'LooseShoot' 设置为 true</t>
   </si>
   <si>
-    <t>连续发射最小次数, 仅当 ContinuousShoot 为 false 时生效</t>
-  </si>
-  <si>
-    <t>连续发射最大次数, 仅当 ContinuousShoot 为 false 时生效</t>
+    <t>单次射击后是否自动执行上膛操作, 必须将 'ContinuousShoot' 设置为 false</t>
+  </si>
+  <si>
+    <t>上膛时间, 如果时间为0, 则不会播放上膛动画和音效, 可以视为没有上膛动作, 必须将 'ContinuousShoot' 设置为 false</t>
+  </si>
+  <si>
+    <t>连续发射最小次数, 仅当 'ContinuousShoot' 为 false 时生效</t>
+  </si>
+  <si>
+    <t>连续发射最大次数, 仅当 'ContinuousShoot' 为 false 时生效</t>
   </si>
   <si>
     <t>按下一次扳机后需要多长时间才能再次感应按下</t>
@@ -270,7 +285,7 @@
     <t>初始射速, 初始每分钟能开火次数</t>
   </si>
   <si>
-    <t>最终射速, 最终每分钟能开火次数, 仅当 ContinuousShoot 为 true 时生效</t>
+    <t>最终射速, 最终每分钟能开火次数, 仅当 'ContinuousShoot' 为 true 时生效</t>
   </si>
   <si>
     <t>按下扳机并开火后射速每秒增加量</t>
@@ -322,6 +337,9 @@
   </si>
   <si>
     <t>默认射出的子弹id</t>
+  </si>
+  <si>
+    <t>默认抛出的弹壳</t>
   </si>
   <si>
     <t>子弹最小偏移角度
@@ -371,7 +389,7 @@
     <t>上膛音效</t>
   </si>
   <si>
-    <t>上膛音效延时时间</t>
+    <t>上膛音效延时时间, 这个时间应该小于'BeLoadedTime'</t>
   </si>
   <si>
     <t>其他音效</t>
@@ -436,6 +454,9 @@
     <t>bullet0001</t>
   </si>
   <si>
+    <t>shell0001</t>
+  </si>
+  <si>
     <t>{"X":20,"Y":15}</t>
   </si>
   <si>
@@ -445,7 +466,7 @@
     <t>reloadBegin0004</t>
   </si>
   <si>
-    <t>equip0011</t>
+    <t>beLoaded0011</t>
   </si>
   <si>
     <t>0002</t>
@@ -463,6 +484,9 @@
     <t>bullet0002</t>
   </si>
   <si>
+    <t>shell0002</t>
+  </si>
+  <si>
     <t>shooting0003</t>
   </si>
   <si>
@@ -475,7 +499,7 @@
     <t>reloadFinish0002</t>
   </si>
   <si>
-    <t>equip0005</t>
+    <t>beLoaded0005</t>
   </si>
   <si>
     <t>0004</t>
@@ -496,7 +520,7 @@
     <t>reloading0001</t>
   </si>
   <si>
-    <t>equip0015</t>
+    <t>beLoaded0015</t>
   </si>
   <si>
     <t>0006</t>
@@ -523,13 +547,16 @@
     <t>狙击枪</t>
   </si>
   <si>
+    <t>shell0003</t>
+  </si>
+  <si>
     <t>shooting0008</t>
   </si>
   <si>
     <t>reloadBegin0009</t>
   </si>
   <si>
-    <t>equip0007</t>
+    <t>beLoaded0007</t>
   </si>
   <si>
     <t>0011</t>
@@ -547,7 +574,7 @@
     <t>reloadBegin0005</t>
   </si>
   <si>
-    <t>equip0016</t>
+    <t>beLoaded0016</t>
   </si>
 </sst>
 </file>
@@ -1185,11 +1212,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1539,14 +1566,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BL14"/>
+  <dimension ref="A1:BO14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V15" sqref="V15"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1568,53 +1595,55 @@
     <col min="15" max="15" width="34.2777777777778" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.6388888888889" style="1" customWidth="1"/>
     <col min="17" max="17" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="32.5555555555556" style="1" customWidth="1"/>
-    <col min="19" max="19" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.8055555555556" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.1111111111111" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.7777777777778" style="1" customWidth="1"/>
-    <col min="26" max="26" width="22.537037037037" style="1" customWidth="1"/>
-    <col min="27" max="27" width="21" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.4722222222222" style="1" customWidth="1"/>
-    <col min="29" max="29" width="26.6574074074074" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="29.2037037037037" style="1" customWidth="1"/>
-    <col min="32" max="32" width="30" style="1" customWidth="1"/>
-    <col min="33" max="33" width="38.5740740740741" style="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="1" customWidth="1"/>
-    <col min="35" max="35" width="19.0092592592593" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9814814814815" style="1" customWidth="1"/>
-    <col min="37" max="37" width="22.962962962963" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.6481481481481" style="1" customWidth="1"/>
-    <col min="40" max="40" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="41" max="41" width="29.8425925925926" style="1" customWidth="1"/>
-    <col min="42" max="42" width="29.8333333333333" style="1" customWidth="1"/>
-    <col min="43" max="43" width="21.4259259259259" style="1" customWidth="1"/>
-    <col min="44" max="44" width="20.6388888888889" style="1" customWidth="1"/>
-    <col min="45" max="45" width="27.3055555555556" style="1" customWidth="1"/>
-    <col min="46" max="46" width="24.1203703703704" style="1" customWidth="1"/>
-    <col min="47" max="47" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="48" max="48" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="49" max="49" width="22.1018518518519" style="1" customWidth="1"/>
-    <col min="50" max="50" width="29.75" style="1" customWidth="1"/>
-    <col min="51" max="51" width="20.1203703703704" style="1" customWidth="1"/>
-    <col min="52" max="52" width="25.2314814814815" style="1" customWidth="1"/>
-    <col min="53" max="53" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="54" max="54" width="37.9259259259259" style="1" customWidth="1"/>
-    <col min="55" max="55" width="22.5925925925926" style="1" customWidth="1"/>
-    <col min="56" max="56" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="57" max="57" width="31.8518518518519" style="1" customWidth="1"/>
-    <col min="58" max="58" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="59" max="59" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="60" max="60" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="61" max="61" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="18" max="18" width="25.0740740740741" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.4722222222222" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6388888888889" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.8055555555556" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20.9537037037037" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.537037037037" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.4722222222222" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.6574074074074" style="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="29.2037037037037" style="1" customWidth="1"/>
+    <col min="34" max="34" width="30" style="1" customWidth="1"/>
+    <col min="35" max="35" width="38.5740740740741" style="1" customWidth="1"/>
+    <col min="36" max="36" width="20" style="1" customWidth="1"/>
+    <col min="37" max="37" width="19.0092592592593" style="1" customWidth="1"/>
+    <col min="38" max="38" width="30.9814814814815" style="1" customWidth="1"/>
+    <col min="39" max="39" width="22.962962962963" style="1" customWidth="1"/>
+    <col min="40" max="40" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.6481481481481" style="1" customWidth="1"/>
+    <col min="42" max="43" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="44" max="44" width="29.8425925925926" style="1" customWidth="1"/>
+    <col min="45" max="45" width="29.8333333333333" style="1" customWidth="1"/>
+    <col min="46" max="46" width="21.4259259259259" style="1" customWidth="1"/>
+    <col min="47" max="47" width="20.6388888888889" style="1" customWidth="1"/>
+    <col min="48" max="48" width="27.3055555555556" style="1" customWidth="1"/>
+    <col min="49" max="49" width="24.1203703703704" style="1" customWidth="1"/>
+    <col min="50" max="50" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="52" max="52" width="22.1018518518519" style="1" customWidth="1"/>
+    <col min="53" max="53" width="29.75" style="1" customWidth="1"/>
+    <col min="54" max="54" width="20.1203703703704" style="1" customWidth="1"/>
+    <col min="55" max="55" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="56" max="56" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="57" max="57" width="37.9259259259259" style="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5925925925926" style="1" customWidth="1"/>
+    <col min="59" max="59" width="30.4722222222222" style="1" customWidth="1"/>
+    <col min="60" max="60" width="31.8518518518519" style="1" customWidth="1"/>
+    <col min="61" max="61" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="62" max="62" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="63" max="63" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="64" max="64" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:61">
+    <row r="1" ht="31" customHeight="1" spans="1:64">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1815,7 @@
       <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
@@ -1795,395 +1824,422 @@
       <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:64">
+    <row r="2" ht="114" customHeight="1" spans="1:67">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:61">
+    <row r="3" ht="27" customHeight="1" spans="1:64">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="BE3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BF3" s="2" t="s">
-        <v>130</v>
+      <c r="BF3" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:58">
+    <row r="4" ht="57" customHeight="1" spans="1:61">
       <c r="A4" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2227,121 +2283,130 @@
       <c r="R4" s="1">
         <v>0</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
         <v>480</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <v>480</v>
       </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
         <v>5</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AF4" s="1">
         <v>50</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AG4" s="1">
         <v>3</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AH4" s="1">
         <v>40</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AI4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AJ4" s="1">
         <v>2</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AK4" s="1">
         <v>4</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AL4" s="1">
         <v>35</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AM4" s="1">
         <v>10</v>
       </c>
-      <c r="AL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>135</v>
+      <c r="AN4" s="1">
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1">
         <v>350</v>
       </c>
-      <c r="AR4" s="1">
+      <c r="AU4" s="1">
         <v>350</v>
       </c>
-      <c r="AS4" s="1">
+      <c r="AV4" s="1">
         <v>300</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AW4" s="1">
         <v>400</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX4" s="1">
+      <c r="AX4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA4" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:64">
+      <c r="A5" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BB4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BF4" s="6" t="s">
+      <c r="D5" s="1" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:61">
-      <c r="A5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2385,131 +2450,140 @@
       <c r="R5" s="1">
         <v>0</v>
       </c>
-      <c r="S5" s="1">
-        <v>3</v>
+      <c r="S5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="T5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>3</v>
       </c>
       <c r="V5" s="1">
+        <v>3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
         <v>480</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>480</v>
       </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1">
         <v>5</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AF5" s="1">
         <v>50</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AG5" s="1">
         <v>3</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AH5" s="1">
         <v>40</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AI5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AJ5" s="1">
         <v>2</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AK5" s="1">
         <v>4</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AL5" s="1">
         <v>35</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AM5" s="1">
         <v>10</v>
       </c>
-      <c r="AL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>135</v>
+      <c r="AN5" s="1">
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1">
         <v>350</v>
       </c>
-      <c r="AR5" s="1">
+      <c r="AU5" s="1">
         <v>350</v>
       </c>
-      <c r="AS5" s="1">
+      <c r="AV5" s="1">
         <v>300</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AW5" s="1">
         <v>400</v>
       </c>
-      <c r="AU5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX5" s="1">
+      <c r="AX5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BA5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB5" s="1">
+      <c r="BD5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BE5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BF5" s="6"/>
-      <c r="BG5" s="1">
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="1">
         <v>0.5</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BK5" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI5" s="1">
+      <c r="BL5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:58">
+    <row r="6" ht="57" customHeight="1" spans="1:61">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2553,133 +2627,142 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T6" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Y6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
         <v>5</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AC6" s="1">
         <v>5</v>
       </c>
-      <c r="AB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1">
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
         <v>12</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AF6" s="1">
         <v>30</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AG6" s="1">
         <v>20</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AH6" s="1">
         <v>40</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AI6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AJ6" s="1">
         <v>5</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AK6" s="1">
         <v>6</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AL6" s="1">
         <v>35</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AM6" s="1">
         <v>15</v>
       </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>144</v>
+      <c r="AN6" s="1">
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR6" s="1">
         <v>-10</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AS6" s="1">
         <v>10</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AT6" s="1">
         <v>280</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="AU6" s="1">
         <v>380</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="AV6" s="1">
         <v>200</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AW6" s="1">
         <v>250</v>
       </c>
-      <c r="AU6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB6" s="1">
+      <c r="AX6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE6" s="1">
         <v>0.3</v>
       </c>
-      <c r="BC6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BF6" s="6" t="s">
+      <c r="BF6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:64">
+      <c r="A7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:61">
-      <c r="A7" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2723,143 +2806,152 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T7" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U7" s="1">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
         <v>3.5</v>
       </c>
-      <c r="V7" s="1">
-        <v>55</v>
-      </c>
-      <c r="W7" s="1">
-        <v>55</v>
-      </c>
       <c r="X7" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1">
         <v>5</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AC7" s="1">
         <v>5</v>
       </c>
-      <c r="AB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1">
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
         <v>12</v>
       </c>
-      <c r="AD7" s="1">
+      <c r="AF7" s="1">
         <v>30</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AG7" s="1">
         <v>20</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AH7" s="1">
         <v>40</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AI7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AJ7" s="1">
         <v>5</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AK7" s="1">
         <v>6</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AL7" s="1">
         <v>35</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AM7" s="1">
         <v>15</v>
       </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>144</v>
+      <c r="AN7" s="1">
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR7" s="1">
         <v>-10</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AS7" s="1">
         <v>10</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AT7" s="1">
         <v>280</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="AU7" s="1">
         <v>380</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AV7" s="1">
         <v>200</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AW7" s="1">
         <v>250</v>
       </c>
-      <c r="AU7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB7" s="1">
+      <c r="AX7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BC7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BD7" s="1">
+      <c r="BF7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BH7" s="1">
+      <c r="BK7" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BL7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:58">
+    <row r="8" ht="57" customHeight="1" spans="1:61">
       <c r="A8" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -2903,121 +2995,130 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
         <v>0.1</v>
       </c>
-      <c r="V8" s="1">
+      <c r="X8" s="1">
         <v>300</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1">
         <v>300</v>
       </c>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>0</v>
-      </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1">
         <v>5</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AF8" s="1">
         <v>60</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AG8" s="1">
         <v>8</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AH8" s="1">
         <v>40</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AI8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AJ8" s="1">
         <v>3</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AK8" s="1">
         <v>5</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AL8" s="1">
         <v>35</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AM8" s="1">
         <v>20</v>
       </c>
-      <c r="AL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>135</v>
+      <c r="AN8" s="1">
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1">
         <v>350</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="AU8" s="1">
         <v>350</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AV8" s="1">
         <v>250</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AW8" s="1">
         <v>300</v>
       </c>
-      <c r="AU8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB8" s="1">
+      <c r="AX8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BF8" s="6" t="s">
-        <v>157</v>
+      <c r="BI8" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:61">
+    <row r="9" ht="57" customHeight="1" spans="1:64">
       <c r="A9" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -3061,131 +3162,140 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
         <v>2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="X9" s="1">
         <v>300</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Y9" s="1">
         <v>300</v>
       </c>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>0</v>
-      </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1">
         <v>5</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AF9" s="1">
         <v>60</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AG9" s="1">
         <v>8</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AH9" s="1">
         <v>40</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AI9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AJ9" s="1">
         <v>3</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AK9" s="1">
         <v>5</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AL9" s="1">
         <v>35</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AM9" s="1">
         <v>20</v>
       </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>135</v>
+      <c r="AN9" s="1">
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1">
         <v>350</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="AU9" s="1">
         <v>350</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="AV9" s="1">
         <v>250</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AW9" s="1">
         <v>300</v>
       </c>
-      <c r="AU9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB9" s="1">
+      <c r="AX9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BH9" s="1">
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI9" s="1">
+      <c r="BL9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:58">
+    <row r="10" ht="57" customHeight="1" spans="1:61">
       <c r="A10" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3229,38 +3339,38 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
         <v>180</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <v>180</v>
       </c>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>0</v>
-      </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
         <v>0</v>
@@ -3275,60 +3385,66 @@
         <v>0</v>
       </c>
       <c r="AH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="1">
         <v>-8</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="AK10" s="1">
         <v>-8</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AL10" s="1">
         <v>24</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="AM10" s="1">
         <v>-95</v>
       </c>
-      <c r="AL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="1" t="s">
-        <v>135</v>
+      <c r="AN10" s="1">
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1">
         <v>350</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="AU10" s="1">
         <v>350</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="AV10" s="1">
         <v>35</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AW10" s="1">
         <v>35</v>
       </c>
-      <c r="AU10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BF10" s="6" t="s">
-        <v>161</v>
+      <c r="AX10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI10" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:61">
+    <row r="11" ht="57" customHeight="1" spans="1:64">
       <c r="A11" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -3372,38 +3488,38 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
         <v>3</v>
       </c>
-      <c r="V11" s="1">
+      <c r="X11" s="1">
         <v>180</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Y11" s="1">
         <v>180</v>
       </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
       <c r="Z11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -3418,70 +3534,76 @@
         <v>0</v>
       </c>
       <c r="AH11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>-8</v>
       </c>
-      <c r="AI11" s="1">
+      <c r="AK11" s="1">
         <v>-8</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AL11" s="1">
         <v>24</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AM11" s="1">
         <v>-95</v>
       </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="1" t="s">
-        <v>135</v>
+      <c r="AN11" s="1">
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1">
         <v>350</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AU11" s="1">
         <v>350</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AV11" s="1">
         <v>35</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AW11" s="1">
         <v>35</v>
       </c>
-      <c r="AU11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="1">
+      <c r="AX11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BH11" s="1">
+      <c r="BK11" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI11" s="1">
+      <c r="BL11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:61">
+    <row r="12" ht="57" customHeight="1" spans="1:64">
       <c r="A12" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3525,138 +3647,147 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="1">
-        <v>1</v>
+      <c r="S12" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="T12" s="1">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
         <v>3</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AF12" s="1">
         <v>60</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AG12" s="1">
         <v>40</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AH12" s="1">
         <v>40</v>
       </c>
-      <c r="AG12" s="1">
+      <c r="AI12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AH12" s="1">
+      <c r="AJ12" s="1">
         <v>5</v>
       </c>
-      <c r="AI12" s="1">
+      <c r="AK12" s="1">
         <v>7</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AL12" s="1">
         <v>20</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AM12" s="1">
         <v>15</v>
       </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>4</v>
-      </c>
-      <c r="AN12" s="1" t="s">
-        <v>135</v>
+      <c r="AN12" s="1">
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
         <v>600</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="AU12" s="1">
         <v>600</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="AV12" s="1">
         <v>700</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AW12" s="1">
         <v>900</v>
       </c>
-      <c r="AU12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AW12" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX12" s="1">
+      <c r="AX12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA12" s="1">
         <v>0.3</v>
       </c>
-      <c r="BA12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BF12" s="6"/>
+      <c r="BD12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="5"/>
+      <c r="BJ12" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BK12" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI12" s="1">
+      <c r="BL12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1"/>
-    <row r="14" ht="57" customHeight="1" spans="1:61">
+    <row r="14" ht="57" customHeight="1" spans="1:64">
       <c r="A14" s="3" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E14" s="1">
         <v>30</v>
@@ -3700,116 +3831,125 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
         <v>700</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <v>700</v>
       </c>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>0</v>
-      </c>
       <c r="Z14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
         <v>3</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>40</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>2</v>
       </c>
       <c r="AF14" s="1">
         <v>40</v>
       </c>
       <c r="AG14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI14" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="1">
         <v>2</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AL14" s="1">
         <v>35</v>
       </c>
-      <c r="AK14" s="1">
+      <c r="AM14" s="1">
         <v>5</v>
       </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>144</v>
+      <c r="AN14" s="1">
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
         <v>320</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="AU14" s="1">
         <v>320</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="AV14" s="1">
         <v>300</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AW14" s="1">
         <v>400</v>
       </c>
-      <c r="AU14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW14" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AX14" s="1">
+      <c r="AX14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ14" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA14" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BB14" s="1">
+      <c r="BD14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="1">
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BH14" s="1">
+      <c r="BK14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BI14" s="1">
+      <c r="BL14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>ShellId</t>
+  </si>
+  <si>
+    <t>ThrowShellDelayTime</t>
   </si>
   <si>
     <t>BulletMinDeviationAngle</t>
@@ -340,6 +343,10 @@
   </si>
   <si>
     <t>默认抛出的弹壳</t>
+  </si>
+  <si>
+    <t>投抛弹壳的延时时间, 在射击或者上膛后会触发抛弹壳效果
+如果为负数, 则不自动抛弹</t>
   </si>
   <si>
     <t>子弹最小偏移角度
@@ -1566,14 +1573,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BO14"/>
+  <dimension ref="A1:BP14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1619,31 +1626,31 @@
     <col min="39" max="39" width="22.962962962963" style="1" customWidth="1"/>
     <col min="40" max="40" width="23.7037037037037" style="1" customWidth="1"/>
     <col min="41" max="41" width="27.6481481481481" style="1" customWidth="1"/>
-    <col min="42" max="43" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="44" max="44" width="29.8425925925926" style="1" customWidth="1"/>
-    <col min="45" max="45" width="29.8333333333333" style="1" customWidth="1"/>
-    <col min="46" max="46" width="21.4259259259259" style="1" customWidth="1"/>
-    <col min="47" max="47" width="20.6388888888889" style="1" customWidth="1"/>
-    <col min="48" max="48" width="27.3055555555556" style="1" customWidth="1"/>
-    <col min="49" max="49" width="24.1203703703704" style="1" customWidth="1"/>
-    <col min="50" max="50" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.1018518518519" style="1" customWidth="1"/>
-    <col min="53" max="53" width="29.75" style="1" customWidth="1"/>
-    <col min="54" max="54" width="20.1203703703704" style="1" customWidth="1"/>
-    <col min="55" max="55" width="25.2314814814815" style="1" customWidth="1"/>
-    <col min="56" max="56" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="57" max="57" width="37.9259259259259" style="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5925925925926" style="1" customWidth="1"/>
-    <col min="59" max="59" width="30.4722222222222" style="1" customWidth="1"/>
-    <col min="60" max="60" width="31.8518518518519" style="1" customWidth="1"/>
-    <col min="61" max="61" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="62" max="62" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="63" max="63" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="64" max="64" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="42" max="44" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="45" max="45" width="29.8425925925926" style="1" customWidth="1"/>
+    <col min="46" max="46" width="29.8333333333333" style="1" customWidth="1"/>
+    <col min="47" max="47" width="21.4259259259259" style="1" customWidth="1"/>
+    <col min="48" max="48" width="20.6388888888889" style="1" customWidth="1"/>
+    <col min="49" max="49" width="27.3055555555556" style="1" customWidth="1"/>
+    <col min="50" max="50" width="24.1203703703704" style="1" customWidth="1"/>
+    <col min="51" max="51" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="52" max="52" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="53" max="53" width="22.1018518518519" style="1" customWidth="1"/>
+    <col min="54" max="54" width="29.75" style="1" customWidth="1"/>
+    <col min="55" max="55" width="20.1203703703704" style="1" customWidth="1"/>
+    <col min="56" max="56" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="57" max="57" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="58" max="58" width="37.9259259259259" style="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5925925925926" style="1" customWidth="1"/>
+    <col min="60" max="60" width="30.4722222222222" style="1" customWidth="1"/>
+    <col min="61" max="61" width="31.8518518518519" style="1" customWidth="1"/>
+    <col min="62" max="62" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="63" max="63" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="64" max="64" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="65" max="65" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:64">
+    <row r="1" ht="31" customHeight="1" spans="1:65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1824,10 +1831,10 @@
       <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
@@ -1836,410 +1843,419 @@
       <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:67">
+    <row r="2" ht="114" customHeight="1" spans="1:68">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM2" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:64">
+    <row r="3" ht="27" customHeight="1" spans="1:65">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="AS3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="AT3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="AW3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:61">
+    <row r="4" ht="57" customHeight="1" spans="1:62">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2353,10 +2369,10 @@
         <v>1</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
@@ -2365,48 +2381,51 @@
         <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="1">
         <v>350</v>
       </c>
       <c r="AV4" s="1">
+        <v>350</v>
+      </c>
+      <c r="AW4" s="1">
         <v>300</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AX4" s="1">
         <v>400</v>
       </c>
-      <c r="AX4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="AZ4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB4" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE4" s="1">
+      <c r="BE4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BI4" s="5" t="s">
-        <v>147</v>
+      <c r="BJ4" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:64">
+    <row r="5" ht="57" customHeight="1" spans="1:65">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2520,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
@@ -2532,58 +2551,61 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="1">
         <v>350</v>
       </c>
       <c r="AV5" s="1">
+        <v>350</v>
+      </c>
+      <c r="AW5" s="1">
         <v>300</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AX5" s="1">
         <v>400</v>
       </c>
-      <c r="AX5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="AZ5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE5" s="1">
+      <c r="BE5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="1">
+      <c r="BJ5" s="5"/>
+      <c r="BK5" s="1">
         <v>0.5</v>
       </c>
-      <c r="BK5" s="1">
+      <c r="BL5" s="1">
         <v>0.6</v>
       </c>
-      <c r="BL5" s="1">
+      <c r="BM5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:61">
+    <row r="6" ht="57" customHeight="1" spans="1:62">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2697,72 +2719,75 @@
         <v>1</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AQ6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>-10</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>10</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>280</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>380</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>200</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>250</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:65">
+      <c r="A7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AR6" s="1">
-        <v>-10</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>280</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>380</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>200</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>250</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:64">
-      <c r="A7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2876,82 +2901,85 @@
         <v>1</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AR7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AS7" s="1">
         <v>-10</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="AT7" s="1">
         <v>10</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>280</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AV7" s="1">
         <v>380</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AW7" s="1">
         <v>200</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AX7" s="1">
         <v>250</v>
       </c>
-      <c r="AX7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BA7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BE7" s="1">
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="1">
+      <c r="BG7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BL7" s="1">
         <v>0.6</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BM7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:61">
+    <row r="8" ht="57" customHeight="1" spans="1:62">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -3065,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AR8" s="1">
         <v>0</v>
@@ -3077,48 +3105,51 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="1">
         <v>350</v>
       </c>
       <c r="AV8" s="1">
+        <v>350</v>
+      </c>
+      <c r="AW8" s="1">
         <v>250</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AX8" s="1">
         <v>300</v>
       </c>
-      <c r="AX8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:65">
+      <c r="A9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:64">
-      <c r="A9" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -3232,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AR9" s="1">
         <v>0</v>
@@ -3244,58 +3275,61 @@
         <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="1">
         <v>350</v>
       </c>
       <c r="AV9" s="1">
+        <v>350</v>
+      </c>
+      <c r="AW9" s="1">
         <v>250</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AX9" s="1">
         <v>300</v>
       </c>
-      <c r="AX9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="BA9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="1">
-        <v>1</v>
-      </c>
+      <c r="BJ9" s="5"/>
       <c r="BK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="1">
         <v>0.6</v>
       </c>
-      <c r="BL9" s="1">
+      <c r="BM9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:61">
+    <row r="10" ht="57" customHeight="1" spans="1:62">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3409,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
@@ -3418,33 +3452,36 @@
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="1">
         <v>350</v>
       </c>
       <c r="AV10" s="1">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="AW10" s="1">
         <v>35</v>
       </c>
-      <c r="AX10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BI10" s="5" t="s">
-        <v>169</v>
+      <c r="AX10" s="1">
+        <v>35</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ10" s="5" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:64">
+    <row r="11" ht="57" customHeight="1" spans="1:65">
       <c r="A11" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -3558,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AR11" s="1">
         <v>0</v>
@@ -3567,43 +3604,46 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="1">
         <v>350</v>
       </c>
       <c r="AV11" s="1">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="AW11" s="1">
         <v>35</v>
       </c>
-      <c r="AX11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="1">
+      <c r="AX11" s="1">
+        <v>35</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BK11" s="1">
+      <c r="BL11" s="1">
         <v>0.6</v>
       </c>
-      <c r="BL11" s="1">
+      <c r="BM11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:64">
+    <row r="12" ht="57" customHeight="1" spans="1:65">
       <c r="A12" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3624,7 +3664,7 @@
         <v>40</v>
       </c>
       <c r="K12" s="1">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1" t="b">
         <v>0</v>
@@ -3717,77 +3757,80 @@
         <v>1</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AR12" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AS12" s="1">
         <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="1">
         <v>600</v>
       </c>
       <c r="AV12" s="1">
+        <v>600</v>
+      </c>
+      <c r="AW12" s="1">
         <v>700</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="AX12" s="1">
         <v>900</v>
       </c>
-      <c r="AX12" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="AY12" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ12" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BD12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="1">
-        <v>0.6</v>
-      </c>
+      <c r="BA12" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="5"/>
       <c r="BK12" s="1">
         <v>0.6</v>
       </c>
       <c r="BL12" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BM12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1"/>
-    <row r="14" ht="57" customHeight="1" spans="1:64">
+    <row r="14" ht="57" customHeight="1" spans="1:65">
       <c r="A14" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1">
         <v>30</v>
@@ -3901,10 +3944,10 @@
         <v>1</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AQ14" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AR14" s="1">
         <v>0</v>
@@ -3913,43 +3956,46 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="1">
         <v>320</v>
       </c>
       <c r="AV14" s="1">
+        <v>320</v>
+      </c>
+      <c r="AW14" s="1">
         <v>300</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="AX14" s="1">
         <v>400</v>
       </c>
-      <c r="AX14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AY14" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ14" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA14" s="1">
+      <c r="AY14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB14" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD14" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE14" s="1">
+      <c r="BE14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI14" s="5"/>
-      <c r="BJ14" s="1">
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BK14" s="1">
+      <c r="BL14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BL14" s="1">
+      <c r="BM14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="189">
   <si>
     <t>Id</t>
   </si>
@@ -144,28 +144,34 @@
     <t>BulletId</t>
   </si>
   <si>
+    <t>BulletMaxHarm</t>
+  </si>
+  <si>
+    <t>BulletMinHarm</t>
+  </si>
+  <si>
+    <t>BulletMinDeviationAngle</t>
+  </si>
+  <si>
+    <t>BulletMaxDeviationAngle</t>
+  </si>
+  <si>
+    <t>BulletMaxSpeed</t>
+  </si>
+  <si>
+    <t>BulletMinSpeed</t>
+  </si>
+  <si>
+    <t>BulletMinDistance</t>
+  </si>
+  <si>
+    <t>BulletMaxDistance</t>
+  </si>
+  <si>
     <t>ShellId</t>
   </si>
   <si>
     <t>ThrowShellDelayTime</t>
-  </si>
-  <si>
-    <t>BulletMinDeviationAngle</t>
-  </si>
-  <si>
-    <t>BulletMaxDeviationAngle</t>
-  </si>
-  <si>
-    <t>BulletMaxSpeed</t>
-  </si>
-  <si>
-    <t>BulletMinSpeed</t>
-  </si>
-  <si>
-    <t>BulletMinDistance</t>
-  </si>
-  <si>
-    <t>BulletMaxDistance</t>
   </si>
   <si>
     <t>ThrowCollisionSize</t>
@@ -342,30 +348,36 @@
     <t>默认射出的子弹id</t>
   </si>
   <si>
+    <t>子弹造成的最大伤害</t>
+  </si>
+  <si>
+    <t>子弹造成的最小伤害</t>
+  </si>
+  <si>
+    <t>子弹最小偏移角度
+用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果</t>
+  </si>
+  <si>
+    <t>子弹最大偏移角度</t>
+  </si>
+  <si>
+    <t>子弹最大初速度</t>
+  </si>
+  <si>
+    <t>子弹最小初速度</t>
+  </si>
+  <si>
+    <t>子弹飞行最小距离</t>
+  </si>
+  <si>
+    <t>子弹飞行最大距离</t>
+  </si>
+  <si>
     <t>默认抛出的弹壳</t>
   </si>
   <si>
     <t>投抛弹壳的延时时间, 在射击或者上膛后会触发抛弹壳效果
 如果为负数, 则不自动抛弹</t>
-  </si>
-  <si>
-    <t>子弹最小偏移角度
-用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果</t>
-  </si>
-  <si>
-    <t>子弹最大偏移角度</t>
-  </si>
-  <si>
-    <t>子弹最大初速度</t>
-  </si>
-  <si>
-    <t>子弹最小初速度</t>
-  </si>
-  <si>
-    <t>子弹飞行最小距离</t>
-  </si>
-  <si>
-    <t>子弹飞行最大距离</t>
   </si>
   <si>
     <t>投抛状态下物体碰撞器大小</t>
@@ -1573,14 +1585,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP14"/>
+  <dimension ref="A1:BR14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AO4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="AS14" sqref="AS14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1633,24 +1645,25 @@
     <col min="48" max="48" width="20.6388888888889" style="1" customWidth="1"/>
     <col min="49" max="49" width="27.3055555555556" style="1" customWidth="1"/>
     <col min="50" max="50" width="24.1203703703704" style="1" customWidth="1"/>
-    <col min="51" max="51" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="52" max="52" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="53" max="53" width="22.1018518518519" style="1" customWidth="1"/>
-    <col min="54" max="54" width="29.75" style="1" customWidth="1"/>
-    <col min="55" max="55" width="20.1203703703704" style="1" customWidth="1"/>
-    <col min="56" max="56" width="25.2314814814815" style="1" customWidth="1"/>
-    <col min="57" max="57" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="58" max="58" width="37.9259259259259" style="1" customWidth="1"/>
-    <col min="59" max="59" width="22.5925925925926" style="1" customWidth="1"/>
-    <col min="60" max="60" width="30.4722222222222" style="1" customWidth="1"/>
-    <col min="61" max="61" width="31.8518518518519" style="1" customWidth="1"/>
-    <col min="62" max="62" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="63" max="63" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="64" max="64" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="65" max="65" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="51" max="52" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="53" max="53" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="54" max="54" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="55" max="55" width="22.1018518518519" style="1" customWidth="1"/>
+    <col min="56" max="56" width="29.75" style="1" customWidth="1"/>
+    <col min="57" max="57" width="20.1203703703704" style="1" customWidth="1"/>
+    <col min="58" max="58" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="59" max="59" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="60" max="60" width="37.9259259259259" style="1" customWidth="1"/>
+    <col min="61" max="61" width="22.5925925925926" style="1" customWidth="1"/>
+    <col min="62" max="62" width="30.4722222222222" style="1" customWidth="1"/>
+    <col min="63" max="63" width="31.8518518518519" style="1" customWidth="1"/>
+    <col min="64" max="64" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="65" max="65" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="66" max="66" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="67" max="67" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:65">
+    <row r="1" ht="31" customHeight="1" spans="1:67">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,428 +1847,446 @@
       <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="BN1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:68">
+    <row r="2" ht="114" customHeight="1" spans="1:70">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:65">
+    <row r="3" ht="27" customHeight="1" spans="1:67">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY3" s="1" t="s">
+      <c r="AZ3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AZ3" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="BA3" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:62">
+    <row r="4" ht="57" customHeight="1" spans="1:64">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2369,13 +2400,13 @@
         <v>1</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>4</v>
       </c>
       <c r="AR4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS4" s="1">
         <v>0</v>
@@ -2396,36 +2427,42 @@
         <v>400</v>
       </c>
       <c r="AY4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BL4" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:67">
+      <c r="A5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BJ4" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:65">
-      <c r="A5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2539,13 +2576,13 @@
         <v>1</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>4</v>
       </c>
       <c r="AR5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS5" s="1">
         <v>0</v>
@@ -2566,46 +2603,52 @@
         <v>400</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="57" customHeight="1" spans="1:64">
+      <c r="A6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="57" customHeight="1" spans="1:62">
-      <c r="A6" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2719,13 +2762,13 @@
         <v>1</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>4</v>
       </c>
       <c r="AR6" s="1">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="AS6" s="1">
         <v>-10</v>
@@ -2746,48 +2789,54 @@
         <v>250</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0.2</v>
       </c>
       <c r="BA6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:67">
+      <c r="A7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:65">
-      <c r="A7" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2901,13 +2950,13 @@
         <v>1</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>4</v>
       </c>
       <c r="AR7" s="1">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="AS7" s="1">
         <v>-10</v>
@@ -2928,58 +2977,64 @@
         <v>250</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0.2</v>
       </c>
       <c r="BA7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="BC7" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BG7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="1">
+      <c r="BI7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BN7" s="1">
         <v>0.6</v>
       </c>
-      <c r="BM7" s="1">
+      <c r="BO7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:62">
+    <row r="8" ht="57" customHeight="1" spans="1:64">
       <c r="A8" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -3027,7 +3082,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U8" s="1">
         <v>1</v>
@@ -3036,13 +3091,13 @@
         <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Y8" s="1">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
@@ -3093,13 +3148,13 @@
         <v>1</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>4</v>
       </c>
       <c r="AR8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS8" s="1">
         <v>0</v>
@@ -3120,36 +3175,42 @@
         <v>300</v>
       </c>
       <c r="AY8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
       </c>
       <c r="BA8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF8" s="1">
+        <v>149</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BJ8" s="5" t="s">
+      <c r="BL8" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:67">
+      <c r="A9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:65">
-      <c r="A9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -3197,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U9" s="1">
         <v>1</v>
@@ -3263,13 +3324,13 @@
         <v>1</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>4</v>
       </c>
       <c r="AR9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS9" s="1">
         <v>0</v>
@@ -3290,46 +3351,52 @@
         <v>300</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>164</v>
+        <v>148</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF9" s="1">
+        <v>149</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="1">
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1">
         <v>0.6</v>
       </c>
-      <c r="BM9" s="1">
+      <c r="BO9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:62">
+    <row r="10" ht="57" customHeight="1" spans="1:64">
       <c r="A10" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3443,10 +3510,13 @@
         <v>1</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>25</v>
       </c>
       <c r="AR10" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS10" s="1">
         <v>0</v>
@@ -3466,22 +3536,25 @@
       <c r="AX10" s="1">
         <v>35</v>
       </c>
-      <c r="AY10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ10" s="5" t="s">
-        <v>171</v>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL10" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:65">
+    <row r="11" ht="57" customHeight="1" spans="1:67">
       <c r="A11" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -3595,10 +3668,13 @@
         <v>1</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>25</v>
       </c>
       <c r="AR11" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS11" s="1">
         <v>0</v>
@@ -3618,32 +3694,35 @@
       <c r="AX11" s="1">
         <v>35</v>
       </c>
-      <c r="AY11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="1">
+      <c r="AZ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BL11" s="1">
+      <c r="BN11" s="1">
         <v>0.6</v>
       </c>
-      <c r="BM11" s="1">
+      <c r="BO11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:65">
+    <row r="12" ht="57" customHeight="1" spans="1:67">
       <c r="A12" s="3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3757,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>175</v>
+        <v>147</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>30</v>
       </c>
       <c r="AR12" s="1">
-        <v>0.2</v>
+        <v>30</v>
       </c>
       <c r="AS12" s="1">
         <v>0</v>
@@ -3784,53 +3863,59 @@
         <v>900</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA12" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>1</v>
+        <v>179</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
       </c>
       <c r="BG12" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="BH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="1">
         <v>0.6</v>
       </c>
-      <c r="BL12" s="1">
+      <c r="BN12" s="1">
         <v>0.6</v>
       </c>
-      <c r="BM12" s="1">
+      <c r="BO12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" ht="50" customHeight="1"/>
-    <row r="14" ht="57" customHeight="1" spans="1:65">
+    <row r="14" ht="57" customHeight="1" spans="1:67">
       <c r="A14" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1">
         <v>30</v>
@@ -3944,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>144</v>
+        <v>157</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>3</v>
       </c>
       <c r="AR14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS14" s="1">
         <v>0</v>
@@ -3971,31 +4056,37 @@
         <v>400</v>
       </c>
       <c r="AY14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ14" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB14" s="1">
+        <v>148</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD14" s="1">
         <v>0.2</v>
       </c>
-      <c r="BE14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF14" s="1">
+      <c r="BG14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ14" s="5"/>
-      <c r="BK14" s="1">
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL14" s="1">
+      <c r="BN14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BM14" s="1">
+      <c r="BO14" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
   <si>
     <t>Id</t>
   </si>
@@ -578,6 +578,9 @@
     <t>beLoaded0007</t>
   </si>
   <si>
+    <t>0010</t>
+  </si>
+  <si>
     <t>0011</t>
   </si>
   <si>
@@ -594,6 +597,9 @@
   </si>
   <si>
     <t>beLoaded0016</t>
+  </si>
+  <si>
+    <t>0012</t>
   </si>
 </sst>
 </file>
@@ -1585,14 +1591,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BR14"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AO4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AS14" sqref="AS14"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2631,7 +2637,7 @@
         <v>0.5</v>
       </c>
       <c r="BN5" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BO5" s="1">
         <v>0</v>
@@ -3017,7 +3023,7 @@
         <v>0.4</v>
       </c>
       <c r="BN7" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BO7" s="1">
         <v>0</v>
@@ -3379,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="BN9" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BO9" s="1">
         <v>0</v>
@@ -3705,13 +3711,13 @@
         <v>0.7</v>
       </c>
       <c r="BN11" s="1">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="BO11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:67">
+    <row r="12" ht="57" customHeight="1" spans="1:64">
       <c r="A12" s="3" t="s">
         <v>176</v>
       </c>
@@ -3892,27 +3898,207 @@
       <c r="BJ12" s="1">
         <v>0</v>
       </c>
-      <c r="BL12" s="5"/>
-      <c r="BM12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BN12" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BO12" s="1">
-        <v>0</v>
+      <c r="BL12" s="5" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="13" ht="50" customHeight="1"/>
-    <row r="14" ht="57" customHeight="1" spans="1:67">
+    <row r="13" ht="57" customHeight="1" spans="1:67">
+      <c r="A13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="1">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1">
+        <v>50</v>
+      </c>
+      <c r="J13" s="1">
+        <v>40</v>
+      </c>
+      <c r="K13" s="1">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5</v>
+      </c>
+      <c r="X13" s="1">
+        <v>150</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>150</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>60</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>20</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>15</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>600</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>600</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>700</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>900</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:64">
       <c r="A14" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>146</v>
@@ -4065,28 +4251,205 @@
         <v>149</v>
       </c>
       <c r="BB14" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="BC14" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BD14" s="1">
         <v>0.2</v>
       </c>
       <c r="BG14" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BH14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL14" s="5"/>
-      <c r="BM14" s="1">
+      <c r="BL14" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:67">
+      <c r="A15" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2600</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="U15" s="1">
+        <v>5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="X15" s="1">
+        <v>700</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>700</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>320</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>320</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>300</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>400</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BG15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BN14" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BO14" s="1">
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BO15" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -1594,11 +1594,11 @@
   <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3124,10 +3124,10 @@
         <v>5</v>
       </c>
       <c r="AF8" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AG8" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH8" s="1">
         <v>40</v>
@@ -3300,10 +3300,10 @@
         <v>5</v>
       </c>
       <c r="AF9" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AG9" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AH9" s="1">
         <v>40</v>
@@ -4273,7 +4273,6 @@
       <c r="A15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>186</v>
       </c>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -24,7 +24,7 @@
     <t>WeaponId</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Remark</t>
   </si>
   <si>
     <t>Icon</t>
@@ -72,7 +72,10 @@
     <t>MinChargeTime</t>
   </si>
   <si>
-    <t>AutoBeLoaded</t>
+    <t>ManualBeLoaded</t>
+  </si>
+  <si>
+    <t>AutoManualBeLoaded</t>
   </si>
   <si>
     <t>BeLoadedTime</t>
@@ -225,7 +228,7 @@
     <t>属性绑定武器的Id,如果是Ai使用的数据, 则填空字符串串</t>
   </si>
   <si>
-    <t>武器显示的名称</t>
+    <t>备注</t>
   </si>
   <si>
     <t>武器的图标</t>
@@ -276,10 +279,13 @@
     <t>最少需要蓄力多久才能开火, 必须将 'LooseShoot' 设置为 true</t>
   </si>
   <si>
-    <t>单次射击后是否自动执行上膛操作, 必须将 'ContinuousShoot' 设置为 false</t>
-  </si>
-  <si>
-    <t>上膛时间, 如果时间为0, 则不会播放上膛动画和音效, 可以视为没有上膛动作, 必须将 'ContinuousShoot' 设置为 false</t>
+    <t>单次射击后是否需要手动上膛动作, 必须将 'ContinuousShoot' 设置为 false</t>
+  </si>
+  <si>
+    <t>手动上膛模式下, 单次射击后是否自动执行上膛操作, 必须将 'ManualBeLoaded' 设置为 true</t>
+  </si>
+  <si>
+    <t>上膛时间, 如果时间为0, 则不会播放上膛动画和音效, 可以视为没有上膛动作, 必须将 'ManualBeLoaded' 设置为 true</t>
   </si>
   <si>
     <t>连续发射最小次数, 仅当 'ContinuousShoot' 为 false 时生效</t>
@@ -1237,11 +1243,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1591,14 +1597,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BS15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1620,56 +1626,56 @@
     <col min="15" max="15" width="34.2777777777778" style="1" customWidth="1"/>
     <col min="16" max="16" width="23.6388888888889" style="1" customWidth="1"/>
     <col min="17" max="17" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.0740740740741" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.4722222222222" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6388888888889" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.8055555555556" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20.9537037037037" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.7777777777778" style="1" customWidth="1"/>
-    <col min="28" max="28" width="22.537037037037" style="1" customWidth="1"/>
-    <col min="29" max="29" width="21" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.4722222222222" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.6574074074074" style="1" customWidth="1"/>
-    <col min="32" max="32" width="26.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="29.2037037037037" style="1" customWidth="1"/>
-    <col min="34" max="34" width="30" style="1" customWidth="1"/>
-    <col min="35" max="35" width="38.5740740740741" style="1" customWidth="1"/>
-    <col min="36" max="36" width="20" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19.0092592592593" style="1" customWidth="1"/>
-    <col min="38" max="38" width="30.9814814814815" style="1" customWidth="1"/>
-    <col min="39" max="39" width="22.962962962963" style="1" customWidth="1"/>
-    <col min="40" max="40" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.6481481481481" style="1" customWidth="1"/>
-    <col min="42" max="44" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="45" max="45" width="29.8425925925926" style="1" customWidth="1"/>
-    <col min="46" max="46" width="29.8333333333333" style="1" customWidth="1"/>
-    <col min="47" max="47" width="21.4259259259259" style="1" customWidth="1"/>
-    <col min="48" max="48" width="20.6388888888889" style="1" customWidth="1"/>
-    <col min="49" max="49" width="27.3055555555556" style="1" customWidth="1"/>
-    <col min="50" max="50" width="24.1203703703704" style="1" customWidth="1"/>
-    <col min="51" max="52" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="53" max="53" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="54" max="54" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="55" max="55" width="22.1018518518519" style="1" customWidth="1"/>
-    <col min="56" max="56" width="29.75" style="1" customWidth="1"/>
-    <col min="57" max="57" width="20.1203703703704" style="1" customWidth="1"/>
-    <col min="58" max="58" width="25.2314814814815" style="1" customWidth="1"/>
-    <col min="59" max="59" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="60" max="60" width="37.9259259259259" style="1" customWidth="1"/>
-    <col min="61" max="61" width="22.5925925925926" style="1" customWidth="1"/>
-    <col min="62" max="62" width="30.4722222222222" style="1" customWidth="1"/>
-    <col min="63" max="63" width="31.8518518518519" style="1" customWidth="1"/>
-    <col min="64" max="64" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="65" max="65" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="66" max="66" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="67" max="67" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="18" max="19" width="25.0740740740741" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6388888888889" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.8888888888889" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.8055555555556" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.9537037037037" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1111111111111" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.537037037037" style="1" customWidth="1"/>
+    <col min="30" max="30" width="21" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.4722222222222" style="1" customWidth="1"/>
+    <col min="32" max="32" width="26.6574074074074" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.5" style="1" customWidth="1"/>
+    <col min="34" max="34" width="29.2037037037037" style="1" customWidth="1"/>
+    <col min="35" max="35" width="30" style="1" customWidth="1"/>
+    <col min="36" max="36" width="38.5740740740741" style="1" customWidth="1"/>
+    <col min="37" max="37" width="20" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.0092592592593" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.9814814814815" style="1" customWidth="1"/>
+    <col min="40" max="40" width="22.962962962963" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="42" max="42" width="27.6481481481481" style="1" customWidth="1"/>
+    <col min="43" max="45" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="46" max="46" width="29.8425925925926" style="1" customWidth="1"/>
+    <col min="47" max="47" width="29.8333333333333" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.4259259259259" style="1" customWidth="1"/>
+    <col min="49" max="49" width="20.6388888888889" style="1" customWidth="1"/>
+    <col min="50" max="50" width="27.3055555555556" style="1" customWidth="1"/>
+    <col min="51" max="51" width="24.1203703703704" style="1" customWidth="1"/>
+    <col min="52" max="53" width="27.7777777777778" style="1" customWidth="1"/>
+    <col min="54" max="54" width="24.0740740740741" style="1" customWidth="1"/>
+    <col min="55" max="55" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="56" max="56" width="22.1018518518519" style="1" customWidth="1"/>
+    <col min="57" max="57" width="29.75" style="1" customWidth="1"/>
+    <col min="58" max="58" width="20.1203703703704" style="1" customWidth="1"/>
+    <col min="59" max="59" width="25.2314814814815" style="1" customWidth="1"/>
+    <col min="60" max="60" width="23.7037037037037" style="1" customWidth="1"/>
+    <col min="61" max="61" width="37.9259259259259" style="1" customWidth="1"/>
+    <col min="62" max="62" width="22.5925925925926" style="1" customWidth="1"/>
+    <col min="63" max="63" width="30.4722222222222" style="1" customWidth="1"/>
+    <col min="64" max="64" width="31.8518518518519" style="1" customWidth="1"/>
+    <col min="65" max="65" width="32.4722222222222" style="2" customWidth="1"/>
+    <col min="66" max="66" width="30.3703703703704" style="1" customWidth="1"/>
+    <col min="67" max="67" width="38.5185185185185" style="1" customWidth="1"/>
+    <col min="68" max="68" width="38.7685185185185" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:67">
+    <row r="1" ht="31" customHeight="1" spans="1:68">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1859,10 +1865,10 @@
       <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="2" t="s">
         <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
@@ -1871,428 +1877,437 @@
       <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:70">
+    <row r="2" ht="114" customHeight="1" spans="1:71">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
+        <v>134</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BQ2" s="5"/>
+      <c r="BR2" s="5"/>
+      <c r="BS2" s="5"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:67">
+    <row r="3" ht="27" customHeight="1" spans="1:68">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="AW3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="AY3" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:64">
+    <row r="4" ht="57" customHeight="1" spans="1:65">
       <c r="A4" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1">
         <v>40</v>
@@ -2337,138 +2352,141 @@
         <v>0</v>
       </c>
       <c r="S4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1">
         <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
         <v>480</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
         <v>1</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="1">
         <v>5</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>50</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AH4" s="1">
         <v>3</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AI4" s="1">
         <v>40</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AJ4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>2</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>4</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>35</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AN4" s="1">
         <v>10</v>
       </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
       <c r="AO4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR4" s="1">
         <v>4</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
       </c>
       <c r="AU4" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="1">
         <v>350</v>
       </c>
       <c r="AW4" s="1">
+        <v>350</v>
+      </c>
+      <c r="AX4" s="1">
         <v>300</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AY4" s="1">
         <v>400</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:68">
+      <c r="A5" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BL4" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:67">
-      <c r="A5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
@@ -2513,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="S5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2528,133 +2546,136 @@
         <v>3</v>
       </c>
       <c r="X5" s="1">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="1">
         <v>480</v>
       </c>
       <c r="Z5" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
         <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
         <v>5</v>
       </c>
-      <c r="AF5" s="1">
+      <c r="AG5" s="1">
         <v>50</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AH5" s="1">
         <v>3</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AI5" s="1">
         <v>40</v>
       </c>
-      <c r="AI5" s="1">
+      <c r="AJ5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>2</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>4</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>35</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AN5" s="1">
         <v>10</v>
       </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
       <c r="AO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR5" s="1">
         <v>4</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
       </c>
       <c r="AU5" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="1">
         <v>350</v>
       </c>
       <c r="AW5" s="1">
+        <v>350</v>
+      </c>
+      <c r="AX5" s="1">
         <v>300</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AY5" s="1">
         <v>400</v>
       </c>
-      <c r="AY5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB5" s="3" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="BC5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BH5" s="1">
+      <c r="BH5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BI5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="BM5" s="6"/>
       <c r="BN5" s="1">
         <v>0.5</v>
       </c>
       <c r="BO5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BP5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:64">
+    <row r="6" ht="57" customHeight="1" spans="1:65">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1">
         <v>40</v>
@@ -2701,148 +2722,151 @@
       <c r="S6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="T6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
         <v>0.6</v>
       </c>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
       <c r="V6" s="1">
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
         <v>120</v>
       </c>
       <c r="Z6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA6" s="1">
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
         <v>5</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
         <v>12</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>30</v>
       </c>
-      <c r="AG6" s="1">
+      <c r="AH6" s="1">
         <v>20</v>
       </c>
-      <c r="AH6" s="1">
+      <c r="AI6" s="1">
         <v>40</v>
       </c>
-      <c r="AI6" s="1">
+      <c r="AJ6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>5</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>6</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>35</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AN6" s="1">
         <v>15</v>
       </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
       <c r="AO6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="AR6" s="1">
         <v>4</v>
       </c>
       <c r="AS6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="1">
         <v>-10</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <v>10</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AV6" s="1">
         <v>280</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AW6" s="1">
         <v>380</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AX6" s="1">
         <v>200</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AY6" s="1">
         <v>250</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:68">
+      <c r="A7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AZ6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:67">
-      <c r="A7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1">
         <v>40</v>
@@ -2889,158 +2913,161 @@
       <c r="S7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="1">
+      <c r="T7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
         <v>0.6</v>
       </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
       <c r="V7" s="1">
         <v>1</v>
       </c>
       <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
         <v>3.5</v>
-      </c>
-      <c r="X7" s="1">
-        <v>120</v>
       </c>
       <c r="Y7" s="1">
         <v>120</v>
       </c>
       <c r="Z7" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
         <v>5</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1">
         <v>12</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="AG7" s="1">
         <v>30</v>
       </c>
-      <c r="AG7" s="1">
+      <c r="AH7" s="1">
         <v>20</v>
       </c>
-      <c r="AH7" s="1">
+      <c r="AI7" s="1">
         <v>40</v>
       </c>
-      <c r="AI7" s="1">
+      <c r="AJ7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <v>5</v>
       </c>
-      <c r="AK7" s="1">
+      <c r="AL7" s="1">
         <v>6</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>35</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AN7" s="1">
         <v>15</v>
       </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
       <c r="AO7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="AR7" s="1">
         <v>4</v>
       </c>
       <c r="AS7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AT7" s="1">
         <v>-10</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>10</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AV7" s="1">
         <v>280</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AW7" s="1">
         <v>380</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AX7" s="1">
         <v>200</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AY7" s="1">
         <v>250</v>
       </c>
-      <c r="AY7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ7" s="1">
+      <c r="AZ7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BA7" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC7" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BD7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BI7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BI7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="1">
+      <c r="BJ7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="6"/>
+      <c r="BN7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BN7" s="1">
+      <c r="BO7" s="1">
         <v>0.5</v>
       </c>
-      <c r="BO7" s="1">
+      <c r="BP7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:64">
+    <row r="8" ht="57" customHeight="1" spans="1:65">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -3085,138 +3112,141 @@
         <v>0</v>
       </c>
       <c r="S8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>0.05</v>
       </c>
-      <c r="U8" s="1">
-        <v>1</v>
-      </c>
       <c r="V8" s="1">
         <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="1">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
         <v>460</v>
       </c>
       <c r="Z8" s="1">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1">
         <v>5</v>
       </c>
-      <c r="AF8" s="1">
+      <c r="AG8" s="1">
         <v>35</v>
       </c>
-      <c r="AG8" s="1">
+      <c r="AH8" s="1">
         <v>4</v>
       </c>
-      <c r="AH8" s="1">
+      <c r="AI8" s="1">
         <v>40</v>
       </c>
-      <c r="AI8" s="1">
+      <c r="AJ8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>3</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>5</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>35</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AN8" s="1">
         <v>20</v>
       </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
       <c r="AO8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR8" s="1">
         <v>4</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="1">
         <v>350</v>
       </c>
       <c r="AW8" s="1">
+        <v>350</v>
+      </c>
+      <c r="AX8" s="1">
         <v>250</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AY8" s="1">
         <v>300</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:68">
+      <c r="A9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:67">
-      <c r="A9" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E9" s="1">
         <v>20</v>
@@ -3261,148 +3291,151 @@
         <v>0</v>
       </c>
       <c r="S9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>0.05</v>
       </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
       <c r="V9" s="1">
         <v>1</v>
       </c>
       <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
         <v>2</v>
-      </c>
-      <c r="X9" s="1">
-        <v>300</v>
       </c>
       <c r="Y9" s="1">
         <v>300</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
         <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1">
         <v>5</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>35</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AH9" s="1">
         <v>4</v>
       </c>
-      <c r="AH9" s="1">
+      <c r="AI9" s="1">
         <v>40</v>
       </c>
-      <c r="AI9" s="1">
+      <c r="AJ9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>3</v>
       </c>
-      <c r="AK9" s="1">
+      <c r="AL9" s="1">
         <v>5</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>35</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AN9" s="1">
         <v>20</v>
       </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
       <c r="AO9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR9" s="1">
         <v>4</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
       </c>
       <c r="AU9" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="1">
         <v>350</v>
       </c>
       <c r="AW9" s="1">
+        <v>350</v>
+      </c>
+      <c r="AX9" s="1">
         <v>250</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AY9" s="1">
         <v>300</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BM9" s="6"/>
+      <c r="BN9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:65">
+      <c r="A10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="57" customHeight="1" spans="1:64">
-      <c r="A10" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E10" s="1">
         <v>40</v>
@@ -3447,40 +3480,40 @@
         <v>0</v>
       </c>
       <c r="S10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" s="1">
         <v>1</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>180</v>
       </c>
       <c r="Z10" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
@@ -3498,69 +3531,72 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="1">
         <v>-8</v>
       </c>
       <c r="AL10" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AM10" s="1">
         <v>24</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AN10" s="1">
         <v>-95</v>
       </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
       <c r="AO10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR10" s="1">
         <v>25</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="1">
         <v>350</v>
       </c>
       <c r="AW10" s="1">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="AX10" s="1">
         <v>35</v>
       </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL10" s="5" t="s">
-        <v>175</v>
+      <c r="AY10" s="1">
+        <v>35</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM10" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:67">
+    <row r="11" ht="57" customHeight="1" spans="1:68">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1">
         <v>40</v>
@@ -3605,40 +3641,40 @@
         <v>0</v>
       </c>
       <c r="S11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="1">
         <v>1</v>
       </c>
       <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
         <v>3</v>
-      </c>
-      <c r="X11" s="1">
-        <v>180</v>
       </c>
       <c r="Y11" s="1">
         <v>180</v>
       </c>
       <c r="Z11" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="1">
         <v>0</v>
@@ -3656,79 +3692,82 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="1">
         <v>-8</v>
       </c>
       <c r="AL11" s="1">
+        <v>-8</v>
+      </c>
+      <c r="AM11" s="1">
         <v>24</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AN11" s="1">
         <v>-95</v>
       </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
       <c r="AO11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR11" s="1">
         <v>25</v>
       </c>
       <c r="AS11" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
       </c>
       <c r="AU11" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="1">
         <v>350</v>
       </c>
       <c r="AW11" s="1">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="AX11" s="1">
         <v>35</v>
       </c>
-      <c r="AZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="1">
+      <c r="AY11" s="1">
+        <v>35</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM11" s="6"/>
+      <c r="BN11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BN11" s="1">
+      <c r="BO11" s="1">
         <v>0.5</v>
       </c>
-      <c r="BO11" s="1">
+      <c r="BP11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:64">
+    <row r="12" ht="57" customHeight="1" spans="1:65">
       <c r="A12" s="3" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1">
         <v>50</v>
@@ -3773,144 +3812,147 @@
         <v>0</v>
       </c>
       <c r="S12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="T12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <v>0.9</v>
       </c>
-      <c r="U12" s="1">
-        <v>1</v>
-      </c>
       <c r="V12" s="1">
         <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
         <v>150</v>
       </c>
       <c r="Z12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AA12" s="1">
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
         <v>3</v>
       </c>
-      <c r="AF12" s="1">
+      <c r="AG12" s="1">
         <v>60</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>40</v>
       </c>
       <c r="AH12" s="1">
         <v>40</v>
       </c>
       <c r="AI12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AK12" s="1">
         <v>5</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <v>7</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>20</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AN12" s="1">
         <v>15</v>
       </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
       <c r="AO12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR12" s="1">
         <v>30</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="1">
         <v>600</v>
       </c>
       <c r="AW12" s="1">
+        <v>600</v>
+      </c>
+      <c r="AX12" s="1">
         <v>700</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AY12" s="1">
         <v>900</v>
       </c>
-      <c r="AY12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ12" s="1">
+      <c r="AZ12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA12" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA12" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="BB12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD12" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:68">
+      <c r="A13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BC12" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:67">
-      <c r="A13" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
@@ -3955,153 +3997,156 @@
         <v>0</v>
       </c>
       <c r="S13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
         <v>0.9</v>
       </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
       <c r="V13" s="1">
         <v>1</v>
       </c>
       <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
         <v>5</v>
-      </c>
-      <c r="X13" s="1">
-        <v>150</v>
       </c>
       <c r="Y13" s="1">
         <v>150</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AA13" s="1">
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
         <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="1">
         <v>3</v>
       </c>
-      <c r="AF13" s="1">
+      <c r="AG13" s="1">
         <v>60</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>40</v>
       </c>
       <c r="AH13" s="1">
         <v>40</v>
       </c>
       <c r="AI13" s="1">
+        <v>40</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>0.8</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <v>5</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AL13" s="1">
         <v>7</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>20</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AN13" s="1">
         <v>15</v>
       </c>
-      <c r="AN13" s="1">
-        <v>0</v>
-      </c>
       <c r="AO13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AR13" s="1">
         <v>30</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT13" s="1">
         <v>0</v>
       </c>
       <c r="AU13" s="1">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="1">
         <v>600</v>
       </c>
       <c r="AW13" s="1">
+        <v>600</v>
+      </c>
+      <c r="AX13" s="1">
         <v>700</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AY13" s="1">
         <v>900</v>
       </c>
-      <c r="AY13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AZ13" s="1">
+      <c r="AZ13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA13" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA13" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="BB13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BC13" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="1">
+      <c r="BD13" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="1">
         <v>1.5</v>
       </c>
-      <c r="BN13" s="1">
+      <c r="BO13" s="1">
         <v>0.5</v>
       </c>
-      <c r="BO13" s="1">
+      <c r="BP13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:64">
+    <row r="14" ht="57" customHeight="1" spans="1:65">
       <c r="A14" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1">
         <v>30</v>
@@ -4146,138 +4191,141 @@
         <v>0</v>
       </c>
       <c r="S14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="1">
         <v>1</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>700</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AA14" s="1">
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
         <v>1</v>
       </c>
       <c r="AD14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
         <v>3</v>
       </c>
-      <c r="AF14" s="1">
+      <c r="AG14" s="1">
         <v>40</v>
       </c>
-      <c r="AG14" s="1">
+      <c r="AH14" s="1">
         <v>2</v>
       </c>
-      <c r="AH14" s="1">
+      <c r="AI14" s="1">
         <v>40</v>
       </c>
-      <c r="AI14" s="1">
+      <c r="AJ14" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ14" s="1">
-        <v>1</v>
-      </c>
       <c r="AK14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="1">
         <v>2</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>35</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AN14" s="1">
         <v>5</v>
       </c>
-      <c r="AN14" s="1">
-        <v>0</v>
-      </c>
       <c r="AO14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="AR14" s="1">
         <v>3</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
       </c>
       <c r="AU14" s="1">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="1">
         <v>320</v>
       </c>
       <c r="AW14" s="1">
+        <v>320</v>
+      </c>
+      <c r="AX14" s="1">
         <v>300</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AY14" s="1">
         <v>400</v>
       </c>
-      <c r="AY14" s="1" t="s">
+      <c r="AZ14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC14" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD14" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BH14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BM14" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:68">
+      <c r="A15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB14" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC14" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BG14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BL14" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:67">
-      <c r="A15" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E15" s="1">
         <v>30</v>
@@ -4322,133 +4370,136 @@
         <v>0</v>
       </c>
       <c r="S15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>0.05</v>
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V15" s="1">
         <v>5</v>
       </c>
       <c r="W15" s="1">
+        <v>5</v>
+      </c>
+      <c r="X15" s="1">
         <v>3.5</v>
-      </c>
-      <c r="X15" s="1">
-        <v>700</v>
       </c>
       <c r="Y15" s="1">
         <v>700</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="AA15" s="1">
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
         <v>1</v>
       </c>
       <c r="AD15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
         <v>3</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>40</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AH15" s="1">
         <v>2</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>40</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AJ15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ15" s="1">
-        <v>1</v>
-      </c>
       <c r="AK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="1">
         <v>2</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>35</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AN15" s="1">
         <v>5</v>
       </c>
-      <c r="AN15" s="1">
-        <v>0</v>
-      </c>
       <c r="AO15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="AR15" s="1">
         <v>3</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
       </c>
       <c r="AU15" s="1">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="1">
         <v>320</v>
       </c>
       <c r="AW15" s="1">
+        <v>320</v>
+      </c>
+      <c r="AX15" s="1">
         <v>300</v>
       </c>
-      <c r="AX15" s="1">
+      <c r="AY15" s="1">
         <v>400</v>
       </c>
-      <c r="AY15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AZ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB15" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BC15" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BD15" s="1">
+      <c r="AZ15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC15" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG15" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH15" s="1">
+      <c r="BH15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BI15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL15" s="5"/>
-      <c r="BM15" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="BM15" s="6"/>
       <c r="BN15" s="1">
         <v>0.5</v>
       </c>
       <c r="BO15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BP15" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="15600"/>
+    <workbookView windowWidth="24930" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1600,79 +1600,79 @@
   <dimension ref="A1:BS15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="21.2314814814815" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6851851851852" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6818181818182" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.4722222222222" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1111111111111" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2222222222222" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8888888888889" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1851851851852" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7777777777778" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.0555555555556" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.2222222222222" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.4814814814815" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34.2777777777778" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6388888888889" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6666666666667" style="1" customWidth="1"/>
-    <col min="18" max="19" width="25.0740740740741" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.2314814814815" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.6388888888889" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.8888888888889" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.8055555555556" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.3333333333333" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="26" max="26" width="20.9537037037037" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1111111111111" style="1" customWidth="1"/>
-    <col min="28" max="28" width="23.7777777777778" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.537037037037" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.4727272727273" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1090909090909" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6636363636364" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1090909090909" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.8909090909091" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7818181818182" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.0545454545455" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.2181818181818" style="1" customWidth="1"/>
+    <col min="14" max="14" width="33.4818181818182" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.2818181818182" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6363636363636" style="1" customWidth="1"/>
+    <col min="17" max="17" width="27.6636363636364" style="1" customWidth="1"/>
+    <col min="18" max="19" width="25.0727272727273" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="21" max="21" width="23.6363636363636" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.8909090909091" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.8090909090909" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.3363636363636" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.9545454545455" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1090909090909" style="1" customWidth="1"/>
+    <col min="28" max="28" width="23.7818181818182" style="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5363636363636" style="1" customWidth="1"/>
     <col min="30" max="30" width="21" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.4722222222222" style="1" customWidth="1"/>
-    <col min="32" max="32" width="26.6574074074074" style="1" customWidth="1"/>
+    <col min="31" max="31" width="20.4727272727273" style="1" customWidth="1"/>
+    <col min="32" max="32" width="26.6545454545455" style="1" customWidth="1"/>
     <col min="33" max="33" width="26.5" style="1" customWidth="1"/>
-    <col min="34" max="34" width="29.2037037037037" style="1" customWidth="1"/>
+    <col min="34" max="34" width="29.2" style="1" customWidth="1"/>
     <col min="35" max="35" width="30" style="1" customWidth="1"/>
-    <col min="36" max="36" width="38.5740740740741" style="1" customWidth="1"/>
+    <col min="36" max="36" width="38.5727272727273" style="1" customWidth="1"/>
     <col min="37" max="37" width="20" style="1" customWidth="1"/>
-    <col min="38" max="38" width="19.0092592592593" style="1" customWidth="1"/>
-    <col min="39" max="39" width="30.9814814814815" style="1" customWidth="1"/>
-    <col min="40" max="40" width="22.962962962963" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="42" max="42" width="27.6481481481481" style="1" customWidth="1"/>
-    <col min="43" max="45" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="46" max="46" width="29.8425925925926" style="1" customWidth="1"/>
-    <col min="47" max="47" width="29.8333333333333" style="1" customWidth="1"/>
-    <col min="48" max="48" width="21.4259259259259" style="1" customWidth="1"/>
-    <col min="49" max="49" width="20.6388888888889" style="1" customWidth="1"/>
-    <col min="50" max="50" width="27.3055555555556" style="1" customWidth="1"/>
-    <col min="51" max="51" width="24.1203703703704" style="1" customWidth="1"/>
-    <col min="52" max="53" width="27.7777777777778" style="1" customWidth="1"/>
-    <col min="54" max="54" width="24.0740740740741" style="1" customWidth="1"/>
-    <col min="55" max="55" width="21.1111111111111" style="1" customWidth="1"/>
-    <col min="56" max="56" width="22.1018518518519" style="1" customWidth="1"/>
-    <col min="57" max="57" width="29.75" style="1" customWidth="1"/>
-    <col min="58" max="58" width="20.1203703703704" style="1" customWidth="1"/>
-    <col min="59" max="59" width="25.2314814814815" style="1" customWidth="1"/>
-    <col min="60" max="60" width="23.7037037037037" style="1" customWidth="1"/>
-    <col min="61" max="61" width="37.9259259259259" style="1" customWidth="1"/>
-    <col min="62" max="62" width="22.5925925925926" style="1" customWidth="1"/>
-    <col min="63" max="63" width="30.4722222222222" style="1" customWidth="1"/>
-    <col min="64" max="64" width="31.8518518518519" style="1" customWidth="1"/>
-    <col min="65" max="65" width="32.4722222222222" style="2" customWidth="1"/>
-    <col min="66" max="66" width="30.3703703703704" style="1" customWidth="1"/>
-    <col min="67" max="67" width="38.5185185185185" style="1" customWidth="1"/>
-    <col min="68" max="68" width="38.7685185185185" style="1" customWidth="1"/>
+    <col min="38" max="38" width="19.0090909090909" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.9818181818182" style="1" customWidth="1"/>
+    <col min="40" max="40" width="22.9636363636364" style="1" customWidth="1"/>
+    <col min="41" max="41" width="23.7" style="1" customWidth="1"/>
+    <col min="42" max="42" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="43" max="45" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="46" max="46" width="29.8454545454545" style="1" customWidth="1"/>
+    <col min="47" max="47" width="29.8363636363636" style="1" customWidth="1"/>
+    <col min="48" max="48" width="21.4272727272727" style="1" customWidth="1"/>
+    <col min="49" max="49" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="50" max="50" width="27.3090909090909" style="1" customWidth="1"/>
+    <col min="51" max="51" width="24.1181818181818" style="1" customWidth="1"/>
+    <col min="52" max="53" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="54" max="54" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="55" max="55" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="56" max="56" width="22.1" style="1" customWidth="1"/>
+    <col min="57" max="57" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="58" max="58" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="59" max="59" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="60" max="60" width="23.7" style="1" customWidth="1"/>
+    <col min="61" max="61" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="62" max="62" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="63" max="63" width="30.4727272727273" style="1" customWidth="1"/>
+    <col min="64" max="64" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="65" max="65" width="32.4727272727273" style="2" customWidth="1"/>
+    <col min="66" max="66" width="30.3727272727273" style="1" customWidth="1"/>
+    <col min="67" max="67" width="38.5181818181818" style="1" customWidth="1"/>
+    <col min="68" max="68" width="38.7727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:68">
@@ -2322,10 +2322,10 @@
         <v>30</v>
       </c>
       <c r="I4" s="1">
-        <v>1800</v>
+        <v>420</v>
       </c>
       <c r="J4" s="1">
-        <v>1500</v>
+        <v>390</v>
       </c>
       <c r="K4" s="1">
         <v>2.2</v>
@@ -2501,10 +2501,10 @@
         <v>30</v>
       </c>
       <c r="I5" s="1">
-        <v>1800</v>
+        <v>420</v>
       </c>
       <c r="J5" s="1">
-        <v>1500</v>
+        <v>390</v>
       </c>
       <c r="K5" s="1">
         <v>2.2</v>
@@ -2690,10 +2690,10 @@
         <v>7</v>
       </c>
       <c r="I6" s="1">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="J6" s="1">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="K6" s="1">
         <v>0.4</v>
@@ -2881,10 +2881,10 @@
         <v>7</v>
       </c>
       <c r="I7" s="1">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="J7" s="1">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="K7" s="1">
         <v>0.4</v>
@@ -3082,10 +3082,10 @@
         <v>12</v>
       </c>
       <c r="I8" s="1">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J8" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="K8" s="1">
         <v>1.5</v>
@@ -3261,10 +3261,10 @@
         <v>12</v>
       </c>
       <c r="I9" s="1">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="J9" s="1">
-        <v>72</v>
+        <v>168</v>
       </c>
       <c r="K9" s="1">
         <v>1.5</v>
@@ -3782,10 +3782,10 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1">
         <v>3</v>
@@ -3967,10 +3967,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1">
         <v>3</v>
@@ -4161,10 +4161,10 @@
         <v>20</v>
       </c>
       <c r="I14" s="1">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="J14" s="1">
-        <v>2600</v>
+        <v>580</v>
       </c>
       <c r="K14" s="1">
         <v>2.2</v>
@@ -4340,10 +4340,10 @@
         <v>20</v>
       </c>
       <c r="I15" s="1">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="J15" s="1">
-        <v>2600</v>
+        <v>580</v>
       </c>
       <c r="K15" s="1">
         <v>2.2</v>
@@ -4519,7 +4519,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4536,7 +4536,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="200">
   <si>
     <t>Id</t>
   </si>
@@ -606,6 +606,27 @@
   </si>
   <si>
     <t>0012</t>
+  </si>
+  <si>
+    <t>0013</t>
+  </si>
+  <si>
+    <t>weapon0007</t>
+  </si>
+  <si>
+    <t>汤姆逊冲锋枪</t>
+  </si>
+  <si>
+    <t>bullet0003</t>
+  </si>
+  <si>
+    <t>shooting0007</t>
+  </si>
+  <si>
+    <t>reloadBegin0006</t>
+  </si>
+  <si>
+    <t>beLoaded0017</t>
   </si>
 </sst>
 </file>
@@ -1597,14 +1618,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BS16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AZ10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="BD16" sqref="BD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1643,7 +1664,7 @@
     <col min="33" max="33" width="26.5" style="1" customWidth="1"/>
     <col min="34" max="34" width="29.2" style="1" customWidth="1"/>
     <col min="35" max="35" width="30" style="1" customWidth="1"/>
-    <col min="36" max="36" width="38.5727272727273" style="1" customWidth="1"/>
+    <col min="36" max="36" width="34.4090909090909" style="1" customWidth="1"/>
     <col min="37" max="37" width="20" style="1" customWidth="1"/>
     <col min="38" max="38" width="19.0090909090909" style="1" customWidth="1"/>
     <col min="39" max="39" width="30.9818181818182" style="1" customWidth="1"/>
@@ -2394,7 +2415,7 @@
         <v>5</v>
       </c>
       <c r="AG4" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH4" s="1">
         <v>3</v>
@@ -2439,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="AV4" s="1">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AW4" s="1">
         <v>350</v>
@@ -2573,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="AG5" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH5" s="1">
         <v>3</v>
@@ -2618,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AW5" s="1">
         <v>350</v>
@@ -3154,7 +3175,7 @@
         <v>5</v>
       </c>
       <c r="AG8" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AH8" s="1">
         <v>4</v>
@@ -3199,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="1">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AW8" s="1">
         <v>350</v>
@@ -3333,7 +3354,7 @@
         <v>5</v>
       </c>
       <c r="AG9" s="1">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AH9" s="1">
         <v>4</v>
@@ -3378,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AW9" s="1">
         <v>350</v>
@@ -3902,7 +3923,7 @@
         <v>600</v>
       </c>
       <c r="AW12" s="1">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="AX12" s="1">
         <v>700</v>
@@ -4087,7 +4108,7 @@
         <v>600</v>
       </c>
       <c r="AW13" s="1">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="AX13" s="1">
         <v>700</v>
@@ -4233,7 +4254,7 @@
         <v>3</v>
       </c>
       <c r="AG14" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH14" s="1">
         <v>2</v>
@@ -4281,7 +4302,7 @@
         <v>320</v>
       </c>
       <c r="AW14" s="1">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AX14" s="1">
         <v>300</v>
@@ -4412,13 +4433,13 @@
         <v>3</v>
       </c>
       <c r="AG15" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AH15" s="1">
         <v>2</v>
       </c>
       <c r="AI15" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ15" s="1">
         <v>0.3</v>
@@ -4460,7 +4481,7 @@
         <v>320</v>
       </c>
       <c r="AW15" s="1">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AX15" s="1">
         <v>300</v>
@@ -4502,6 +4523,186 @@
       <c r="BP15" s="1">
         <v>0</v>
       </c>
+    </row>
+    <row r="16" ht="57" customHeight="1" spans="1:65">
+      <c r="A16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1">
+        <v>600</v>
+      </c>
+      <c r="J16" s="1">
+        <v>540</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>700</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>700</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>60</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>35</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>300</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>330</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>270</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>360</v>
+      </c>
+      <c r="AZ16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC16" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BM16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="201">
   <si>
     <t>Id</t>
   </si>
@@ -627,6 +627,9 @@
   </si>
   <si>
     <t>beLoaded0017</t>
+  </si>
+  <si>
+    <t>0014</t>
   </si>
 </sst>
 </file>
@@ -1618,14 +1621,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BS16"/>
+  <dimension ref="A1:BS17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AZ10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BD16" sqref="BD16"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4694,7 +4697,7 @@
         <v>198</v>
       </c>
       <c r="BE16" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="BH16" s="1" t="s">
         <v>199</v>
@@ -4702,7 +4705,196 @@
       <c r="BI16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BM16" s="3"/>
+      <c r="BM16" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:68">
+      <c r="A17" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="1">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1">
+        <v>600</v>
+      </c>
+      <c r="J17" s="1">
+        <v>540</v>
+      </c>
+      <c r="K17" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>10</v>
+      </c>
+      <c r="W17" s="1">
+        <v>10</v>
+      </c>
+      <c r="X17" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>200</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>35</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>300</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>330</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>270</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>360</v>
+      </c>
+      <c r="AZ17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BC17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BH17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12270"/>
+    <workbookView windowWidth="24750" windowHeight="12200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Icon</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -229,9 +226,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>武器的图标</t>
   </si>
   <si>
     <t>重量</t>
@@ -473,9 +467,6 @@
     <t>步枪</t>
   </si>
   <si>
-    <t>res://resource/sprite/gun/gun4.png</t>
-  </si>
-  <si>
     <t>bullet0001</t>
   </si>
   <si>
@@ -635,7 +626,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -657,34 +648,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -698,14 +661,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,6 +700,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -795,7 +765,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,55 +801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -876,31 +825,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,6 +861,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -936,7 +885,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,7 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,6 +969,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1001,21 +992,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1048,6 +1024,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,148 +1097,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1267,61 +1258,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1621,14 +1612,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BS17"/>
+  <dimension ref="A1:BR17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="N10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1636,70 +1627,69 @@
     <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.6818181818182" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.4727272727273" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1090909090909" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6636363636364" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1090909090909" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.2181818181818" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8909090909091" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7818181818182" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.0545454545455" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.2181818181818" style="1" customWidth="1"/>
-    <col min="14" max="14" width="33.4818181818182" style="1" customWidth="1"/>
-    <col min="15" max="15" width="34.2818181818182" style="1" customWidth="1"/>
-    <col min="16" max="16" width="23.6363636363636" style="1" customWidth="1"/>
-    <col min="17" max="17" width="27.6636363636364" style="1" customWidth="1"/>
-    <col min="18" max="19" width="25.0727272727273" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.6363636363636" style="1" customWidth="1"/>
-    <col min="22" max="22" width="24.8909090909091" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.8090909090909" style="1" customWidth="1"/>
-    <col min="24" max="24" width="21.3363636363636" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="26" max="26" width="20.9545454545455" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.1090909090909" style="1" customWidth="1"/>
-    <col min="28" max="28" width="23.7818181818182" style="1" customWidth="1"/>
-    <col min="29" max="29" width="22.5363636363636" style="1" customWidth="1"/>
-    <col min="30" max="30" width="21" style="1" customWidth="1"/>
-    <col min="31" max="31" width="20.4727272727273" style="1" customWidth="1"/>
-    <col min="32" max="32" width="26.6545454545455" style="1" customWidth="1"/>
-    <col min="33" max="33" width="26.5" style="1" customWidth="1"/>
-    <col min="34" max="34" width="29.2" style="1" customWidth="1"/>
-    <col min="35" max="35" width="30" style="1" customWidth="1"/>
-    <col min="36" max="36" width="34.4090909090909" style="1" customWidth="1"/>
-    <col min="37" max="37" width="20" style="1" customWidth="1"/>
-    <col min="38" max="38" width="19.0090909090909" style="1" customWidth="1"/>
-    <col min="39" max="39" width="30.9818181818182" style="1" customWidth="1"/>
-    <col min="40" max="40" width="22.9636363636364" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.7" style="1" customWidth="1"/>
-    <col min="42" max="42" width="27.6454545454545" style="1" customWidth="1"/>
-    <col min="43" max="45" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="46" max="46" width="29.8454545454545" style="1" customWidth="1"/>
-    <col min="47" max="47" width="29.8363636363636" style="1" customWidth="1"/>
-    <col min="48" max="48" width="21.4272727272727" style="1" customWidth="1"/>
-    <col min="49" max="49" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="50" max="50" width="27.3090909090909" style="1" customWidth="1"/>
-    <col min="51" max="51" width="24.1181818181818" style="1" customWidth="1"/>
-    <col min="52" max="53" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="54" max="54" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="55" max="55" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="56" max="56" width="22.1" style="1" customWidth="1"/>
-    <col min="57" max="57" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="58" max="58" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="59" max="59" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="60" max="60" width="23.7" style="1" customWidth="1"/>
-    <col min="61" max="61" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="62" max="62" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="63" max="63" width="30.4727272727273" style="1" customWidth="1"/>
-    <col min="64" max="64" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="65" max="65" width="32.4727272727273" style="2" customWidth="1"/>
-    <col min="66" max="66" width="30.3727272727273" style="1" customWidth="1"/>
-    <col min="67" max="67" width="38.5181818181818" style="1" customWidth="1"/>
-    <col min="68" max="68" width="38.7727272727273" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1090909090909" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6636363636364" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1090909090909" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2181818181818" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8909090909091" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1818181818182" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7818181818182" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.0545454545455" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.2181818181818" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.4818181818182" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.2818181818182" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6363636363636" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.6636363636364" style="1" customWidth="1"/>
+    <col min="17" max="18" width="25.0727272727273" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6363636363636" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.8909090909091" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23.8090909090909" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.3363636363636" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20.9545454545455" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.1090909090909" style="1" customWidth="1"/>
+    <col min="27" max="27" width="23.7818181818182" style="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5363636363636" style="1" customWidth="1"/>
+    <col min="29" max="29" width="21" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.4727272727273" style="1" customWidth="1"/>
+    <col min="31" max="31" width="26.6545454545455" style="1" customWidth="1"/>
+    <col min="32" max="32" width="26.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="29.2" style="1" customWidth="1"/>
+    <col min="34" max="34" width="30" style="1" customWidth="1"/>
+    <col min="35" max="35" width="34.4090909090909" style="1" customWidth="1"/>
+    <col min="36" max="36" width="20" style="1" customWidth="1"/>
+    <col min="37" max="37" width="19.0090909090909" style="1" customWidth="1"/>
+    <col min="38" max="38" width="30.9818181818182" style="1" customWidth="1"/>
+    <col min="39" max="39" width="22.9636363636364" style="1" customWidth="1"/>
+    <col min="40" max="40" width="23.7" style="1" customWidth="1"/>
+    <col min="41" max="41" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="42" max="44" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="45" max="45" width="29.8454545454545" style="1" customWidth="1"/>
+    <col min="46" max="46" width="29.8363636363636" style="1" customWidth="1"/>
+    <col min="47" max="47" width="21.4272727272727" style="1" customWidth="1"/>
+    <col min="48" max="48" width="20.6363636363636" style="1" customWidth="1"/>
+    <col min="49" max="49" width="27.3090909090909" style="1" customWidth="1"/>
+    <col min="50" max="50" width="24.1181818181818" style="1" customWidth="1"/>
+    <col min="51" max="52" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="53" max="53" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="54" max="54" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="55" max="55" width="22.1" style="1" customWidth="1"/>
+    <col min="56" max="56" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="57" max="57" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="58" max="58" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="59" max="59" width="23.7" style="1" customWidth="1"/>
+    <col min="60" max="60" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="61" max="61" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="62" max="62" width="30.4727272727273" style="1" customWidth="1"/>
+    <col min="63" max="63" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="64" max="64" width="32.4727272727273" style="2" customWidth="1"/>
+    <col min="65" max="65" width="30.3727272727273" style="1" customWidth="1"/>
+    <col min="66" max="66" width="38.5181818181818" style="1" customWidth="1"/>
+    <col min="67" max="67" width="38.7727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:68">
+    <row r="1" ht="31" customHeight="1" spans="1:67">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,10 +1879,10 @@
       <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
@@ -1901,667 +1891,655 @@
       <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:70">
+      <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:71">
-      <c r="A2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO2" s="1" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:67">
+      <c r="A3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:68">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>137</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>137</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>137</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="BC3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="BF3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AE3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR3" s="1" t="s">
+      <c r="BH3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BI3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AS3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BB3" s="1" t="s">
+      <c r="BJ3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BK3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BC3" s="1" t="s">
+      <c r="BL3" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="BD3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL3" s="1" t="s">
+      <c r="BM3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:64">
+      <c r="A4" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BN3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:65">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>148</v>
+      <c r="D4" s="1">
+        <v>40</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="b">
-        <v>1</v>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>30</v>
       </c>
       <c r="H4" s="1">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="I4" s="1">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="J4" s="1">
-        <v>390</v>
-      </c>
-      <c r="K4" s="1">
         <v>2.2</v>
       </c>
-      <c r="L4" s="1" t="b">
-        <v>0</v>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="1" t="b">
+      <c r="T4" s="1">
         <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="1">
         <v>1</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="Y4" s="1">
         <v>480</v>
       </c>
       <c r="Z4" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
         <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
         <v>1</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF4" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="AG4" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AH4" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="1">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="AJ4" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AK4" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>10</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ4" s="1">
         <v>4</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="AR4" s="1">
         <v>4</v>
       </c>
       <c r="AS4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>0</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AV4" s="1">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AW4" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AX4" s="1">
-        <v>300</v>
-      </c>
-      <c r="AY4" s="1">
         <v>400</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BD4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BG4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BC4" s="3" t="s">
+      <c r="BH4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BL4" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="BD4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>155</v>
-      </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:68">
+    <row r="5" ht="57" customHeight="1" spans="1:67">
       <c r="A5" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="D5" s="1">
+        <v>40</v>
       </c>
       <c r="E5" s="1">
-        <v>40</v>
-      </c>
-      <c r="F5" s="1">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
+      <c r="F5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>30</v>
       </c>
       <c r="H5" s="1">
-        <v>30</v>
+        <v>420</v>
       </c>
       <c r="I5" s="1">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="J5" s="1">
-        <v>390</v>
-      </c>
-      <c r="K5" s="1">
         <v>2.2</v>
       </c>
-      <c r="L5" s="1" t="b">
-        <v>0</v>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="1" t="b">
+      <c r="T5" s="1">
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2570,905 +2548,890 @@
         <v>3</v>
       </c>
       <c r="X5" s="1">
-        <v>3</v>
+        <v>480</v>
       </c>
       <c r="Y5" s="1">
         <v>480</v>
       </c>
       <c r="Z5" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
         <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF5" s="1">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="AG5" s="1">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AI5" s="1">
-        <v>40</v>
+        <v>0.5</v>
       </c>
       <c r="AJ5" s="1">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AK5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ5" s="1">
         <v>4</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="AR5" s="1">
         <v>4</v>
       </c>
       <c r="AS5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
       </c>
       <c r="AU5" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AV5" s="1">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AW5" s="1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AX5" s="1">
-        <v>300</v>
-      </c>
-      <c r="AY5" s="1">
         <v>400</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BD5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BG5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BC5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BI5" s="1">
+      <c r="BH5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BM5" s="6"/>
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="BN5" s="1">
         <v>0.5</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:65">
+    <row r="6" ht="57" customHeight="1" spans="1:64">
       <c r="A6" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="D6" s="1">
+        <v>40</v>
       </c>
       <c r="E6" s="1">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="1" t="b">
-        <v>0</v>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
       </c>
       <c r="H6" s="1">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="I6" s="1">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J6" s="1">
-        <v>133</v>
-      </c>
-      <c r="K6" s="1">
         <v>0.4</v>
       </c>
-      <c r="L6" s="1" t="b">
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N6" s="1">
         <v>0.6</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
         <v>0.6</v>
       </c>
-      <c r="P6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="U6" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V6" s="1">
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="Y6" s="1">
         <v>120</v>
       </c>
       <c r="Z6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC6" s="1">
         <v>5</v>
       </c>
       <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>5</v>
       </c>
-      <c r="AE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>12</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>0.5</v>
-      </c>
       <c r="AK6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL6" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="AM6" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AN6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>159</v>
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>4</v>
       </c>
       <c r="AR6" s="1">
         <v>4</v>
       </c>
       <c r="AS6" s="1">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="AT6" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="AU6" s="1">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="AV6" s="1">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="AW6" s="1">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AX6" s="1">
-        <v>200</v>
-      </c>
-      <c r="AY6" s="1">
         <v>250</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BA6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC6" s="3" t="s">
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BH6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BI6" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:68">
+    <row r="7" ht="57" customHeight="1" spans="1:67">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40</v>
       </c>
       <c r="E7" s="1">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="b">
-        <v>0</v>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7</v>
       </c>
       <c r="H7" s="1">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="I7" s="1">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J7" s="1">
-        <v>133</v>
-      </c>
-      <c r="K7" s="1">
         <v>0.4</v>
       </c>
-      <c r="L7" s="1" t="b">
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="N7" s="1">
         <v>0.6</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="1">
         <v>0.6</v>
       </c>
-      <c r="P7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T7" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="U7" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="V7" s="1">
         <v>1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="X7" s="1">
-        <v>3.5</v>
+        <v>120</v>
       </c>
       <c r="Y7" s="1">
         <v>120</v>
       </c>
       <c r="Z7" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC7" s="1">
         <v>5</v>
       </c>
       <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ7" s="1">
         <v>5</v>
       </c>
-      <c r="AE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>12</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>0.5</v>
-      </c>
       <c r="AK7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL7" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="AM7" s="1">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AN7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>159</v>
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>4</v>
       </c>
       <c r="AR7" s="1">
         <v>4</v>
       </c>
       <c r="AS7" s="1">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="AT7" s="1">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="AU7" s="1">
-        <v>10</v>
+        <v>280</v>
       </c>
       <c r="AV7" s="1">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="AW7" s="1">
-        <v>380</v>
+        <v>200</v>
       </c>
       <c r="AX7" s="1">
-        <v>200</v>
-      </c>
-      <c r="AY7" s="1">
         <v>250</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BA7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC7" s="3" t="s">
+      <c r="BF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BH7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BI7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1" t="s">
+      <c r="BJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:64">
+      <c r="A8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="BI7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="57" customHeight="1" spans="1:65">
-      <c r="A8" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1">
+        <v>180</v>
+      </c>
+      <c r="I8" s="1">
         <v>168</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="1">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1">
-        <v>180</v>
-      </c>
       <c r="J8" s="1">
-        <v>168</v>
-      </c>
-      <c r="K8" s="1">
         <v>1.5</v>
       </c>
-      <c r="L8" s="1" t="b">
-        <v>0</v>
+      <c r="K8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
         <v>0</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T8" s="1" t="b">
-        <v>0</v>
+      <c r="T8" s="1">
+        <v>0.05</v>
       </c>
       <c r="U8" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
         <v>1</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="Y8" s="1">
         <v>460</v>
       </c>
       <c r="Z8" s="1">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
         <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF8" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="1">
         <v>5</v>
       </c>
-      <c r="AG8" s="1">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="1">
+      <c r="AL8" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ8" s="1">
         <v>4</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="AR8" s="1">
         <v>4</v>
       </c>
       <c r="AS8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>0</v>
       </c>
       <c r="AU8" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AV8" s="1">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AW8" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AX8" s="1">
-        <v>250</v>
-      </c>
-      <c r="AY8" s="1">
         <v>300</v>
       </c>
-      <c r="AZ8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC8" s="3" t="s">
+      <c r="AY8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BL8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="BD8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BM8" s="6" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:68">
+    <row r="9" ht="57" customHeight="1" spans="1:67">
       <c r="A9" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>12</v>
       </c>
       <c r="H9" s="1">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I9" s="1">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J9" s="1">
-        <v>168</v>
-      </c>
-      <c r="K9" s="1">
         <v>1.5</v>
       </c>
-      <c r="L9" s="1" t="b">
-        <v>0</v>
+      <c r="K9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
         <v>0</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T9" s="1" t="b">
-        <v>0</v>
+      <c r="T9" s="1">
+        <v>0.05</v>
       </c>
       <c r="U9" s="1">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="V9" s="1">
         <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X9" s="1">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="Y9" s="1">
         <v>300</v>
       </c>
       <c r="Z9" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
         <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF9" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK9" s="1">
         <v>5</v>
       </c>
-      <c r="AG9" s="1">
-        <v>25</v>
-      </c>
-      <c r="AH9" s="1">
+      <c r="AL9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ9" s="1">
         <v>4</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="AR9" s="1">
         <v>4</v>
       </c>
       <c r="AS9" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>0</v>
       </c>
       <c r="AU9" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AV9" s="1">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AW9" s="1">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AX9" s="1">
-        <v>250</v>
-      </c>
-      <c r="AY9" s="1">
         <v>300</v>
       </c>
-      <c r="AZ9" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC9" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:64">
+      <c r="A10" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BI9" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="57" customHeight="1" spans="1:65">
-      <c r="A10" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
       </c>
       <c r="E10" s="1">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="b">
-        <v>0</v>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>180</v>
       </c>
       <c r="H10" s="1">
         <v>180</v>
@@ -3477,67 +3440,67 @@
         <v>180</v>
       </c>
       <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
         <v>180</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
-      <c r="L10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="1">
-        <v>0</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
-      </c>
-      <c r="W10" s="1">
-        <v>1</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0</v>
       </c>
       <c r="Y10" s="1">
         <v>180</v>
       </c>
       <c r="Z10" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
         <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>0</v>
@@ -3555,81 +3518,78 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AK10" s="1">
         <v>-8</v>
       </c>
       <c r="AL10" s="1">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="AM10" s="1">
-        <v>24</v>
+        <v>-95</v>
       </c>
       <c r="AN10" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>25</v>
       </c>
       <c r="AR10" s="1">
         <v>25</v>
       </c>
       <c r="AS10" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AV10" s="1">
         <v>350</v>
       </c>
       <c r="AW10" s="1">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="AX10" s="1">
         <v>35</v>
       </c>
-      <c r="AY10" s="1">
-        <v>35</v>
-      </c>
-      <c r="BA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BM10" s="6" t="s">
-        <v>177</v>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL10" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:68">
+    <row r="11" ht="57" customHeight="1" spans="1:67">
       <c r="A11" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40</v>
       </c>
       <c r="E11" s="1">
-        <v>40</v>
-      </c>
-      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="b">
-        <v>0</v>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>180</v>
       </c>
       <c r="H11" s="1">
         <v>180</v>
@@ -3638,67 +3598,67 @@
         <v>180</v>
       </c>
       <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1">
         <v>180</v>
-      </c>
-      <c r="K11" s="1">
-        <v>2</v>
-      </c>
-      <c r="L11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
-      </c>
-      <c r="W11" s="1">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1">
-        <v>3</v>
       </c>
       <c r="Y11" s="1">
         <v>180</v>
       </c>
       <c r="Z11" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="1">
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
       <c r="AD11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>0</v>
@@ -3716,1183 +3676,1161 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AK11" s="1">
         <v>-8</v>
       </c>
       <c r="AL11" s="1">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="AM11" s="1">
-        <v>24</v>
+        <v>-95</v>
       </c>
       <c r="AN11" s="1">
-        <v>-95</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>25</v>
       </c>
       <c r="AR11" s="1">
         <v>25</v>
       </c>
       <c r="AS11" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>0</v>
       </c>
       <c r="AU11" s="1">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AV11" s="1">
         <v>350</v>
       </c>
       <c r="AW11" s="1">
-        <v>350</v>
+        <v>35</v>
       </c>
       <c r="AX11" s="1">
         <v>35</v>
       </c>
-      <c r="AY11" s="1">
-        <v>35</v>
-      </c>
-      <c r="BA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BM11" s="6"/>
+      <c r="AZ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="1">
+        <v>0.7</v>
+      </c>
       <c r="BN11" s="1">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:65">
+    <row r="12" ht="57" customHeight="1" spans="1:64">
       <c r="A12" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
       </c>
       <c r="E12" s="1">
-        <v>50</v>
-      </c>
-      <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="b">
-        <v>0</v>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
       </c>
       <c r="H12" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I12" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1">
-        <v>70</v>
-      </c>
-      <c r="K12" s="1">
         <v>3</v>
       </c>
-      <c r="L12" s="1" t="b">
-        <v>0</v>
+      <c r="K12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P12" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="S12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.9</v>
       </c>
       <c r="U12" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
         <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Y12" s="1">
         <v>150</v>
       </c>
       <c r="Z12" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="1">
         <v>0</v>
       </c>
       <c r="AB12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
         <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="AG12" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH12" s="1">
         <v>40</v>
       </c>
       <c r="AI12" s="1">
-        <v>40</v>
+        <v>0.8</v>
       </c>
       <c r="AJ12" s="1">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="AK12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL12" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AM12" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AN12" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>30</v>
       </c>
       <c r="AR12" s="1">
         <v>30</v>
       </c>
       <c r="AS12" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>0</v>
       </c>
       <c r="AU12" s="1">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AV12" s="1">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="AW12" s="1">
-        <v>620</v>
+        <v>700</v>
       </c>
       <c r="AX12" s="1">
-        <v>700</v>
-      </c>
-      <c r="AY12" s="1">
         <v>900</v>
       </c>
-      <c r="AZ12" s="1" t="s">
+      <c r="AY12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC12" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BA12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC12" s="1" t="s">
+      <c r="BH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="BD12" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BM12" s="6" t="s">
-        <v>185</v>
-      </c>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:68">
+    <row r="13" ht="57" customHeight="1" spans="1:67">
       <c r="A13" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>177</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50</v>
       </c>
       <c r="E13" s="1">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="b">
-        <v>0</v>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="I13" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1">
-        <v>70</v>
-      </c>
-      <c r="K13" s="1">
         <v>3</v>
       </c>
-      <c r="L13" s="1" t="b">
-        <v>0</v>
+      <c r="K13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>0</v>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="S13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1" t="b">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.9</v>
       </c>
       <c r="U13" s="1">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
         <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X13" s="1">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="Y13" s="1">
         <v>150</v>
       </c>
       <c r="Z13" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="1">
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="1">
         <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF13" s="1">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="AG13" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AH13" s="1">
         <v>40</v>
       </c>
       <c r="AI13" s="1">
-        <v>40</v>
+        <v>0.8</v>
       </c>
       <c r="AJ13" s="1">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="AK13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AL13" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="AM13" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AN13" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>30</v>
       </c>
       <c r="AR13" s="1">
         <v>30</v>
       </c>
       <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>600</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>620</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>700</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>900</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BA13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:64">
+      <c r="A14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="1">
         <v>30</v>
       </c>
-      <c r="AT13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="1">
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1">
         <v>600</v>
       </c>
-      <c r="AW13" s="1">
-        <v>620</v>
-      </c>
-      <c r="AX13" s="1">
+      <c r="I14" s="1">
+        <v>580</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
         <v>700</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>900</v>
-      </c>
-      <c r="AZ13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC13" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BD13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BJ13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="BO13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="57" customHeight="1" spans="1:65">
-      <c r="A14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E14" s="1">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-      <c r="G14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1">
-        <v>600</v>
-      </c>
-      <c r="J14" s="1">
-        <v>580</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2.2</v>
-      </c>
-      <c r="L14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-      <c r="P14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14" s="1">
-        <v>0</v>
-      </c>
-      <c r="V14" s="1">
-        <v>1</v>
-      </c>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="X14" s="1">
-        <v>0</v>
       </c>
       <c r="Y14" s="1">
         <v>700</v>
       </c>
       <c r="Z14" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="1">
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="1">
         <v>1</v>
       </c>
       <c r="AD14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF14" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>40</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ14" s="1">
         <v>3</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>40</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="AR14" s="1">
         <v>3</v>
       </c>
       <c r="AS14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>0</v>
       </c>
       <c r="AU14" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AV14" s="1">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AW14" s="1">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AX14" s="1">
-        <v>300</v>
-      </c>
-      <c r="AY14" s="1">
         <v>400</v>
       </c>
-      <c r="AZ14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC14" s="3" t="s">
+      <c r="AY14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC14" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BG14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BL14" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BD14" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BH14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BI14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM14" s="3" t="s">
-        <v>192</v>
-      </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:68">
+    <row r="15" ht="57" customHeight="1" spans="1:67">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>148</v>
+        <v>185</v>
+      </c>
+      <c r="D15" s="1">
+        <v>30</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="1" t="b">
-        <v>0</v>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20</v>
       </c>
       <c r="H15" s="1">
-        <v>20</v>
+        <v>600</v>
       </c>
       <c r="I15" s="1">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="J15" s="1">
-        <v>580</v>
-      </c>
-      <c r="K15" s="1">
         <v>2.2</v>
       </c>
-      <c r="L15" s="1" t="b">
-        <v>0</v>
+      <c r="K15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T15" s="1" t="b">
+      <c r="T15" s="1">
         <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V15" s="1">
         <v>5</v>
       </c>
       <c r="W15" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="X15" s="1">
-        <v>3.5</v>
+        <v>700</v>
       </c>
       <c r="Y15" s="1">
         <v>700</v>
       </c>
       <c r="Z15" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
         <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1">
         <v>1</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF15" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>30</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AQ15" s="1">
         <v>3</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>30</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="AR15" s="1">
         <v>3</v>
       </c>
       <c r="AS15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>0</v>
       </c>
       <c r="AU15" s="1">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AV15" s="1">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="AW15" s="1">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AX15" s="1">
-        <v>300</v>
-      </c>
-      <c r="AY15" s="1">
         <v>400</v>
       </c>
-      <c r="AZ15" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC15" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD15" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE15" s="1">
+      <c r="AY15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC15" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BH15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BI15" s="1">
+      <c r="BG15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BH15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BM15" s="6"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="BN15" s="1">
         <v>0.5</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:65">
+    <row r="16" ht="57" customHeight="1" spans="1:64">
       <c r="A16" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40</v>
       </c>
       <c r="E16" s="1">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="1" t="b">
-        <v>1</v>
+      <c r="F16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>60</v>
       </c>
       <c r="H16" s="1">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="I16" s="1">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="J16" s="1">
-        <v>540</v>
-      </c>
-      <c r="K16" s="1">
         <v>2.2</v>
       </c>
-      <c r="L16" s="1" t="b">
-        <v>0</v>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
         <v>0</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T16" s="1" t="b">
+      <c r="T16" s="1">
         <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1">
         <v>1</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="Y16" s="1">
         <v>700</v>
       </c>
       <c r="Z16" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="1">
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1">
         <v>1</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF16" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="AG16" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="AH16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ16" s="1">
         <v>3</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>50</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AR16" s="1">
         <v>3</v>
       </c>
       <c r="AS16" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>0</v>
       </c>
       <c r="AU16" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AV16" s="1">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AW16" s="1">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="AX16" s="1">
-        <v>270</v>
-      </c>
-      <c r="AY16" s="1">
         <v>360</v>
       </c>
-      <c r="AZ16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC16" s="3" t="s">
+      <c r="AY16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB16" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC16" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BG16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BL16" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="BD16" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BH16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BM16" s="3" t="s">
-        <v>200</v>
-      </c>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:68">
+    <row r="17" ht="57" customHeight="1" spans="1:67">
       <c r="A17" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>197</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>192</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40</v>
       </c>
       <c r="E17" s="1">
-        <v>40</v>
-      </c>
-      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17" s="1" t="b">
-        <v>0</v>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>60</v>
       </c>
       <c r="H17" s="1">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="I17" s="1">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="J17" s="1">
-        <v>540</v>
-      </c>
-      <c r="K17" s="1">
         <v>2.2</v>
       </c>
-      <c r="L17" s="1" t="b">
-        <v>0</v>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
         <v>0</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="P17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="S17" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="T17" s="1" t="b">
+      <c r="T17" s="1">
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V17" s="1">
         <v>10</v>
       </c>
       <c r="W17" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="X17" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="Y17" s="1">
         <v>200</v>
       </c>
       <c r="Z17" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1">
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1">
         <v>1</v>
       </c>
       <c r="AD17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF17" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AG17" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AH17" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ17" s="1">
         <v>3</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>50</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>35</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>5</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="AR17" s="1">
         <v>3</v>
       </c>
       <c r="AS17" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>0</v>
       </c>
       <c r="AU17" s="1">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AV17" s="1">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AW17" s="1">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="AX17" s="1">
-        <v>270</v>
-      </c>
-      <c r="AY17" s="1">
         <v>360</v>
       </c>
-      <c r="AZ17" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BC17" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="BD17" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BE17" s="1">
+      <c r="AY17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BH17" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="BI17" s="1">
+      <c r="BG17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BM17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="BN17" s="1">
         <v>0.5</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -78,10 +78,7 @@
     <t>BeLoadedTime</t>
   </si>
   <si>
-    <t>MinContinuousCount</t>
-  </si>
-  <si>
-    <t>MaxContinuousCount</t>
+    <t>ContinuousCountRange</t>
   </si>
   <si>
     <t>TriggerInterval</t>
@@ -99,10 +96,7 @@
     <t>FiringSpeedBackSpeed</t>
   </si>
   <si>
-    <t>MinFireBulletCount</t>
-  </si>
-  <si>
-    <t>MaxFireBulletCount</t>
+    <t>FireBulletCountRange</t>
   </si>
   <si>
     <t>DelayedTime</t>
@@ -123,10 +117,7 @@
     <t>ScatteringRangeBackDelayTime</t>
   </si>
   <si>
-    <t>MinBacklash</t>
-  </si>
-  <si>
-    <t>MaxBacklash</t>
+    <t>BacklashRange</t>
   </si>
   <si>
     <t>BacklashRegressionSpeed</t>
@@ -144,28 +135,16 @@
     <t>BulletId</t>
   </si>
   <si>
-    <t>BulletMaxHarm</t>
-  </si>
-  <si>
-    <t>BulletMinHarm</t>
-  </si>
-  <si>
-    <t>BulletMinDeviationAngle</t>
-  </si>
-  <si>
-    <t>BulletMaxDeviationAngle</t>
-  </si>
-  <si>
-    <t>BulletMaxSpeed</t>
-  </si>
-  <si>
-    <t>BulletMinSpeed</t>
-  </si>
-  <si>
-    <t>BulletMinDistance</t>
-  </si>
-  <si>
-    <t>BulletMaxDistance</t>
+    <t>BulletHarmRange</t>
+  </si>
+  <si>
+    <t>BulletDeviationAngleRange</t>
+  </si>
+  <si>
+    <t>BulletSpeedRange</t>
+  </si>
+  <si>
+    <t>BulletDistanceRange</t>
   </si>
   <si>
     <t>ShellId</t>
@@ -175,6 +154,12 @@
   </si>
   <si>
     <t>ThrowCollisionSize</t>
+  </si>
+  <si>
+    <t>CanMeleeAttack</t>
+  </si>
+  <si>
+    <t>MeleeAttackHarmRange</t>
   </si>
   <si>
     <t>ShootSound</t>
@@ -282,10 +267,8 @@
     <t>上膛时间, 如果时间为0, 则不会播放上膛动画和音效, 可以视为没有上膛动作, 必须将 'ManualBeLoaded' 设置为 true</t>
   </si>
   <si>
-    <t>连续发射最小次数, 仅当 'ContinuousShoot' 为 false 时生效</t>
-  </si>
-  <si>
-    <t>连续发射最大次数, 仅当 'ContinuousShoot' 为 false 时生效</t>
+    <t>连续发射次数范围, 仅当 'ContinuousShoot' 为 false 时生效
+格式为[value]或者[min,max]</t>
   </si>
   <si>
     <t>按下一次扳机后需要多长时间才能再次感应按下</t>
@@ -303,10 +286,8 @@
     <t>松开扳机后射速消散速率</t>
   </si>
   <si>
-    <t>单次开火发射子弹最小数量</t>
-  </si>
-  <si>
-    <t>单次开火发射子弹最大数量</t>
+    <t>单次开火发射子弹数量范围
+格式为[value]或者[min,max]</t>
   </si>
   <si>
     <t>从按下扳机到发射第一发子弹的延时时, 如果中途松开扳机, 那么延时时间会重新计算, 必须将 'LooseShoot' 设置为 false</t>
@@ -327,10 +308,8 @@
     <t>开始销退散射值的延时时间</t>
   </si>
   <si>
-    <t>最小后坐力 (仅用于开火后武器身抖动)</t>
-  </si>
-  <si>
-    <t>最大后坐力 (仅用于开火后武器身抖动)</t>
+    <t>后坐力范围 (仅用于开火后武器身抖动)
+格式为[value]或者[min,max]</t>
   </si>
   <si>
     <t>后坐力偏移回归回归速度</t>
@@ -348,29 +327,21 @@
     <t>默认射出的子弹id</t>
   </si>
   <si>
-    <t>子弹造成的最大伤害</t>
-  </si>
-  <si>
-    <t>子弹造成的最小伤害</t>
-  </si>
-  <si>
-    <t>子弹最小偏移角度
-用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果</t>
-  </si>
-  <si>
-    <t>子弹最大偏移角度</t>
-  </si>
-  <si>
-    <t>子弹最大初速度</t>
-  </si>
-  <si>
-    <t>子弹最小初速度</t>
-  </si>
-  <si>
-    <t>子弹飞行最小距离</t>
-  </si>
-  <si>
-    <t>子弹飞行最大距离</t>
+    <t>子弹造成的伤害范围
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>子弹偏移角度范围
+用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>子弹初速度范围
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>子弹飞行距离范围
+格式为[value]或者[min,max]</t>
   </si>
   <si>
     <t>默认抛出的弹壳</t>
@@ -381,6 +352,13 @@
   </si>
   <si>
     <t>投抛状态下物体碰撞器大小</t>
+  </si>
+  <si>
+    <t>是否可以触发近战攻击</t>
+  </si>
+  <si>
+    <t>近战攻击伤害范围
+格式为格式为[value]或者[min,max]</t>
   </si>
   <si>
     <t>射击音效</t>
@@ -446,6 +424,12 @@
     <t>int</t>
   </si>
   <si>
+    <t>[int]</t>
+  </si>
+  <si>
+    <t>[float]</t>
+  </si>
+  <si>
     <t>vector2</t>
   </si>
   <si>
@@ -467,15 +451,36 @@
     <t>步枪</t>
   </si>
   <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
     <t>bullet0001</t>
   </si>
   <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[320,350]</t>
+  </si>
+  <si>
+    <t>[300,400]</t>
+  </si>
+  <si>
     <t>shell0001</t>
   </si>
   <si>
     <t>{"X":20,"Y":15}</t>
   </si>
   <si>
+    <t>[5,8]</t>
+  </si>
+  <si>
     <t>shooting0005</t>
   </si>
   <si>
@@ -488,6 +493,9 @@
     <t>0002</t>
   </si>
   <si>
+    <t>[3]</t>
+  </si>
+  <si>
     <t>0003</t>
   </si>
   <si>
@@ -497,9 +505,24 @@
     <t>霰弹枪</t>
   </si>
   <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[5,6]</t>
+  </si>
+  <si>
     <t>bullet0002</t>
   </si>
   <si>
+    <t>[-10,10]</t>
+  </si>
+  <si>
+    <t>[280,380]</t>
+  </si>
+  <si>
+    <t>[200,250]</t>
+  </si>
+  <si>
     <t>shell0002</t>
   </si>
   <si>
@@ -530,6 +553,12 @@
     <t>手枪</t>
   </si>
   <si>
+    <t>[3,5]</t>
+  </si>
+  <si>
+    <t>[250,300]</t>
+  </si>
+  <si>
     <t>shooting0004</t>
   </si>
   <si>
@@ -551,6 +580,18 @@
     <t>刀</t>
   </si>
   <si>
+    <t>[-8]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[350]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
     <t>0008</t>
   </si>
   <si>
@@ -563,6 +604,18 @@
     <t>狙击枪</t>
   </si>
   <si>
+    <t>[5,7]</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[600,620]</t>
+  </si>
+  <si>
+    <t>[700,900]</t>
+  </si>
+  <si>
     <t>shell0003</t>
   </si>
   <si>
@@ -587,6 +640,12 @@
     <t>冲锋枪</t>
   </si>
   <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[320,340]</t>
+  </si>
+  <si>
     <t>shooting0002</t>
   </si>
   <si>
@@ -611,6 +670,12 @@
     <t>bullet0003</t>
   </si>
   <si>
+    <t>[300,330]</t>
+  </si>
+  <si>
+    <t>[270,360]</t>
+  </si>
+  <si>
     <t>shooting0007</t>
   </si>
   <si>
@@ -621,6 +686,9 @@
   </si>
   <si>
     <t>0014</t>
+  </si>
+  <si>
+    <t>[10]</t>
   </si>
 </sst>
 </file>
@@ -1258,11 +1326,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1612,14 +1680,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BR17"/>
+  <dimension ref="A1:BM17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="AQ5" sqref="AQ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1644,52 +1712,46 @@
     <col min="19" max="19" width="25.2272727272727" style="1" customWidth="1"/>
     <col min="20" max="20" width="23.6363636363636" style="1" customWidth="1"/>
     <col min="21" max="21" width="24.8909090909091" style="1" customWidth="1"/>
-    <col min="22" max="22" width="23.8090909090909" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.3363636363636" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="25" max="25" width="20.9545454545455" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.1090909090909" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.7818181818182" style="1" customWidth="1"/>
-    <col min="28" max="28" width="22.5363636363636" style="1" customWidth="1"/>
-    <col min="29" max="29" width="21" style="1" customWidth="1"/>
-    <col min="30" max="30" width="20.4727272727273" style="1" customWidth="1"/>
-    <col min="31" max="31" width="26.6545454545455" style="1" customWidth="1"/>
-    <col min="32" max="32" width="26.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="29.2" style="1" customWidth="1"/>
-    <col min="34" max="34" width="30" style="1" customWidth="1"/>
-    <col min="35" max="35" width="34.4090909090909" style="1" customWidth="1"/>
-    <col min="36" max="36" width="20" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19.0090909090909" style="1" customWidth="1"/>
-    <col min="38" max="38" width="30.9818181818182" style="1" customWidth="1"/>
-    <col min="39" max="39" width="22.9636363636364" style="1" customWidth="1"/>
-    <col min="40" max="40" width="23.7" style="1" customWidth="1"/>
-    <col min="41" max="41" width="27.6454545454545" style="1" customWidth="1"/>
-    <col min="42" max="44" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="45" max="45" width="29.8454545454545" style="1" customWidth="1"/>
-    <col min="46" max="46" width="29.8363636363636" style="1" customWidth="1"/>
-    <col min="47" max="47" width="21.4272727272727" style="1" customWidth="1"/>
-    <col min="48" max="48" width="20.6363636363636" style="1" customWidth="1"/>
-    <col min="49" max="49" width="27.3090909090909" style="1" customWidth="1"/>
-    <col min="50" max="50" width="24.1181818181818" style="1" customWidth="1"/>
-    <col min="51" max="52" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="53" max="53" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="54" max="54" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="55" max="55" width="22.1" style="1" customWidth="1"/>
-    <col min="56" max="56" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="57" max="57" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="58" max="58" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="59" max="59" width="23.7" style="1" customWidth="1"/>
-    <col min="60" max="60" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="61" max="61" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="62" max="62" width="30.4727272727273" style="1" customWidth="1"/>
-    <col min="63" max="63" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="64" max="64" width="32.4727272727273" style="2" customWidth="1"/>
-    <col min="65" max="65" width="30.3727272727273" style="1" customWidth="1"/>
-    <col min="66" max="66" width="38.5181818181818" style="1" customWidth="1"/>
-    <col min="67" max="67" width="38.7727272727273" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.3363636363636" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.3363636363636" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.9545454545455" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.1090909090909" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7818181818182" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5363636363636" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.4727272727273" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26.6545454545455" style="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="29.2" style="1" customWidth="1"/>
+    <col min="32" max="32" width="30" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.4090909090909" style="1" customWidth="1"/>
+    <col min="34" max="34" width="20" style="1" customWidth="1"/>
+    <col min="35" max="35" width="30.9818181818182" style="1" customWidth="1"/>
+    <col min="36" max="36" width="22.9636363636364" style="1" customWidth="1"/>
+    <col min="37" max="37" width="23.7" style="1" customWidth="1"/>
+    <col min="38" max="38" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="39" max="40" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="41" max="41" width="29.8454545454545" style="1" customWidth="1"/>
+    <col min="42" max="42" width="21.4272727272727" style="1" customWidth="1"/>
+    <col min="43" max="43" width="27.3090909090909" style="1" customWidth="1"/>
+    <col min="44" max="45" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="46" max="48" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="49" max="49" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="50" max="50" width="22.1" style="1" customWidth="1"/>
+    <col min="51" max="51" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="52" max="52" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="53" max="53" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="54" max="54" width="23.7" style="1" customWidth="1"/>
+    <col min="55" max="55" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="56" max="56" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="57" max="57" width="30.4727272727273" style="1" customWidth="1"/>
+    <col min="58" max="58" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="59" max="59" width="32.4727272727273" style="2" customWidth="1"/>
+    <col min="60" max="60" width="30.3727272727273" style="1" customWidth="1"/>
+    <col min="61" max="61" width="38.5181818181818" style="1" customWidth="1"/>
+    <col min="62" max="62" width="38.7727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:67">
+    <row r="1" ht="31" customHeight="1" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,7 +1926,7 @@
       <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
@@ -1876,440 +1938,395 @@
       <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:65">
+      <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK2" s="5"/>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:70">
-      <c r="A2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF2" s="1" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:62">
+      <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="V3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="AI3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="AU3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="AX3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
+      <c r="BG3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:67">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="4" ht="57" customHeight="1" spans="1:59">
+      <c r="A4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BL3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:64">
-      <c r="A4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2362,130 +2379,115 @@
       <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="U4" s="1">
-        <v>1</v>
+      <c r="U4" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="X4" s="1">
         <v>480</v>
       </c>
       <c r="Y4" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>0</v>
       </c>
-      <c r="AA4" s="1">
-        <v>0</v>
+      <c r="AA4" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD4" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AE4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG4" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>40</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.5</v>
+        <v>35</v>
       </c>
       <c r="AJ4" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AK4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AQ4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>350</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>300</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>400</v>
-      </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AU4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="1" t="s">
+      <c r="AW4" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="BB4" s="3" t="s">
+      <c r="AX4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="AY4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BB4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BD4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BG4" s="1" t="s">
+      <c r="BC4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BG4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="BH4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BL4" s="5" t="s">
-        <v>152</v>
-      </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:67">
+    <row r="5" ht="57" customHeight="1" spans="1:62">
       <c r="A5" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2538,132 +2540,117 @@
       <c r="T5" s="1">
         <v>0</v>
       </c>
-      <c r="U5" s="1">
-        <v>3</v>
+      <c r="U5" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
       </c>
       <c r="W5" s="1">
-        <v>3</v>
+        <v>480</v>
       </c>
       <c r="X5" s="1">
         <v>480</v>
       </c>
       <c r="Y5" s="1">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
       </c>
-      <c r="AA5" s="1">
-        <v>0</v>
+      <c r="AA5" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AE5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG5" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>40</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="AI5" s="1">
+        <v>35</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BG5" s="6"/>
+      <c r="BH5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>350</v>
-      </c>
-      <c r="AW5" s="1">
-        <v>300</v>
-      </c>
-      <c r="AX5" s="1">
-        <v>400</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="1">
+      <c r="BI5" s="1">
         <v>0.5</v>
       </c>
-      <c r="BN5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BO5" s="1">
+      <c r="BJ5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:64">
+    <row r="6" ht="57" customHeight="1" spans="1:59">
       <c r="A6" s="3" t="s">
         <v>153</v>
       </c>
@@ -2724,139 +2711,124 @@
       <c r="T6" s="1">
         <v>0.6</v>
       </c>
-      <c r="U6" s="1">
-        <v>1</v>
+      <c r="U6" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="X6" s="1">
         <v>120</v>
       </c>
       <c r="Y6" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
       </c>
-      <c r="AA6" s="1">
-        <v>0</v>
+      <c r="AA6" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="AB6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AD6" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE6" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AF6" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>40</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.5</v>
+        <v>35</v>
       </c>
       <c r="AJ6" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>4</v>
+        <v>160</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="AS6" s="1">
-        <v>-10</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>280</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>380</v>
-      </c>
-      <c r="AW6" s="1">
-        <v>200</v>
-      </c>
-      <c r="AX6" s="1">
-        <v>250</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ6" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH6" s="1">
+      <c r="AT6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC6" s="1">
         <v>0.3</v>
       </c>
-      <c r="BI6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="5" t="s">
-        <v>163</v>
+      <c r="BD6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:67">
+    <row r="7" ht="57" customHeight="1" spans="1:62">
       <c r="A7" s="3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>155</v>
@@ -2912,152 +2884,137 @@
       <c r="T7" s="1">
         <v>0.6</v>
       </c>
-      <c r="U7" s="1">
-        <v>1</v>
+      <c r="U7" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="W7" s="1">
-        <v>3.5</v>
+        <v>120</v>
       </c>
       <c r="X7" s="1">
         <v>120</v>
       </c>
       <c r="Y7" s="1">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>0</v>
       </c>
-      <c r="AA7" s="1">
-        <v>0</v>
+      <c r="AA7" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="AB7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AD7" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE7" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AF7" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG7" s="1">
-        <v>20</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>40</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="AI7" s="1">
+        <v>35</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>15</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="6"/>
+      <c r="BH7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BI7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>-10</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>280</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>380</v>
-      </c>
-      <c r="AW7" s="1">
-        <v>200</v>
-      </c>
-      <c r="AX7" s="1">
-        <v>250</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ7" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="BJ7" s="1">
         <v>0</v>
       </c>
-      <c r="BL7" s="5"/>
-      <c r="BM7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BN7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BO7" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:64">
+    <row r="8" ht="57" customHeight="1" spans="1:59">
       <c r="A8" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3110,130 +3067,115 @@
       <c r="T8" s="1">
         <v>0.05</v>
       </c>
-      <c r="U8" s="1">
-        <v>1</v>
+      <c r="U8" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="X8" s="1">
         <v>460</v>
       </c>
       <c r="Y8" s="1">
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>0</v>
       </c>
-      <c r="AA8" s="1">
-        <v>0</v>
+      <c r="AA8" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD8" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>40</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.5</v>
+        <v>35</v>
       </c>
       <c r="AJ8" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AK8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AQ8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>350</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>250</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>300</v>
-      </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AU8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB8" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BH8" s="1">
+      <c r="AW8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BL8" s="5" t="s">
-        <v>170</v>
+      <c r="BG8" s="6" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:67">
+    <row r="9" ht="57" customHeight="1" spans="1:62">
       <c r="A9" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3286,140 +3228,125 @@
       <c r="T9" s="1">
         <v>0.05</v>
       </c>
-      <c r="U9" s="1">
-        <v>1</v>
+      <c r="U9" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" s="1">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="X9" s="1">
         <v>300</v>
       </c>
       <c r="Y9" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>0</v>
       </c>
-      <c r="AA9" s="1">
-        <v>0</v>
+      <c r="AA9" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD9" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF9" s="1">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AG9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>40</v>
+        <v>0.5</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="AI9" s="1">
+        <v>35</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BG9" s="6"/>
+      <c r="BH9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ9" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>350</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>250</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>300</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BL9" s="5"/>
-      <c r="BM9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BO9" s="1">
+      <c r="BJ9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:64">
+    <row r="10" ht="57" customHeight="1" spans="1:59">
       <c r="A10" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3472,112 +3399,97 @@
       <c r="T10" s="1">
         <v>0</v>
       </c>
-      <c r="U10" s="1">
-        <v>1</v>
+      <c r="U10" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="X10" s="1">
         <v>180</v>
       </c>
       <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>24</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>-95</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:62">
+      <c r="A11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>-8</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>-8</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>24</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>-95</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>25</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>25</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>350</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>350</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>35</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL10" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" ht="57" customHeight="1" spans="1:67">
-      <c r="A11" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3630,32 +3542,32 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="1">
-        <v>1</v>
+      <c r="U11" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W11" s="1">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="X11" s="1">
         <v>180</v>
       </c>
       <c r="Y11" s="1">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
       </c>
-      <c r="AA11" s="1">
-        <v>0</v>
+      <c r="AA11" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="1">
         <v>0</v>
@@ -3669,83 +3581,68 @@
       <c r="AG11" s="1">
         <v>0</v>
       </c>
-      <c r="AH11" s="1">
-        <v>0</v>
+      <c r="AH11" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="AI11" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AJ11" s="1">
-        <v>-8</v>
+        <v>-95</v>
       </c>
       <c r="AK11" s="1">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="1">
-        <v>24</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>-95</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AQ11" s="1">
-        <v>25</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>25</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>350</v>
-      </c>
-      <c r="AV11" s="1">
-        <v>350</v>
-      </c>
-      <c r="AW11" s="1">
-        <v>35</v>
-      </c>
-      <c r="AX11" s="1">
-        <v>35</v>
-      </c>
-      <c r="AZ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL11" s="5"/>
-      <c r="BM11" s="1">
+      <c r="AU11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BG11" s="6"/>
+      <c r="BH11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BN11" s="1">
+      <c r="BI11" s="1">
         <v>0.5</v>
       </c>
-      <c r="BO11" s="1">
+      <c r="BJ11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:64">
+    <row r="12" ht="57" customHeight="1" spans="1:59">
       <c r="A12" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3798,136 +3695,121 @@
       <c r="T12" s="1">
         <v>0.9</v>
       </c>
-      <c r="U12" s="1">
-        <v>1</v>
+      <c r="U12" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="X12" s="1">
         <v>150</v>
       </c>
       <c r="Y12" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
       </c>
-      <c r="AA12" s="1">
-        <v>0</v>
+      <c r="AA12" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE12" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AF12" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AG12" s="1">
-        <v>40</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>40</v>
+        <v>0.8</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.8</v>
+        <v>20</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK12" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="1">
-        <v>20</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AQ12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>30</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>600</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>620</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>700</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>900</v>
-      </c>
-      <c r="AY12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BA12" s="1" t="s">
-        <v>148</v>
+      <c r="AU12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
       </c>
       <c r="BB12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC12" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:67">
+    <row r="13" ht="57" customHeight="1" spans="1:62">
       <c r="A13" s="3" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3980,145 +3862,130 @@
       <c r="T13" s="1">
         <v>0.9</v>
       </c>
-      <c r="U13" s="1">
-        <v>1</v>
+      <c r="U13" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W13" s="1">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="X13" s="1">
         <v>150</v>
       </c>
       <c r="Y13" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>0</v>
       </c>
-      <c r="AA13" s="1">
-        <v>0</v>
+      <c r="AA13" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD13" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AF13" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AG13" s="1">
-        <v>40</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>40</v>
+        <v>0.8</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.8</v>
+        <v>20</v>
       </c>
       <c r="AJ13" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AK13" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="1">
-        <v>20</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>15</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AT13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AQ13" s="1">
-        <v>30</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>30</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>600</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>620</v>
-      </c>
-      <c r="AW13" s="1">
-        <v>700</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>900</v>
-      </c>
-      <c r="AY13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BA13" s="1" t="s">
-        <v>148</v>
+      <c r="AU13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>0</v>
       </c>
       <c r="BB13" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC13" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="1" t="s">
-        <v>181</v>
+        <v>196</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>0</v>
       </c>
       <c r="BH13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI13" s="1" t="s">
-        <v>181</v>
+        <v>1.5</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>0.5</v>
       </c>
       <c r="BJ13" s="1">
         <v>0</v>
       </c>
-      <c r="BM13" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="BN13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BO13" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:64">
+    <row r="14" ht="57" customHeight="1" spans="1:59">
       <c r="A14" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4171,130 +4038,115 @@
       <c r="T14" s="1">
         <v>0</v>
       </c>
-      <c r="U14" s="1">
-        <v>1</v>
+      <c r="U14" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="X14" s="1">
         <v>700</v>
       </c>
       <c r="Y14" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>0</v>
       </c>
-      <c r="AA14" s="1">
-        <v>0</v>
+      <c r="AA14" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD14" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AG14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>40</v>
+        <v>0.3</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.3</v>
+        <v>35</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK14" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AS14" s="1">
         <v>0</v>
       </c>
-      <c r="AT14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>340</v>
-      </c>
-      <c r="AW14" s="1">
-        <v>300</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>400</v>
-      </c>
-      <c r="AY14" s="1" t="s">
+      <c r="AT14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ14" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB14" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD14" s="1">
+      <c r="AW14" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY14" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="BH14" s="1">
+      <c r="BB14" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL14" s="3" t="s">
-        <v>189</v>
+      <c r="BG14" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:67">
+    <row r="15" ht="57" customHeight="1" spans="1:62">
       <c r="A15" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4347,140 +4199,125 @@
       <c r="T15" s="1">
         <v>0</v>
       </c>
-      <c r="U15" s="1">
-        <v>5</v>
+      <c r="U15" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="V15" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="W15" s="1">
-        <v>3.5</v>
+        <v>700</v>
       </c>
       <c r="X15" s="1">
         <v>700</v>
       </c>
       <c r="Y15" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>0</v>
       </c>
-      <c r="AA15" s="1">
-        <v>0</v>
+      <c r="AA15" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD15" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE15" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="1">
         <v>30</v>
       </c>
       <c r="AG15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>30</v>
+        <v>0.3</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.3</v>
+        <v>35</v>
       </c>
       <c r="AJ15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK15" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>3</v>
+        <v>202</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AS15" s="1">
         <v>0</v>
       </c>
-      <c r="AT15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>320</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>340</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>300</v>
-      </c>
-      <c r="AX15" s="1">
-        <v>400</v>
-      </c>
-      <c r="AY15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV15" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ15" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB15" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BC15" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="BD15" s="1">
+      <c r="AW15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG15" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="BB15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BG15" s="6"/>
       <c r="BH15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL15" s="5"/>
-      <c r="BM15" s="1">
+      <c r="BI15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BN15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BO15" s="1">
+      <c r="BJ15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:64">
+    <row r="16" ht="57" customHeight="1" spans="1:59">
       <c r="A16" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4533,130 +4370,115 @@
       <c r="T16" s="1">
         <v>0</v>
       </c>
-      <c r="U16" s="1">
-        <v>1</v>
+      <c r="U16" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="X16" s="1">
         <v>700</v>
       </c>
       <c r="Y16" s="1">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>0</v>
       </c>
-      <c r="AA16" s="1">
-        <v>0</v>
+      <c r="AA16" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AD16" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AE16" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF16" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>50</v>
+        <v>0.3</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.3</v>
+        <v>35</v>
       </c>
       <c r="AJ16" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK16" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR16" s="1">
-        <v>3</v>
+        <v>211</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AS16" s="1">
         <v>0</v>
       </c>
-      <c r="AT16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>300</v>
-      </c>
-      <c r="AV16" s="1">
-        <v>330</v>
-      </c>
-      <c r="AW16" s="1">
-        <v>270</v>
-      </c>
-      <c r="AX16" s="1">
-        <v>360</v>
-      </c>
-      <c r="AY16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ16" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB16" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BC16" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BD16" s="1">
+      <c r="AW16" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX16" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY16" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG16" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH16" s="1">
+      <c r="BB16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BL16" s="3" t="s">
-        <v>197</v>
+      <c r="BG16" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:67">
+    <row r="17" ht="57" customHeight="1" spans="1:62">
       <c r="A17" s="3" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4709,128 +4531,113 @@
       <c r="T17" s="1">
         <v>0</v>
       </c>
-      <c r="U17" s="1">
-        <v>10</v>
+      <c r="U17" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="V17" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W17" s="1">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="X17" s="1">
         <v>200</v>
       </c>
       <c r="Y17" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>0</v>
       </c>
-      <c r="AA17" s="1">
-        <v>0</v>
+      <c r="AA17" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="AB17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AD17" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AE17" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AG17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>50</v>
+        <v>0.3</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.3</v>
+        <v>35</v>
       </c>
       <c r="AJ17" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK17" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>35</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>5</v>
-      </c>
-      <c r="AN17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR17" s="1">
-        <v>3</v>
+        <v>211</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="AS17" s="1">
         <v>0</v>
       </c>
-      <c r="AT17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>300</v>
-      </c>
-      <c r="AV17" s="1">
-        <v>330</v>
-      </c>
-      <c r="AW17" s="1">
-        <v>270</v>
-      </c>
-      <c r="AX17" s="1">
-        <v>360</v>
-      </c>
-      <c r="AY17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AZ17" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB17" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BC17" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BD17" s="1">
+      <c r="AW17" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX17" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AY17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BG17" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="BB17" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BG17" s="3"/>
       <c r="BH17" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="1">
         <v>0.5</v>
       </c>
-      <c r="BN17" s="1">
+      <c r="BI17" s="1">
         <v>0.5</v>
       </c>
-      <c r="BO17" s="1">
+      <c r="BJ17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="217">
   <si>
     <t>Id</t>
   </si>
@@ -135,7 +135,7 @@
     <t>BulletId</t>
   </si>
   <si>
-    <t>BulletHarmRange</t>
+    <t>HarmRange</t>
   </si>
   <si>
     <t>BulletDeviationAngleRange</t>
@@ -267,7 +267,7 @@
     <t>上膛时间, 如果时间为0, 则不会播放上膛动画和音效, 可以视为没有上膛动作, 必须将 'ManualBeLoaded' 设置为 true</t>
   </si>
   <si>
-    <t>连续发射次数范围, 仅当 'ContinuousShoot' 为 false 时生效
+    <t>连续发射次数区间, 仅当 'ContinuousShoot' 为 false 时生效
 格式为[value]或者[min,max]</t>
   </si>
   <si>
@@ -286,7 +286,7 @@
     <t>松开扳机后射速消散速率</t>
   </si>
   <si>
-    <t>单次开火发射子弹数量范围
+    <t>单次开火发射子弹数量区间
 格式为[value]或者[min,max]</t>
   </si>
   <si>
@@ -308,7 +308,7 @@
     <t>开始销退散射值的延时时间</t>
   </si>
   <si>
-    <t>后坐力范围 (仅用于开火后武器身抖动)
+    <t>后坐力区间 (仅用于开火后武器身抖动)
 格式为[value]或者[min,max]</t>
   </si>
   <si>
@@ -327,20 +327,20 @@
     <t>默认射出的子弹id</t>
   </si>
   <si>
-    <t>子弹造成的伤害范围
+    <t>造成的伤害区间
 格式为[value]或者[min,max]</t>
   </si>
   <si>
-    <t>子弹偏移角度范围
+    <t>子弹偏移角度区间
 用于设置子弹偏移朝向, 该属性和射半径效果类似, 但与其不同的是, 散射半径是用来控制枪口朝向的, 而该属性是控制子弹朝向的, 可用于制作霰弹枪子弹效果
 格式为[value]或者[min,max]</t>
   </si>
   <si>
-    <t>子弹初速度范围
+    <t>子弹初速度区间
 格式为[value]或者[min,max]</t>
   </si>
   <si>
-    <t>子弹飞行距离范围
+    <t>子弹飞行距离区间
 格式为[value]或者[min,max]</t>
   </si>
   <si>
@@ -357,7 +357,7 @@
     <t>是否可以触发近战攻击</t>
   </si>
   <si>
-    <t>近战攻击伤害范围
+    <t>近战攻击伤害区间
 格式为格式为[value]或者[min,max]</t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>{"X":20,"Y":15}</t>
   </si>
   <si>
-    <t>[5,8]</t>
+    <t>[10]</t>
   </si>
   <si>
     <t>shooting0005</t>
@@ -686,9 +686,6 @@
   </si>
   <si>
     <t>0014</t>
-  </si>
-  <si>
-    <t>[10]</t>
   </si>
 </sst>
 </file>
@@ -1683,11 +1680,11 @@
   <dimension ref="A1:BM17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AL4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ5" sqref="AQ5"/>
+      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4532,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
       <c r="V17" s="1">
         <v>5</v>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -117,6 +117,9 @@
     <t>ScatteringRangeBackDelayTime</t>
   </si>
   <si>
+    <t>CameraShake</t>
+  </si>
+  <si>
     <t>BacklashRange</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>HarmRange</t>
+  </si>
+  <si>
+    <t>RepelRnage</t>
   </si>
   <si>
     <t>BulletDeviationAngleRange</t>
@@ -308,6 +314,9 @@
     <t>开始销退散射值的延时时间</t>
   </si>
   <si>
+    <t>开火后相机抖动强度,只有玩家拾起武器开火才会抖动相机</t>
+  </si>
+  <si>
     <t>后坐力区间 (仅用于开火后武器身抖动)
 格式为[value]或者[min,max]</t>
   </si>
@@ -328,6 +337,10 @@
   </si>
   <si>
     <t>造成的伤害区间
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
+    <t>造成伤害后击退值区间,按每发子弹算击退
 格式为[value]或者[min,max]</t>
   </si>
   <si>
@@ -463,6 +476,9 @@
     <t>[4]</t>
   </si>
   <si>
+    <t>[20]</t>
+  </si>
+  <si>
     <t>[0]</t>
   </si>
   <si>
@@ -514,6 +530,9 @@
     <t>bullet0002</t>
   </si>
   <si>
+    <t>[30]</t>
+  </si>
+  <si>
     <t>[-10,10]</t>
   </si>
   <si>
@@ -586,6 +605,9 @@
     <t>[25]</t>
   </si>
   <si>
+    <t>[150]</t>
+  </si>
+  <si>
     <t>[350]</t>
   </si>
   <si>
@@ -607,7 +629,7 @@
     <t>[5,7]</t>
   </si>
   <si>
-    <t>[30]</t>
+    <t>[250]</t>
   </si>
   <si>
     <t>[600,620]</t>
@@ -668,6 +690,9 @@
   </si>
   <si>
     <t>bullet0003</t>
+  </si>
+  <si>
+    <t>[15]</t>
   </si>
   <si>
     <t>[300,330]</t>
@@ -1323,11 +1348,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1677,14 +1702,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM17"/>
+  <dimension ref="A1:BO17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AM10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
+      <selection pane="bottomRight" activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1721,34 +1746,35 @@
     <col min="31" max="31" width="29.2" style="1" customWidth="1"/>
     <col min="32" max="32" width="30" style="1" customWidth="1"/>
     <col min="33" max="33" width="34.4090909090909" style="1" customWidth="1"/>
-    <col min="34" max="34" width="20" style="1" customWidth="1"/>
-    <col min="35" max="35" width="30.9818181818182" style="1" customWidth="1"/>
-    <col min="36" max="36" width="22.9636363636364" style="1" customWidth="1"/>
-    <col min="37" max="37" width="23.7" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27.6454545454545" style="1" customWidth="1"/>
-    <col min="39" max="40" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="41" max="41" width="29.8454545454545" style="1" customWidth="1"/>
-    <col min="42" max="42" width="21.4272727272727" style="1" customWidth="1"/>
-    <col min="43" max="43" width="27.3090909090909" style="1" customWidth="1"/>
-    <col min="44" max="45" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="46" max="48" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="49" max="49" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="50" max="50" width="22.1" style="1" customWidth="1"/>
-    <col min="51" max="51" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="52" max="52" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="53" max="53" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="54" max="54" width="23.7" style="1" customWidth="1"/>
-    <col min="55" max="55" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="56" max="56" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="57" max="57" width="30.4727272727273" style="1" customWidth="1"/>
-    <col min="58" max="58" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="59" max="59" width="32.4727272727273" style="2" customWidth="1"/>
-    <col min="60" max="60" width="30.3727272727273" style="1" customWidth="1"/>
-    <col min="61" max="61" width="38.5181818181818" style="1" customWidth="1"/>
-    <col min="62" max="62" width="38.7727272727273" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.7818181818182" style="1" customWidth="1"/>
+    <col min="35" max="35" width="20" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.9818181818182" style="1" customWidth="1"/>
+    <col min="37" max="37" width="22.9636363636364" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
+    <col min="39" max="39" width="27.6454545454545" style="1" customWidth="1"/>
+    <col min="40" max="42" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="43" max="43" width="29.8454545454545" style="1" customWidth="1"/>
+    <col min="44" max="44" width="21.4272727272727" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.3090909090909" style="1" customWidth="1"/>
+    <col min="46" max="47" width="27.7818181818182" style="1" customWidth="1"/>
+    <col min="48" max="50" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="51" max="51" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="52" max="52" width="22.1" style="1" customWidth="1"/>
+    <col min="53" max="53" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="54" max="54" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="55" max="55" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="56" max="56" width="23.7" style="1" customWidth="1"/>
+    <col min="57" max="57" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="58" max="58" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="59" max="59" width="30.4727272727273" style="1" customWidth="1"/>
+    <col min="60" max="60" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="61" max="61" width="32.4727272727273" style="2" customWidth="1"/>
+    <col min="62" max="62" width="30.3727272727273" style="1" customWidth="1"/>
+    <col min="63" max="63" width="38.5181818181818" style="1" customWidth="1"/>
+    <col min="64" max="64" width="38.7727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:62">
+    <row r="1" ht="31" customHeight="1" spans="1:64">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1923,407 +1949,425 @@
       <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="2" t="s">
         <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="BK1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:65">
+    <row r="2" ht="114" customHeight="1" spans="1:67">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
+        <v>125</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:62">
+    <row r="3" ht="27" customHeight="1" spans="1:64">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="AU3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AO3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV3" s="1" t="s">
+      <c r="BD3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AW3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="BF3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:59">
+    <row r="4" ht="57" customHeight="1" spans="1:61">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2377,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -2395,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -2415,76 +2459,82 @@
       <c r="AG4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI4" s="1">
+      <c r="AH4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ4" s="1">
         <v>35</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>10</v>
       </c>
-      <c r="AK4" s="1">
-        <v>0</v>
-      </c>
       <c r="AL4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>1</v>
       </c>
       <c r="AN4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="BI4" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:64">
+      <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" ht="57" customHeight="1" spans="1:62">
-      <c r="A5" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2538,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2556,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -2576,86 +2626,92 @@
       <c r="AG5" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI5" s="1">
+      <c r="AH5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>35</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>10</v>
       </c>
-      <c r="AK5" s="1">
-        <v>0</v>
-      </c>
       <c r="AL5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>1</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU5" s="1" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
+      </c>
+      <c r="AW5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY5" s="1">
+        <v>152</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BA5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC5" s="1">
+      <c r="BD5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BG5" s="6"/>
-      <c r="BH5" s="1">
+      <c r="BI5" s="5"/>
+      <c r="BJ5" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI5" s="1">
+      <c r="BK5" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ5" s="1">
+      <c r="BL5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:59">
+    <row r="6" ht="57" customHeight="1" spans="1:61">
       <c r="A6" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2709,7 +2765,7 @@
         <v>0.6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2727,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2747,88 +2803,94 @@
       <c r="AG6" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI6" s="1">
+      <c r="AH6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>35</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>15</v>
       </c>
-      <c r="AK6" s="1">
-        <v>0</v>
-      </c>
       <c r="AL6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AP6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" ht="57" customHeight="1" spans="1:64">
+      <c r="A7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" ht="57" customHeight="1" spans="1:62">
-      <c r="A7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2882,7 +2944,7 @@
         <v>0.6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V7" s="1">
         <v>3.5</v>
@@ -2900,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2920,98 +2982,104 @@
       <c r="AG7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH7" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI7" s="1">
+      <c r="AH7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ7" s="1">
         <v>35</v>
       </c>
-      <c r="AJ7" s="1">
+      <c r="AK7" s="1">
         <v>15</v>
       </c>
-      <c r="AK7" s="1">
-        <v>0</v>
-      </c>
       <c r="AL7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>1</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS7" s="1">
+        <v>166</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU7" s="1">
         <v>0.2</v>
       </c>
-      <c r="AT7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU7" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AV7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>163</v>
+        <v>151</v>
+      </c>
+      <c r="AW7" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY7" s="1">
-        <v>0</v>
+        <v>152</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="BA7" s="1">
         <v>0</v>
       </c>
       <c r="BB7" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BD7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="6"/>
-      <c r="BH7" s="1">
+      <c r="BF7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="5"/>
+      <c r="BJ7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BK7" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ7" s="1">
+      <c r="BL7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:59">
+    <row r="8" ht="57" customHeight="1" spans="1:61">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3065,7 +3133,7 @@
         <v>0.05</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -3083,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -3103,76 +3171,82 @@
       <c r="AG8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI8" s="1">
+      <c r="AH8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ8" s="1">
         <v>35</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>20</v>
       </c>
-      <c r="AK8" s="1">
-        <v>0</v>
-      </c>
       <c r="AL8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>1</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU8" s="1" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW8" s="3" t="s">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="AW8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC8" s="1">
+        <v>152</v>
+      </c>
+      <c r="AY8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BG8" s="6" t="s">
+      <c r="BI8" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:64">
+      <c r="A9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:62">
-      <c r="A9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3226,7 +3300,7 @@
         <v>0.05</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V9" s="1">
         <v>2</v>
@@ -3244,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3264,86 +3338,92 @@
       <c r="AG9" s="1">
         <v>0.5</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AI9" s="1">
+      <c r="AH9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ9" s="1">
         <v>35</v>
       </c>
-      <c r="AJ9" s="1">
+      <c r="AK9" s="1">
         <v>20</v>
       </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
       <c r="AL9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>1</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
+        <v>148</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU9" s="1" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW9" s="3" t="s">
-        <v>174</v>
+        <v>151</v>
+      </c>
+      <c r="AW9" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC9" s="1">
+        <v>152</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BG9" s="6"/>
-      <c r="BH9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI9" s="1">
+      <c r="BI9" s="5"/>
+      <c r="BJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ9" s="1">
+      <c r="BL9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:59">
+    <row r="10" ht="57" customHeight="1" spans="1:61">
       <c r="A10" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3397,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -3415,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -3435,58 +3515,64 @@
       <c r="AG10" s="1">
         <v>0</v>
       </c>
-      <c r="AH10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI10" s="1">
+      <c r="AH10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ10" s="1">
         <v>24</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="AK10" s="1">
         <v>-95</v>
       </c>
-      <c r="AK10" s="1">
-        <v>0</v>
-      </c>
       <c r="AL10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>1</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="AP10" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ10" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU10" s="1" t="b">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG10" s="6" t="s">
-        <v>185</v>
+        <v>151</v>
+      </c>
+      <c r="AW10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI10" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:62">
+    <row r="11" ht="57" customHeight="1" spans="1:64">
       <c r="A11" s="3" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3540,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
@@ -3558,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -3578,68 +3664,74 @@
       <c r="AG11" s="1">
         <v>0</v>
       </c>
-      <c r="AH11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI11" s="1">
+      <c r="AH11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>24</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <v>-95</v>
       </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
       <c r="AL11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU11" s="1" t="b">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>0</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG11" s="6"/>
-      <c r="BH11" s="1">
+        <v>151</v>
+      </c>
+      <c r="AW11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BI11" s="1">
+      <c r="BK11" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ11" s="1">
+      <c r="BL11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:59">
+    <row r="12" ht="57" customHeight="1" spans="1:61">
       <c r="A12" s="3" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3693,7 +3785,7 @@
         <v>0.9</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -3711,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -3731,82 +3823,88 @@
       <c r="AG12" s="1">
         <v>0.8</v>
       </c>
-      <c r="AH12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI12" s="1">
+      <c r="AH12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>20</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AK12" s="1">
         <v>15</v>
       </c>
-      <c r="AK12" s="1">
-        <v>0</v>
-      </c>
       <c r="AL12" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>1</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS12" s="1">
+        <v>198</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU12" s="1">
         <v>0.2</v>
       </c>
-      <c r="AT12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU12" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AV12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" ht="57" customHeight="1" spans="1:64">
+      <c r="A13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" ht="57" customHeight="1" spans="1:62">
-      <c r="A13" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3860,7 +3958,7 @@
         <v>0.9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V13" s="1">
         <v>5</v>
@@ -3878,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -3898,91 +3996,97 @@
       <c r="AG13" s="1">
         <v>0.8</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI13" s="1">
+      <c r="AH13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ13" s="1">
         <v>20</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="AK13" s="1">
         <v>15</v>
       </c>
-      <c r="AK13" s="1">
-        <v>0</v>
-      </c>
       <c r="AL13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>1</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS13" s="1">
+        <v>198</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU13" s="1">
         <v>0.2</v>
       </c>
-      <c r="AT13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU13" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="AV13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW13" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>1</v>
+        <v>151</v>
+      </c>
+      <c r="AW13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>0</v>
       </c>
       <c r="BD13" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="BE13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="1">
         <v>1.5</v>
       </c>
-      <c r="BI13" s="1">
+      <c r="BK13" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ13" s="1">
+      <c r="BL13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:59">
+    <row r="14" ht="57" customHeight="1" spans="1:61">
       <c r="A14" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4036,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -4054,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -4074,76 +4178,82 @@
       <c r="AG14" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH14" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI14" s="1">
+      <c r="AH14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ14" s="1">
         <v>35</v>
       </c>
-      <c r="AJ14" s="1">
+      <c r="AK14" s="1">
         <v>5</v>
       </c>
-      <c r="AK14" s="1">
-        <v>0</v>
-      </c>
       <c r="AL14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>1</v>
       </c>
       <c r="AN14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AO14" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP14" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="AQ14" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AR14" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU14" s="1" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW14" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX14" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AY14" s="1">
+        <v>151</v>
+      </c>
+      <c r="AW14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY14" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA14" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB14" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC14" s="1">
+      <c r="BD14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE14" s="1">
         <v>0.5</v>
       </c>
-      <c r="BG14" s="3" t="s">
-        <v>206</v>
+      <c r="BI14" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:62">
+    <row r="15" ht="57" customHeight="1" spans="1:64">
       <c r="A15" s="3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4197,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="V15" s="1">
         <v>3.5</v>
@@ -4215,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -4235,86 +4345,92 @@
       <c r="AG15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH15" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI15" s="1">
+      <c r="AH15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ15" s="1">
         <v>35</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="AK15" s="1">
         <v>5</v>
       </c>
-      <c r="AK15" s="1">
-        <v>0</v>
-      </c>
       <c r="AL15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="1" t="s">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>1</v>
       </c>
       <c r="AN15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AO15" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP15" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="AQ15" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AR15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>0</v>
+        <v>209</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU15" s="1" t="b">
-        <v>1</v>
+        <v>150</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW15" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AY15" s="1">
+        <v>151</v>
+      </c>
+      <c r="AW15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY15" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AZ15" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BA15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC15" s="1">
+      <c r="BD15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BG15" s="6"/>
-      <c r="BH15" s="1">
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI15" s="1">
+      <c r="BK15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ15" s="1">
+      <c r="BL15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:59">
+    <row r="16" ht="57" customHeight="1" spans="1:61">
       <c r="A16" s="3" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4368,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4386,7 +4502,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
@@ -4406,76 +4522,82 @@
       <c r="AG16" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH16" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI16" s="1">
+      <c r="AH16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ16" s="1">
         <v>35</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="AK16" s="1">
         <v>5</v>
       </c>
-      <c r="AK16" s="1">
-        <v>0</v>
-      </c>
       <c r="AL16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="1" t="s">
-        <v>210</v>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>1</v>
       </c>
       <c r="AN16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AO16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ16" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX16" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AY16" s="1">
+      <c r="AY16" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA16" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC16" s="1">
+      <c r="BD16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BG16" s="3" t="s">
+      <c r="BI16" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:64">
+      <c r="A17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:62">
-      <c r="A17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4529,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="V17" s="1">
         <v>5</v>
@@ -4547,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -4567,74 +4689,80 @@
       <c r="AG17" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH17" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI17" s="1">
+      <c r="AH17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AJ17" s="1">
         <v>35</v>
       </c>
-      <c r="AJ17" s="1">
+      <c r="AK17" s="1">
         <v>5</v>
       </c>
-      <c r="AK17" s="1">
-        <v>0</v>
-      </c>
       <c r="AL17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="1" t="s">
-        <v>210</v>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>1</v>
       </c>
       <c r="AN17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AO17" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AQ17" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AR17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AS17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW17" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AX17" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AY17" s="1">
+      <c r="AY17" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AZ17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BA17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="BC17" s="1">
+      <c r="BD17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="BE17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="1">
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI17" s="1">
+      <c r="BK17" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ17" s="1">
+      <c r="BL17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="228">
   <si>
     <t>Id</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>MeleeAttackHarmRange</t>
+  </si>
+  <si>
+    <t>MeleeAttackRepelRnage</t>
   </si>
   <si>
     <t>ShootSound</t>
@@ -340,7 +343,8 @@
 格式为[value]或者[min,max]</t>
   </si>
   <si>
-    <t>造成伤害后击退值区间,按每发子弹算击退
+    <t>造成伤害后击退值区间
+如果发射子弹,则按每发子弹算击退
 格式为[value]或者[min,max]</t>
   </si>
   <si>
@@ -374,6 +378,10 @@
 格式为格式为[value]或者[min,max]</t>
   </si>
   <si>
+    <t>近战攻击造成伤害后击退值区间
+格式为[value]或者[min,max]</t>
+  </si>
+  <si>
     <t>射击音效</t>
   </si>
   <si>
@@ -495,6 +503,9 @@
   </si>
   <si>
     <t>[10]</t>
+  </si>
+  <si>
+    <t>[100]</t>
   </si>
   <si>
     <t>shooting0005</t>
@@ -1702,14 +1713,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BO17"/>
+  <dimension ref="A1:BP17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AM10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AV10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP12" sqref="AP12"/>
+      <selection pane="bottomRight" activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1757,24 +1768,24 @@
     <col min="44" max="44" width="21.4272727272727" style="1" customWidth="1"/>
     <col min="45" max="45" width="27.3090909090909" style="1" customWidth="1"/>
     <col min="46" max="47" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="48" max="50" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="51" max="51" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="52" max="52" width="22.1" style="1" customWidth="1"/>
-    <col min="53" max="53" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="54" max="54" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="55" max="55" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="56" max="56" width="23.7" style="1" customWidth="1"/>
-    <col min="57" max="57" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="58" max="58" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="59" max="59" width="30.4727272727273" style="1" customWidth="1"/>
-    <col min="60" max="60" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="61" max="61" width="32.4727272727273" style="2" customWidth="1"/>
-    <col min="62" max="62" width="30.3727272727273" style="1" customWidth="1"/>
-    <col min="63" max="63" width="38.5181818181818" style="1" customWidth="1"/>
-    <col min="64" max="64" width="38.7727272727273" style="1" customWidth="1"/>
+    <col min="48" max="51" width="24.0727272727273" style="1" customWidth="1"/>
+    <col min="52" max="52" width="21.1090909090909" style="1" customWidth="1"/>
+    <col min="53" max="53" width="22.1" style="1" customWidth="1"/>
+    <col min="54" max="54" width="29.7545454545455" style="1" customWidth="1"/>
+    <col min="55" max="55" width="20.1181818181818" style="1" customWidth="1"/>
+    <col min="56" max="56" width="25.2272727272727" style="1" customWidth="1"/>
+    <col min="57" max="57" width="23.7" style="1" customWidth="1"/>
+    <col min="58" max="58" width="37.9272727272727" style="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5909090909091" style="1" customWidth="1"/>
+    <col min="60" max="60" width="30.4727272727273" style="1" customWidth="1"/>
+    <col min="61" max="61" width="31.8545454545455" style="1" customWidth="1"/>
+    <col min="62" max="62" width="32.4727272727273" style="2" customWidth="1"/>
+    <col min="63" max="63" width="30.3727272727273" style="1" customWidth="1"/>
+    <col min="64" max="64" width="38.5181818181818" style="1" customWidth="1"/>
+    <col min="65" max="65" width="38.7727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:64">
+    <row r="1" ht="31" customHeight="1" spans="1:65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,10 +1966,10 @@
       <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
@@ -1967,407 +1978,416 @@
       <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="BM1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:67">
+    <row r="2" ht="114" customHeight="1" spans="1:68">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM2" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="BN2" s="6"/>
       <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:64">
+    <row r="3" ht="27" customHeight="1" spans="1:65">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV3" s="1" t="s">
+      <c r="AX3" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>136</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI3" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="4" ht="57" customHeight="1" spans="1:61">
+    <row r="4" ht="57" customHeight="1" spans="1:62">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2421,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -2439,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -2463,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AJ4" s="1">
         <v>35</v>
@@ -2478,63 +2498,66 @@
         <v>1</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AU4" s="1">
         <v>0</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="AY4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB4" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE4" s="1">
+      <c r="BE4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BI4" s="5" t="s">
-        <v>156</v>
+      <c r="BJ4" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:64">
+    <row r="5" ht="57" customHeight="1" spans="1:65">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2588,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2606,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -2630,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AJ5" s="1">
         <v>35</v>
@@ -2645,73 +2668,76 @@
         <v>1</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR5" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AU5" s="1">
         <v>0</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="AY5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB5" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE5" s="1">
+      <c r="BE5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="BJ5" s="5"/>
       <c r="BK5" s="1">
         <v>0.5</v>
       </c>
       <c r="BL5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BM5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:61">
+    <row r="6" ht="57" customHeight="1" spans="1:62">
       <c r="A6" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2765,7 +2791,7 @@
         <v>0.6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2783,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2807,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ6" s="1">
         <v>35</v>
@@ -2822,75 +2848,78 @@
         <v>1</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR6" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS6" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AU6" s="1">
         <v>0.2</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BA6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF6" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="5" t="s">
-        <v>174</v>
+      <c r="BG6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:64">
+    <row r="7" ht="57" customHeight="1" spans="1:65">
       <c r="A7" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2944,7 +2973,7 @@
         <v>0.6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V7" s="1">
         <v>3.5</v>
@@ -2962,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -2986,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AJ7" s="1">
         <v>35</v>
@@ -3001,85 +3030,88 @@
         <v>1</v>
       </c>
       <c r="AN7" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AO7" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP7" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AR7" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AU7" s="1">
         <v>0.2</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="BE7" s="1">
+      <c r="BA7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF7" s="1">
         <v>0.3</v>
       </c>
-      <c r="BF7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="1">
+      <c r="BG7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="5"/>
+      <c r="BK7" s="1">
         <v>0.4</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BL7" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="1">
+      <c r="BM7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="57" customHeight="1" spans="1:61">
+    <row r="8" ht="57" customHeight="1" spans="1:62">
       <c r="A8" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3133,7 +3165,7 @@
         <v>0.05</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -3151,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -3175,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AJ8" s="1">
         <v>35</v>
@@ -3190,63 +3222,66 @@
         <v>1</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP8" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AQ8" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS8" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AU8" s="1">
         <v>0</v>
       </c>
       <c r="AV8" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY8" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" ht="57" customHeight="1" spans="1:65">
+      <c r="A9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" ht="57" customHeight="1" spans="1:64">
-      <c r="A9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3300,7 +3335,7 @@
         <v>0.05</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V9" s="1">
         <v>2</v>
@@ -3318,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3342,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AJ9" s="1">
         <v>35</v>
@@ -3357,73 +3392,76 @@
         <v>1</v>
       </c>
       <c r="AN9" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO9" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AP9" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AQ9" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AS9" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AU9" s="1">
         <v>0</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BE9" s="1">
+        <v>154</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="1">
-        <v>1</v>
-      </c>
+      <c r="BJ9" s="5"/>
       <c r="BK9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL9" s="1">
+      <c r="BM9" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:61">
+    <row r="10" ht="57" customHeight="1" spans="1:62">
       <c r="A10" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3477,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -3495,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -3519,7 +3557,7 @@
         <v>7</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AJ10" s="1">
         <v>24</v>
@@ -3534,45 +3572,48 @@
         <v>1</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO10" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AP10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ10" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" ht="57" customHeight="1" spans="1:65">
+      <c r="A11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="AQ10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI10" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" ht="57" customHeight="1" spans="1:64">
-      <c r="A11" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3626,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
@@ -3644,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -3668,7 +3709,7 @@
         <v>7</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AJ11" s="1">
         <v>24</v>
@@ -3683,55 +3724,58 @@
         <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO11" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AP11" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AQ11" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR11" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AU11" s="1">
         <v>0</v>
       </c>
       <c r="AV11" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BI11" s="5"/>
-      <c r="BJ11" s="1">
+        <v>154</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="1">
         <v>0.7</v>
       </c>
-      <c r="BK11" s="1">
+      <c r="BL11" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL11" s="1">
+      <c r="BM11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="57" customHeight="1" spans="1:61">
+    <row r="12" ht="57" customHeight="1" spans="1:62">
       <c r="A12" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3785,7 +3829,7 @@
         <v>0.9</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -3803,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -3827,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AJ12" s="1">
         <v>20</v>
@@ -3842,69 +3886,72 @@
         <v>1</v>
       </c>
       <c r="AN12" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO12" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP12" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AQ12" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR12" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AS12" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AU12" s="1">
         <v>0.2</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ12" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ12" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="BA12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="5" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:64">
+    <row r="13" ht="57" customHeight="1" spans="1:65">
       <c r="A13" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -3958,7 +4005,7 @@
         <v>0.9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V13" s="1">
         <v>5</v>
@@ -3976,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -4000,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AJ13" s="1">
         <v>20</v>
@@ -4015,78 +4062,81 @@
         <v>1</v>
       </c>
       <c r="AN13" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO13" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP13" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AQ13" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR13" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AS13" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AU13" s="1">
         <v>0.2</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AZ13" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="BG13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="1">
+        <v>155</v>
+      </c>
+      <c r="AZ13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA13" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="1">
         <v>1.5</v>
       </c>
-      <c r="BK13" s="1">
+      <c r="BL13" s="1">
         <v>0.5</v>
       </c>
-      <c r="BL13" s="1">
+      <c r="BM13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="57" customHeight="1" spans="1:61">
+    <row r="14" ht="57" customHeight="1" spans="1:62">
       <c r="A14" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4140,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -4158,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -4182,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AJ14" s="1">
         <v>35</v>
@@ -4197,63 +4247,66 @@
         <v>1</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AP14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AQ14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR14" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AS14" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AU14" s="1">
         <v>0</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ14" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BE14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BJ14" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" ht="57" customHeight="1" spans="1:65">
+      <c r="A15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="AZ14" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BI14" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" ht="57" customHeight="1" spans="1:64">
-      <c r="A15" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4307,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V15" s="1">
         <v>3.5</v>
@@ -4325,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -4349,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AJ15" s="1">
         <v>35</v>
@@ -4364,73 +4417,76 @@
         <v>1</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AP15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AQ15" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="AU15" s="1">
         <v>0</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AZ15" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BA15" s="1">
+        <v>154</v>
+      </c>
+      <c r="AY15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ15" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BB15" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BE15" s="1">
+      <c r="BE15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BI15" s="5"/>
-      <c r="BJ15" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="BJ15" s="5"/>
       <c r="BK15" s="1">
         <v>0.5</v>
       </c>
       <c r="BL15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BM15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:61">
+    <row r="16" ht="57" customHeight="1" spans="1:62">
       <c r="A16" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4484,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4502,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
@@ -4526,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AJ16" s="1">
         <v>35</v>
@@ -4541,63 +4597,66 @@
         <v>1</v>
       </c>
       <c r="AN16" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AO16" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AP16" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AQ16" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR16" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AW16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="BE16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="BJ16" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" ht="57" customHeight="1" spans="1:65">
+      <c r="A17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY16" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ16" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="BD16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE16" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="BI16" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" ht="57" customHeight="1" spans="1:64">
-      <c r="A17" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4651,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V17" s="1">
         <v>5</v>
@@ -4669,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -4693,7 +4752,7 @@
         <v>2</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AJ17" s="1">
         <v>35</v>
@@ -4708,61 +4767,64 @@
         <v>1</v>
       </c>
       <c r="AN17" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AO17" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AP17" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AQ17" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AR17" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AS17" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AU17" s="1">
         <v>0</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AW17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY17" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AZ17" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BA17" s="1">
+        <v>154</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA17" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE17" s="1">
+      <c r="BE17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BF17" s="1">
         <v>0.65</v>
       </c>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="BJ17" s="3"/>
       <c r="BK17" s="1">
         <v>0.5</v>
       </c>
       <c r="BL17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="BM17" s="1">
         <v>0</v>
       </c>
     </row>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="225">
   <si>
     <t>Id</t>
   </si>
@@ -204,13 +204,7 @@
     <t>AiUseAttribute</t>
   </si>
   <si>
-    <t>AiTargetLockingTime</t>
-  </si>
-  <si>
-    <t>AiBulletSpeedScale</t>
-  </si>
-  <si>
-    <t>AiAmmoConsumptionProbability</t>
+    <t>AiAttackAttr</t>
   </si>
   <si>
     <t>武器属性id</t>
@@ -418,16 +412,8 @@
 如果不填则Ai和玩家使用同一种属性</t>
   </si>
   <si>
-    <t>Ai属性
-目标锁定时间, 也就是瞄准目标多久才会开火, (单位: 秒)</t>
-  </si>
-  <si>
-    <t>Ai属性
-Ai使用该武器发射的子弹速度缩放比</t>
-  </si>
-  <si>
-    <t>Ai属性
-Ai使用该武器消耗弹药的概率, (0 - 1)</t>
+    <t>Ai使用该武器开火时的一些额外配置属性
+玩家使用的武器不需要填写该字段</t>
   </si>
   <si>
     <t>string</t>
@@ -461,6 +447,9 @@
   </si>
   <si>
     <t>$Weapon</t>
+  </si>
+  <si>
+    <t>$AiAttackAttr</t>
   </si>
   <si>
     <t>0001</t>
@@ -1359,11 +1348,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1713,14 +1702,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="AV10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AY14" sqref="AY14"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1779,13 +1768,10 @@
     <col min="59" max="59" width="22.5909090909091" style="1" customWidth="1"/>
     <col min="60" max="60" width="30.4727272727273" style="1" customWidth="1"/>
     <col min="61" max="61" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="62" max="62" width="32.4727272727273" style="2" customWidth="1"/>
-    <col min="63" max="63" width="30.3727272727273" style="1" customWidth="1"/>
-    <col min="64" max="64" width="38.5181818181818" style="1" customWidth="1"/>
-    <col min="65" max="65" width="38.7727272727273" style="1" customWidth="1"/>
+    <col min="62" max="63" width="32.4727272727273" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1" spans="1:65">
+    <row r="1" ht="31" customHeight="1" spans="1:63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1972,422 +1958,404 @@
       <c r="BJ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+    </row>
+    <row r="2" ht="114" customHeight="1" spans="1:66">
+      <c r="A2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
     </row>
-    <row r="2" ht="114" customHeight="1" spans="1:68">
-      <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
+    <row r="3" ht="27" customHeight="1" spans="1:63">
+      <c r="A3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="BK2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BL2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BM2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
+      <c r="G3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="3" ht="27" customHeight="1" spans="1:65">
-      <c r="A3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
+    <row r="4" ht="57" customHeight="1" spans="1:63">
+      <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BA3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" ht="57" customHeight="1" spans="1:62">
-      <c r="A4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D4" s="1">
         <v>40</v>
@@ -2441,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V4" s="1">
         <v>0</v>
@@ -2459,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -2483,7 +2451,7 @@
         <v>2</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AJ4" s="1">
         <v>35</v>
@@ -2498,66 +2466,67 @@
         <v>1</v>
       </c>
       <c r="AN4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AW4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AW4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="BB4" s="1">
         <v>0.2</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="BF4" s="1">
         <v>0.4</v>
       </c>
-      <c r="BJ4" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK4" s="6"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:65">
+    <row r="5" ht="57" customHeight="1" spans="1:63">
       <c r="A5" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1">
         <v>40</v>
@@ -2611,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V5" s="1">
         <v>3</v>
@@ -2629,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -2653,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AJ5" s="1">
         <v>35</v>
@@ -2668,76 +2637,70 @@
         <v>1</v>
       </c>
       <c r="AN5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO5" s="1" t="s">
+      <c r="AR5" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AS5" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AQ5" s="1" t="s">
+      <c r="AT5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AR5" s="1" t="s">
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AW5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AZ5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="AW5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="BB5" s="1">
         <v>0.2</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="BF5" s="1">
         <v>0.4</v>
       </c>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BL5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM5" s="1">
-        <v>0</v>
+      <c r="BJ5" s="6"/>
+      <c r="BK5" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="6" ht="57" customHeight="1" spans="1:62">
+    <row r="6" ht="57" customHeight="1" spans="1:63">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1">
         <v>40</v>
@@ -2791,7 +2754,7 @@
         <v>0.6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V6" s="1">
         <v>0</v>
@@ -2809,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -2833,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AJ6" s="1">
         <v>35</v>
@@ -2848,78 +2811,79 @@
         <v>1</v>
       </c>
       <c r="AN6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR6" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AO6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AT6" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AU6" s="1">
         <v>0.2</v>
       </c>
       <c r="AV6" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AW6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AZ6" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BD6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="BF6" s="1">
         <v>0.3</v>
       </c>
       <c r="BG6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BH6" s="1">
         <v>0</v>
       </c>
-      <c r="BJ6" s="5" t="s">
-        <v>177</v>
-      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK6" s="6"/>
     </row>
-    <row r="7" ht="57" customHeight="1" spans="1:65">
+    <row r="7" ht="57" customHeight="1" spans="1:63">
       <c r="A7" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="1">
         <v>40</v>
@@ -2973,7 +2937,7 @@
         <v>0.6</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V7" s="1">
         <v>3.5</v>
@@ -2991,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -3015,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AJ7" s="1">
         <v>35</v>
@@ -3030,88 +2994,82 @@
         <v>1</v>
       </c>
       <c r="AN7" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AO7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="AU7" s="1">
         <v>0.2</v>
       </c>
       <c r="AV7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AW7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY7" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AZ7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BD7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="BF7" s="1">
         <v>0.3</v>
       </c>
       <c r="BG7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="6"/>
+      <c r="BK7" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:63">
+      <c r="A8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="BL7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="57" customHeight="1" spans="1:62">
-      <c r="A8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D8" s="1">
         <v>20</v>
@@ -3165,7 +3123,7 @@
         <v>0.05</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V8" s="1">
         <v>0</v>
@@ -3183,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -3207,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AJ8" s="1">
         <v>35</v>
@@ -3222,66 +3180,67 @@
         <v>1</v>
       </c>
       <c r="AN8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AR8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
+      <c r="AS8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AR8" s="1" t="s">
+      <c r="AU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AW8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ8" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="BF8" s="1">
         <v>0.43</v>
       </c>
-      <c r="BJ8" s="5" t="s">
-        <v>186</v>
-      </c>
+      <c r="BJ8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK8" s="6"/>
     </row>
-    <row r="9" ht="57" customHeight="1" spans="1:65">
+    <row r="9" ht="57" customHeight="1" spans="1:63">
       <c r="A9" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1">
         <v>20</v>
@@ -3335,7 +3294,7 @@
         <v>0.05</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V9" s="1">
         <v>2</v>
@@ -3353,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -3377,7 +3336,7 @@
         <v>4</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AJ9" s="1">
         <v>35</v>
@@ -3392,76 +3351,70 @@
         <v>1</v>
       </c>
       <c r="AN9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AP9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AS9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AR9" s="1" t="s">
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AS9" s="1" t="s">
+      <c r="AW9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="BF9" s="1">
         <v>0.43</v>
       </c>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="1">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>0</v>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="6" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:62">
+    <row r="10" ht="57" customHeight="1" spans="1:63">
       <c r="A10" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10" s="1">
         <v>40</v>
@@ -3515,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V10" s="1">
         <v>0</v>
@@ -3533,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -3557,7 +3510,7 @@
         <v>7</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AJ10" s="1">
         <v>24</v>
@@ -3572,48 +3525,49 @@
         <v>1</v>
       </c>
       <c r="AN10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS10" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ10" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AQ10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AS10" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY10" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BJ10" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="BK10" s="6"/>
     </row>
-    <row r="11" ht="57" customHeight="1" spans="1:65">
+    <row r="11" ht="57" customHeight="1" spans="1:63">
       <c r="A11" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D11" s="1">
         <v>40</v>
@@ -3667,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
@@ -3685,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB11" s="1">
         <v>0</v>
@@ -3709,7 +3663,7 @@
         <v>7</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AJ11" s="1">
         <v>24</v>
@@ -3724,58 +3678,52 @@
         <v>1</v>
       </c>
       <c r="AN11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AR11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS11" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AP11" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AQ11" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR11" s="1" t="s">
+      <c r="AU11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" ht="57" customHeight="1" spans="1:63">
+      <c r="A12" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AS11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY11" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BJ11" s="5"/>
-      <c r="BK11" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="57" customHeight="1" spans="1:62">
-      <c r="A12" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3829,7 +3777,7 @@
         <v>0.9</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V12" s="1">
         <v>0</v>
@@ -3847,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -3871,7 +3819,7 @@
         <v>5</v>
       </c>
       <c r="AI12" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AJ12" s="1">
         <v>20</v>
@@ -3886,72 +3834,73 @@
         <v>1</v>
       </c>
       <c r="AN12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP12" s="1" t="s">
+      <c r="AR12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT12" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="AQ12" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR12" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS12" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT12" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="AU12" s="1">
         <v>0.2</v>
       </c>
       <c r="AV12" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AW12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AZ12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="BA12" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG12" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="5" t="s">
-        <v>207</v>
-      </c>
+      <c r="BK12" s="6"/>
     </row>
-    <row r="13" ht="57" customHeight="1" spans="1:65">
+    <row r="13" ht="57" customHeight="1" spans="1:63">
       <c r="A13" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -4005,7 +3954,7 @@
         <v>0.9</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V13" s="1">
         <v>5</v>
@@ -4023,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -4047,7 +3996,7 @@
         <v>5</v>
       </c>
       <c r="AI13" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AJ13" s="1">
         <v>20</v>
@@ -4062,81 +4011,75 @@
         <v>1</v>
       </c>
       <c r="AN13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AO13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP13" s="1" t="s">
+      <c r="AR13" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AT13" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="AQ13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="AS13" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT13" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="AU13" s="1">
         <v>0.2</v>
       </c>
       <c r="AV13" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AW13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY13" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AZ13" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="BA13" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" ht="57" customHeight="1" spans="1:63">
+      <c r="A14" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="BB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="BF13" s="1">
-        <v>1</v>
-      </c>
-      <c r="BG13" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BH13" s="1">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="BL13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="57" customHeight="1" spans="1:62">
-      <c r="A14" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D14" s="1">
         <v>30</v>
@@ -4190,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V14" s="1">
         <v>0</v>
@@ -4208,7 +4151,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -4232,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="AI14" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AJ14" s="1">
         <v>35</v>
@@ -4247,66 +4190,67 @@
         <v>1</v>
       </c>
       <c r="AN14" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO14" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AP14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AQ14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AR14" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS14" s="1" t="s">
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AT14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AU14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY14" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="AZ14" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BA14" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BB14" s="1">
         <v>0.2</v>
       </c>
       <c r="BE14" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BF14" s="1">
         <v>0.5</v>
       </c>
       <c r="BJ14" s="3" t="s">
-        <v>216</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="BK14" s="3"/>
     </row>
-    <row r="15" ht="57" customHeight="1" spans="1:65">
+    <row r="15" ht="57" customHeight="1" spans="1:63">
       <c r="A15" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D15" s="1">
         <v>30</v>
@@ -4360,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="V15" s="1">
         <v>3.5</v>
@@ -4378,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -4402,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="AI15" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AJ15" s="1">
         <v>35</v>
@@ -4417,76 +4361,70 @@
         <v>1</v>
       </c>
       <c r="AN15" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AO15" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AP15" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AQ15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT15" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AR15" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AT15" s="1" t="s">
+      <c r="AY15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AU15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY15" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="AZ15" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BA15" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BB15" s="1">
         <v>0.2</v>
       </c>
       <c r="BE15" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="BF15" s="1">
         <v>0.5</v>
       </c>
-      <c r="BJ15" s="5"/>
-      <c r="BK15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BL15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM15" s="1">
-        <v>0</v>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="16" ht="57" customHeight="1" spans="1:62">
+    <row r="16" ht="57" customHeight="1" spans="1:63">
       <c r="A16" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D16" s="1">
         <v>40</v>
@@ -4540,7 +4478,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="V16" s="1">
         <v>0</v>
@@ -4558,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB16" s="1">
         <v>0</v>
@@ -4582,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AJ16" s="1">
         <v>35</v>
@@ -4597,66 +4535,67 @@
         <v>1</v>
       </c>
       <c r="AN16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AO16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP16" s="1" t="s">
+      <c r="AT16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ16" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AQ16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR16" s="1" t="s">
+      <c r="BA16" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="AS16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ16" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA16" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="BB16" s="1">
         <v>0.2</v>
       </c>
       <c r="BE16" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="BF16" s="1">
         <v>0.65</v>
       </c>
       <c r="BJ16" s="3" t="s">
-        <v>227</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="BK16" s="3"/>
     </row>
-    <row r="17" ht="57" customHeight="1" spans="1:65">
+    <row r="17" ht="57" customHeight="1" spans="1:63">
       <c r="A17" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D17" s="1">
         <v>40</v>
@@ -4710,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="V17" s="1">
         <v>5</v>
@@ -4728,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -4752,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="AI17" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AJ17" s="1">
         <v>35</v>
@@ -4767,65 +4706,59 @@
         <v>1</v>
       </c>
       <c r="AN17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AS17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="AO17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP17" s="1" t="s">
+      <c r="AT17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ17" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="AQ17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AR17" s="1" t="s">
+      <c r="BA17" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="AS17" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT17" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AW17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AY17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AZ17" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA17" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="BB17" s="1">
         <v>0.2</v>
       </c>
       <c r="BE17" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="BF17" s="1">
         <v>0.65</v>
       </c>
       <c r="BJ17" s="3"/>
-      <c r="BK17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BL17" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BM17" s="1">
-        <v>0</v>
+      <c r="BK17" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4841,7 +4774,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4858,7 +4791,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
+++ b/DungeonShooting_Godot/excel/excelFile/Weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="21094" windowHeight="9925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1705,70 +1705,70 @@
   <dimension ref="A1:BN17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="BF13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="BK13" sqref="BK13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="21.2272727272727" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6818181818182" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.2252252252252" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6846846846847" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1090909090909" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6636363636364" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.2181818181818" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.8909090909091" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.1818181818182" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7818181818182" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.0545454545455" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.2181818181818" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.4818181818182" style="1" customWidth="1"/>
-    <col min="14" max="14" width="34.2818181818182" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6363636363636" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.6636363636364" style="1" customWidth="1"/>
-    <col min="17" max="18" width="25.0727272727273" style="1" customWidth="1"/>
-    <col min="19" max="19" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.6363636363636" style="1" customWidth="1"/>
-    <col min="21" max="21" width="24.8909090909091" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21.3363636363636" style="1" customWidth="1"/>
-    <col min="23" max="23" width="23.3363636363636" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20.9545454545455" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.1090909090909" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7818181818182" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5363636363636" style="1" customWidth="1"/>
-    <col min="28" max="28" width="20.4727272727273" style="1" customWidth="1"/>
-    <col min="29" max="29" width="26.6545454545455" style="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="29.2" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1081081081081" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1081081081081" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.2162162162162" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.8918918918919" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.1801801801802" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7837837837838" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.0540540540541" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.2162162162162" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.4774774774775" style="1" customWidth="1"/>
+    <col min="14" max="14" width="34.2792792792793" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.6396396396396" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.6666666666667" style="1" customWidth="1"/>
+    <col min="17" max="18" width="25.0720720720721" style="1" customWidth="1"/>
+    <col min="19" max="19" width="25.2252252252252" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.6396396396396" style="1" customWidth="1"/>
+    <col min="21" max="21" width="24.8918918918919" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.3333333333333" style="1" customWidth="1"/>
+    <col min="23" max="23" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20.954954954955" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.1081081081081" style="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7837837837838" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5405405405405" style="1" customWidth="1"/>
+    <col min="28" max="28" width="20.4684684684685" style="1" customWidth="1"/>
+    <col min="29" max="29" width="26.6576576576577" style="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5045045045045" style="1" customWidth="1"/>
+    <col min="31" max="31" width="29.1981981981982" style="1" customWidth="1"/>
     <col min="32" max="32" width="30" style="1" customWidth="1"/>
-    <col min="33" max="33" width="34.4090909090909" style="1" customWidth="1"/>
-    <col min="34" max="34" width="17.7818181818182" style="1" customWidth="1"/>
+    <col min="33" max="33" width="34.4054054054054" style="1" customWidth="1"/>
+    <col min="34" max="34" width="17.7837837837838" style="1" customWidth="1"/>
     <col min="35" max="35" width="20" style="1" customWidth="1"/>
-    <col min="36" max="36" width="30.9818181818182" style="1" customWidth="1"/>
-    <col min="37" max="37" width="22.9636363636364" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23.7" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.6454545454545" style="1" customWidth="1"/>
-    <col min="40" max="42" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="43" max="43" width="29.8454545454545" style="1" customWidth="1"/>
-    <col min="44" max="44" width="21.4272727272727" style="1" customWidth="1"/>
-    <col min="45" max="45" width="27.3090909090909" style="1" customWidth="1"/>
-    <col min="46" max="47" width="27.7818181818182" style="1" customWidth="1"/>
-    <col min="48" max="51" width="24.0727272727273" style="1" customWidth="1"/>
-    <col min="52" max="52" width="21.1090909090909" style="1" customWidth="1"/>
-    <col min="53" max="53" width="22.1" style="1" customWidth="1"/>
-    <col min="54" max="54" width="29.7545454545455" style="1" customWidth="1"/>
-    <col min="55" max="55" width="20.1181818181818" style="1" customWidth="1"/>
-    <col min="56" max="56" width="25.2272727272727" style="1" customWidth="1"/>
-    <col min="57" max="57" width="23.7" style="1" customWidth="1"/>
-    <col min="58" max="58" width="37.9272727272727" style="1" customWidth="1"/>
-    <col min="59" max="59" width="22.5909090909091" style="1" customWidth="1"/>
-    <col min="60" max="60" width="30.4727272727273" style="1" customWidth="1"/>
-    <col min="61" max="61" width="31.8545454545455" style="1" customWidth="1"/>
-    <col min="62" max="63" width="32.4727272727273" style="2" customWidth="1"/>
+    <col min="36" max="36" width="30.981981981982" style="1" customWidth="1"/>
+    <col min="37" max="37" width="22.963963963964" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23.7027027027027" style="1" customWidth="1"/>
+    <col min="39" max="39" width="27.6486486486486" style="1" customWidth="1"/>
+    <col min="40" max="42" width="27.7837837837838" style="1" customWidth="1"/>
+    <col min="43" max="43" width="29.8468468468468" style="1" customWidth="1"/>
+    <col min="44" max="44" width="21.4234234234234" style="1" customWidth="1"/>
+    <col min="45" max="45" width="27.3063063063063" style="1" customWidth="1"/>
+    <col min="46" max="47" width="27.7837837837838" style="1" customWidth="1"/>
+    <col min="48" max="51" width="24.0720720720721" style="1" customWidth="1"/>
+    <col min="52" max="52" width="21.1081081081081" style="1" customWidth="1"/>
+    <col min="53" max="53" width="22.0990990990991" style="1" customWidth="1"/>
+    <col min="54" max="54" width="29.7567567567568" style="1" customWidth="1"/>
+    <col min="55" max="55" width="20.1171171171171" style="1" customWidth="1"/>
+    <col min="56" max="56" width="25.2252252252252" style="1" customWidth="1"/>
+    <col min="57" max="57" width="23.7027027027027" style="1" customWidth="1"/>
+    <col min="58" max="58" width="37.9279279279279" style="1" customWidth="1"/>
+    <col min="59" max="59" width="22.5945945945946" style="1" customWidth="1"/>
+    <col min="60" max="60" width="30.4684684684685" style="1" customWidth="1"/>
+    <col min="61" max="61" width="31.8558558558559" style="1" customWidth="1"/>
+    <col min="62" max="63" width="32.4684684684685" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:63">
@@ -4413,7 +4413,7 @@
       </c>
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" ht="57" customHeight="1" spans="1:63">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="BJ17" s="3"/>
       <c r="BK17" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4777,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4794,7 +4794,7 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
